--- a/me/1.Lap-trinh-python/9.Cac-van-de-mo-rong.xlsx
+++ b/me/1.Lap-trinh-python/9.Cac-van-de-mo-rong.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vudinhquang/Documents/quang/python/me/1.Lap-trinh-python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79355ED2-1371-F64B-8173-A83F037F03E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89789A26-1239-9646-82EE-F749B110C44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="1080" windowWidth="33800" windowHeight="18400" xr2:uid="{472041F3-94B6-BA44-8755-3BBFF041A0A3}"/>
+    <workbookView xWindow="1040" yWindow="1120" windowWidth="33800" windowHeight="18400" activeTab="1" xr2:uid="{472041F3-94B6-BA44-8755-3BBFF041A0A3}"/>
   </bookViews>
   <sheets>
     <sheet name="name" sheetId="1" r:id="rId1"/>
+    <sheet name="Local - global" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="111">
   <si>
     <t>構成</t>
   </si>
@@ -314,6 +315,60 @@
   </si>
   <si>
     <t>python3 libs.py</t>
+  </si>
+  <si>
+    <t>02_local_global.py</t>
+  </si>
+  <si>
+    <t>python/1.Lap-trinh-python/9.Cac-van-de-mo-rong/02_local_global.py</t>
+  </si>
+  <si>
+    <t>x = 25</t>
+  </si>
+  <si>
+    <t>def myFunc():</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    y = 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    print(locals())</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    print("------------------")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    print(globals())</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    print(locals()["y"])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    print("==================")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    print(__file__)</t>
+  </si>
+  <si>
+    <t>myFunc()</t>
+  </si>
+  <si>
+    <t>python3 02_local_global.py</t>
+  </si>
+  <si>
+    <t>{'y': 100}</t>
+  </si>
+  <si>
+    <t>/Users/vudinhquang/Documents/quang/python/1.Lap-trinh-python/9.Cac-van-de-mo-rong/02_local_global.py</t>
+  </si>
+  <si>
+    <t>Lấy tất cả các biến toàn cục</t>
+  </si>
+  <si>
+    <t>Lấy tất cả các biến cục bộ</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -458,7 +513,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -471,18 +526,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -777,6 +835,161 @@
         <a:xfrm flipH="1">
           <a:off x="1025769" y="20857308"/>
           <a:ext cx="97693" cy="1896859"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>93134</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>162597</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EBD8548-A3BF-FE7E-4263-EDE13B07737F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="931333" y="20616334"/>
+          <a:ext cx="11677264" cy="1430866"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>160867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>618067</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>8467</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8113302-E437-8112-C016-24FEB281198A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1007533" y="17839267"/>
+          <a:ext cx="440267" cy="3098800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>389467</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>186267</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9A0AC9C-3824-C6C8-18F5-AC1135C9913E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1219200" y="18677467"/>
+          <a:ext cx="347133" cy="2421466"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1104,8 +1317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7779F5E-01EF-084A-8B97-AAF808492865}">
   <dimension ref="A3:O115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="156" workbookViewId="0">
-      <selection activeCell="F95" sqref="F95"/>
+    <sheetView zoomScale="156" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1961,7 +2174,7 @@
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="5"/>
-      <c r="C76" s="12" t="s">
+      <c r="C76" t="s">
         <v>70</v>
       </c>
       <c r="D76" s="1"/>
@@ -1979,7 +2192,7 @@
       <c r="H77" s="1"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="22" t="s">
+      <c r="A80" s="20" t="s">
         <v>76</v>
       </c>
       <c r="F80" t="s">
@@ -1990,20 +2203,18 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B81" s="13" t="s">
+      <c r="B81" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="15"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="14"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B82" s="16" t="s">
+      <c r="B82" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C82" s="17"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="18"/>
+      <c r="E82" s="16"/>
       <c r="F82" t="s">
         <v>71</v>
       </c>
@@ -2012,34 +2223,26 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B83" s="16" t="s">
+      <c r="B83" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C83" s="17"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="18"/>
+      <c r="E83" s="16"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B84" s="16" t="s">
+      <c r="B84" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="18"/>
+      <c r="E84" s="16"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B85" s="16"/>
-      <c r="C85" s="17"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="18"/>
+      <c r="B85" s="15"/>
+      <c r="E85" s="16"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B86" s="16" t="s">
+      <c r="B86" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C86" s="17"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="18"/>
+      <c r="E86" s="16"/>
       <c r="F86" t="s">
         <v>71</v>
       </c>
@@ -2048,38 +2251,30 @@
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B87" s="16" t="s">
+      <c r="B87" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C87" s="17"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="18"/>
+      <c r="E87" s="16"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B88" s="19" t="s">
+      <c r="B88" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C88" s="20"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="21"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B89" s="17"/>
-      <c r="C89" s="17"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="17"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="19"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="22" t="s">
+      <c r="A91" s="20" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B92" s="13" t="s">
+      <c r="B92" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C92" s="14"/>
-      <c r="D92" s="15"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="14"/>
       <c r="E92" t="s">
         <v>71</v>
       </c>
@@ -2088,333 +2283,1419 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B93" s="16"/>
-      <c r="C93" s="17"/>
-      <c r="D93" s="18"/>
+      <c r="B93" s="15"/>
+      <c r="D93" s="16"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B94" s="16" t="s">
+      <c r="B94" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C94" s="17"/>
-      <c r="D94" s="18"/>
+      <c r="D94" s="16"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B95" s="19"/>
-      <c r="C95" s="20"/>
-      <c r="D95" s="21"/>
+      <c r="B95" s="17"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="19"/>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A98" s="23" t="s">
+      <c r="A98" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c r="G98" s="14"/>
-      <c r="H98" s="14"/>
-      <c r="I98" s="14"/>
-      <c r="J98" s="14"/>
-      <c r="K98" s="14"/>
-      <c r="L98" s="14"/>
-      <c r="M98" s="14"/>
-      <c r="N98" s="14"/>
-      <c r="O98" s="15"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="13"/>
+      <c r="I98" s="13"/>
+      <c r="J98" s="13"/>
+      <c r="K98" s="13"/>
+      <c r="L98" s="13"/>
+      <c r="M98" s="13"/>
+      <c r="N98" s="13"/>
+      <c r="O98" s="14"/>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A99" s="16"/>
-      <c r="B99" s="13" t="s">
+      <c r="A99" s="15"/>
+      <c r="B99" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c r="G99" s="14"/>
-      <c r="H99" s="14"/>
-      <c r="I99" s="14"/>
-      <c r="J99" s="14"/>
-      <c r="K99" s="14"/>
-      <c r="L99" s="14"/>
-      <c r="M99" s="14"/>
-      <c r="N99" s="15"/>
-      <c r="O99" s="18"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="13"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="13"/>
+      <c r="I99" s="13"/>
+      <c r="J99" s="13"/>
+      <c r="K99" s="13"/>
+      <c r="L99" s="13"/>
+      <c r="M99" s="13"/>
+      <c r="N99" s="14"/>
+      <c r="O99" s="16"/>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A100" s="16"/>
-      <c r="B100" s="16"/>
-      <c r="C100" s="17"/>
-      <c r="D100" s="17"/>
-      <c r="E100" s="17"/>
-      <c r="F100" s="17"/>
-      <c r="G100" s="17"/>
-      <c r="H100" s="17"/>
-      <c r="I100" s="17"/>
-      <c r="J100" s="17"/>
-      <c r="K100" s="17"/>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="18"/>
-      <c r="O100" s="18"/>
+      <c r="A100" s="15"/>
+      <c r="B100" s="15"/>
+      <c r="N100" s="16"/>
+      <c r="O100" s="16"/>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A101" s="16"/>
-      <c r="B101" s="16"/>
-      <c r="C101" s="17"/>
-      <c r="D101" s="17"/>
-      <c r="E101" s="17"/>
-      <c r="F101" s="17"/>
-      <c r="G101" s="17"/>
-      <c r="H101" s="17"/>
-      <c r="I101" s="17"/>
-      <c r="J101" s="17"/>
-      <c r="K101" s="17"/>
-      <c r="L101" s="17"/>
-      <c r="M101" s="17"/>
-      <c r="N101" s="18"/>
-      <c r="O101" s="18"/>
+      <c r="A101" s="15"/>
+      <c r="B101" s="15"/>
+      <c r="N101" s="16"/>
+      <c r="O101" s="16"/>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A102" s="16"/>
-      <c r="B102" s="16"/>
-      <c r="C102" s="17"/>
-      <c r="D102" s="17"/>
-      <c r="E102" s="17"/>
-      <c r="F102" s="17"/>
-      <c r="G102" s="17"/>
-      <c r="H102" s="17"/>
-      <c r="I102" s="17"/>
-      <c r="J102" s="17"/>
-      <c r="K102" s="17"/>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="18"/>
-      <c r="O102" s="18"/>
+      <c r="A102" s="15"/>
+      <c r="B102" s="15"/>
+      <c r="N102" s="16"/>
+      <c r="O102" s="16"/>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A103" s="16"/>
-      <c r="B103" s="16"/>
-      <c r="C103" s="17"/>
-      <c r="D103" s="17"/>
-      <c r="E103" s="17"/>
-      <c r="F103" s="17"/>
-      <c r="G103" s="17"/>
-      <c r="H103" s="17"/>
-      <c r="I103" s="17"/>
-      <c r="J103" s="17"/>
-      <c r="K103" s="17"/>
-      <c r="L103" s="17"/>
-      <c r="M103" s="17"/>
-      <c r="N103" s="18"/>
-      <c r="O103" s="18"/>
+      <c r="A103" s="15"/>
+      <c r="B103" s="15"/>
+      <c r="N103" s="16"/>
+      <c r="O103" s="16"/>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A104" s="16"/>
-      <c r="B104" s="16"/>
-      <c r="C104" s="17"/>
-      <c r="D104" s="17"/>
-      <c r="E104" s="17"/>
-      <c r="F104" s="17"/>
-      <c r="G104" s="17"/>
-      <c r="H104" s="17"/>
-      <c r="I104" s="17"/>
-      <c r="J104" s="17"/>
-      <c r="K104" s="17"/>
-      <c r="L104" s="17"/>
-      <c r="M104" s="17"/>
-      <c r="N104" s="18"/>
-      <c r="O104" s="18"/>
+      <c r="A104" s="15"/>
+      <c r="B104" s="15"/>
+      <c r="N104" s="16"/>
+      <c r="O104" s="16"/>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A105" s="16"/>
-      <c r="B105" s="19"/>
-      <c r="C105" s="20"/>
-      <c r="D105" s="20"/>
-      <c r="E105" s="20"/>
-      <c r="F105" s="20"/>
-      <c r="G105" s="20"/>
-      <c r="H105" s="20"/>
-      <c r="I105" s="20"/>
-      <c r="J105" s="20"/>
-      <c r="K105" s="20"/>
-      <c r="L105" s="20"/>
-      <c r="M105" s="20"/>
-      <c r="N105" s="21"/>
-      <c r="O105" s="18"/>
+      <c r="A105" s="15"/>
+      <c r="B105" s="17"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="18"/>
+      <c r="E105" s="18"/>
+      <c r="F105" s="18"/>
+      <c r="G105" s="18"/>
+      <c r="H105" s="18"/>
+      <c r="I105" s="18"/>
+      <c r="J105" s="18"/>
+      <c r="K105" s="18"/>
+      <c r="L105" s="18"/>
+      <c r="M105" s="18"/>
+      <c r="N105" s="19"/>
+      <c r="O105" s="16"/>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A106" s="16"/>
-      <c r="B106" s="17"/>
-      <c r="C106" s="17"/>
-      <c r="D106" s="17"/>
-      <c r="E106" s="17"/>
-      <c r="F106" s="17"/>
-      <c r="G106" s="17"/>
-      <c r="H106" s="17"/>
-      <c r="I106" s="17"/>
-      <c r="J106" s="17"/>
-      <c r="K106" s="17"/>
-      <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="18"/>
+      <c r="A106" s="15"/>
+      <c r="O106" s="16"/>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A107" s="16"/>
-      <c r="B107" s="17"/>
-      <c r="C107" s="17"/>
-      <c r="D107" s="17"/>
-      <c r="E107" s="17"/>
-      <c r="F107" s="17"/>
-      <c r="G107" s="17"/>
-      <c r="H107" s="17"/>
-      <c r="I107" s="17"/>
-      <c r="J107" s="17"/>
-      <c r="K107" s="17"/>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="18"/>
+      <c r="A107" s="15"/>
+      <c r="O107" s="16"/>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A108" s="16"/>
-      <c r="B108" s="13" t="s">
+      <c r="A108" s="15"/>
+      <c r="B108" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c r="G108" s="14"/>
-      <c r="H108" s="14"/>
-      <c r="I108" s="14"/>
-      <c r="J108" s="14"/>
-      <c r="K108" s="14"/>
-      <c r="L108" s="14"/>
-      <c r="M108" s="14"/>
-      <c r="N108" s="15"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="13"/>
+      <c r="F108" s="13"/>
+      <c r="G108" s="13"/>
+      <c r="H108" s="13"/>
+      <c r="I108" s="13"/>
+      <c r="J108" s="13"/>
+      <c r="K108" s="13"/>
+      <c r="L108" s="13"/>
+      <c r="M108" s="13"/>
+      <c r="N108" s="14"/>
+      <c r="O108" s="16"/>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A109" s="15"/>
+      <c r="B109" s="15"/>
+      <c r="N109" s="16"/>
+      <c r="O109" s="16"/>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A110" s="15"/>
+      <c r="B110" s="15"/>
+      <c r="N110" s="16"/>
+      <c r="O110" s="16"/>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A111" s="15"/>
+      <c r="B111" s="15"/>
+      <c r="N111" s="16"/>
+      <c r="O111" s="16"/>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A112" s="15"/>
+      <c r="B112" s="15"/>
+      <c r="N112" s="16"/>
+      <c r="O112" s="16"/>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A113" s="15"/>
+      <c r="B113" s="15"/>
+      <c r="N113" s="16"/>
+      <c r="O113" s="16"/>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A114" s="15"/>
+      <c r="B114" s="17"/>
+      <c r="C114" s="18"/>
+      <c r="D114" s="18"/>
+      <c r="E114" s="18"/>
+      <c r="F114" s="18"/>
+      <c r="G114" s="18"/>
+      <c r="H114" s="18"/>
+      <c r="I114" s="18"/>
+      <c r="J114" s="18"/>
+      <c r="K114" s="18"/>
+      <c r="L114" s="18"/>
+      <c r="M114" s="18"/>
+      <c r="N114" s="19"/>
+      <c r="O114" s="16"/>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A115" s="17"/>
+      <c r="B115" s="18"/>
+      <c r="C115" s="18"/>
+      <c r="D115" s="18"/>
+      <c r="E115" s="18"/>
+      <c r="F115" s="18"/>
+      <c r="G115" s="18"/>
+      <c r="H115" s="18"/>
+      <c r="I115" s="18"/>
+      <c r="J115" s="18"/>
+      <c r="K115" s="18"/>
+      <c r="L115" s="18"/>
+      <c r="M115" s="18"/>
+      <c r="N115" s="18"/>
+      <c r="O115" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7096B496-B791-9B41-9893-F4D2A346E3DC}">
+  <dimension ref="A3:P108"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H96" sqref="H96"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="1"/>
+      <c r="D34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="1"/>
+      <c r="D35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="1"/>
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="5"/>
+      <c r="C38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="5"/>
+      <c r="D39" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5"/>
+      <c r="D40" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5"/>
+      <c r="D41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="1"/>
+      <c r="D43" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="1"/>
+      <c r="D44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="1"/>
+      <c r="D45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="1"/>
+      <c r="D46" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="1"/>
+      <c r="D47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="1"/>
+      <c r="D48" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="1"/>
+      <c r="D49" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="1"/>
+      <c r="D50" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+      <c r="B55" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="1"/>
+      <c r="D57" t="s">
+        <v>50</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="1"/>
+      <c r="D58" t="s">
+        <v>51</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="1"/>
+      <c r="D59" t="s">
+        <v>52</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="6"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="1"/>
+      <c r="D60" t="s">
+        <v>53</v>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="1"/>
+      <c r="D61" t="s">
+        <v>54</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="1"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="1"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="1"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="1"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="1"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="1"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="1"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="1"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="1"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="1"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="1"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="1"/>
+      <c r="B75" s="5"/>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="6"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="1"/>
+      <c r="B76" s="5"/>
+      <c r="C76" t="s">
+        <v>69</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="1"/>
+      <c r="B77" s="5"/>
+      <c r="C77" t="s">
+        <v>70</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="6"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="1"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B82" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="14"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B83" s="15"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="16"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B84" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="16"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B85" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C85" s="23"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="16"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B86" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C86" s="23"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="16"/>
+      <c r="F86" t="s">
+        <v>71</v>
+      </c>
+      <c r="G86" t="s">
+        <v>106</v>
+      </c>
+      <c r="H86" t="s">
+        <v>71</v>
+      </c>
+      <c r="I86" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B87" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C87" s="23"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="16"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B88" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C88" s="23"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="16"/>
+      <c r="F88" t="s">
+        <v>71</v>
+      </c>
+      <c r="G88" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B89" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="16"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B90" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C90" s="23"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="16"/>
+      <c r="F90" t="s">
+        <v>71</v>
+      </c>
+      <c r="G90" s="24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B91" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="16"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B92" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C92" s="23"/>
+      <c r="D92" s="23"/>
+      <c r="E92" s="16"/>
+      <c r="F92" t="s">
+        <v>71</v>
+      </c>
+      <c r="G92" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B93" s="15"/>
+      <c r="C93" s="23"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="16"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B94" s="15"/>
+      <c r="C94" s="23"/>
+      <c r="D94" s="23"/>
+      <c r="E94" s="16"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B95" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C95" s="23"/>
+      <c r="D95" s="23"/>
+      <c r="E95" s="16"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B96" s="17"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="19"/>
+      <c r="H96" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A99" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B99" s="13"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="13"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="13"/>
+      <c r="I99" s="13"/>
+      <c r="J99" s="13"/>
+      <c r="K99" s="13"/>
+      <c r="L99" s="13"/>
+      <c r="M99" s="13"/>
+      <c r="N99" s="13"/>
+      <c r="O99" s="13"/>
+      <c r="P99" s="14"/>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A100" s="15"/>
+      <c r="B100" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C100" s="23"/>
+      <c r="D100" s="23"/>
+      <c r="E100" s="23"/>
+      <c r="F100" s="23"/>
+      <c r="G100" s="23"/>
+      <c r="H100" s="23"/>
+      <c r="I100" s="23"/>
+      <c r="J100" s="23"/>
+      <c r="K100" s="23"/>
+      <c r="L100" s="23"/>
+      <c r="M100" s="23"/>
+      <c r="N100" s="23"/>
+      <c r="O100" s="23"/>
+      <c r="P100" s="16"/>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A101" s="15"/>
+      <c r="B101" s="23"/>
+      <c r="C101" s="23"/>
+      <c r="D101" s="23"/>
+      <c r="E101" s="23"/>
+      <c r="F101" s="23"/>
+      <c r="G101" s="23"/>
+      <c r="H101" s="23"/>
+      <c r="I101" s="23"/>
+      <c r="J101" s="23"/>
+      <c r="K101" s="23"/>
+      <c r="L101" s="23"/>
+      <c r="M101" s="23"/>
+      <c r="N101" s="23"/>
+      <c r="O101" s="23"/>
+      <c r="P101" s="16"/>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A102" s="15"/>
+      <c r="B102" s="23"/>
+      <c r="C102" s="23"/>
+      <c r="D102" s="23"/>
+      <c r="E102" s="23"/>
+      <c r="F102" s="23"/>
+      <c r="G102" s="23"/>
+      <c r="H102" s="23"/>
+      <c r="I102" s="23"/>
+      <c r="J102" s="23"/>
+      <c r="K102" s="23"/>
+      <c r="L102" s="23"/>
+      <c r="M102" s="23"/>
+      <c r="N102" s="23"/>
+      <c r="O102" s="23"/>
+      <c r="P102" s="16"/>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A103" s="15"/>
+      <c r="B103" s="23"/>
+      <c r="C103" s="23"/>
+      <c r="D103" s="23"/>
+      <c r="E103" s="23"/>
+      <c r="F103" s="23"/>
+      <c r="G103" s="23"/>
+      <c r="H103" s="23"/>
+      <c r="I103" s="23"/>
+      <c r="J103" s="23"/>
+      <c r="K103" s="23"/>
+      <c r="L103" s="23"/>
+      <c r="M103" s="23"/>
+      <c r="N103" s="23"/>
+      <c r="O103" s="23"/>
+      <c r="P103" s="16"/>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A104" s="15"/>
+      <c r="B104" s="23"/>
+      <c r="C104" s="23"/>
+      <c r="D104" s="23"/>
+      <c r="E104" s="23"/>
+      <c r="F104" s="23"/>
+      <c r="G104" s="23"/>
+      <c r="H104" s="23"/>
+      <c r="I104" s="23"/>
+      <c r="J104" s="23"/>
+      <c r="K104" s="23"/>
+      <c r="L104" s="23"/>
+      <c r="M104" s="23"/>
+      <c r="N104" s="23"/>
+      <c r="O104" s="23"/>
+      <c r="P104" s="16"/>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A105" s="15"/>
+      <c r="B105" s="23"/>
+      <c r="C105" s="23"/>
+      <c r="D105" s="23"/>
+      <c r="E105" s="23"/>
+      <c r="F105" s="23"/>
+      <c r="G105" s="23"/>
+      <c r="H105" s="23"/>
+      <c r="I105" s="23"/>
+      <c r="J105" s="23"/>
+      <c r="K105" s="23"/>
+      <c r="L105" s="23"/>
+      <c r="M105" s="23"/>
+      <c r="N105" s="23"/>
+      <c r="O105" s="23"/>
+      <c r="P105" s="16"/>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A106" s="15"/>
+      <c r="B106" s="23"/>
+      <c r="C106" s="23"/>
+      <c r="D106" s="23"/>
+      <c r="E106" s="23"/>
+      <c r="F106" s="23"/>
+      <c r="G106" s="23"/>
+      <c r="H106" s="23"/>
+      <c r="I106" s="23"/>
+      <c r="J106" s="23"/>
+      <c r="K106" s="23"/>
+      <c r="L106" s="23"/>
+      <c r="M106" s="23"/>
+      <c r="N106" s="23"/>
+      <c r="O106" s="23"/>
+      <c r="P106" s="16"/>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A107" s="15"/>
+      <c r="B107" s="23"/>
+      <c r="C107" s="23"/>
+      <c r="D107" s="23"/>
+      <c r="E107" s="23"/>
+      <c r="F107" s="23"/>
+      <c r="G107" s="23"/>
+      <c r="H107" s="23"/>
+      <c r="I107" s="23"/>
+      <c r="J107" s="23"/>
+      <c r="K107" s="23"/>
+      <c r="L107" s="23"/>
+      <c r="M107" s="23"/>
+      <c r="N107" s="23"/>
+      <c r="O107" s="23"/>
+      <c r="P107" s="16"/>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A108" s="17"/>
+      <c r="B108" s="18"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="18"/>
+      <c r="E108" s="18"/>
+      <c r="F108" s="18"/>
+      <c r="G108" s="18"/>
+      <c r="H108" s="18"/>
+      <c r="I108" s="18"/>
+      <c r="J108" s="18"/>
+      <c r="K108" s="18"/>
+      <c r="L108" s="18"/>
+      <c r="M108" s="18"/>
+      <c r="N108" s="18"/>
       <c r="O108" s="18"/>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A109" s="16"/>
-      <c r="B109" s="16"/>
-      <c r="C109" s="17"/>
-      <c r="D109" s="17"/>
-      <c r="E109" s="17"/>
-      <c r="F109" s="17"/>
-      <c r="G109" s="17"/>
-      <c r="H109" s="17"/>
-      <c r="I109" s="17"/>
-      <c r="J109" s="17"/>
-      <c r="K109" s="17"/>
-      <c r="L109" s="17"/>
-      <c r="M109" s="17"/>
-      <c r="N109" s="18"/>
-      <c r="O109" s="18"/>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A110" s="16"/>
-      <c r="B110" s="16"/>
-      <c r="C110" s="17"/>
-      <c r="D110" s="17"/>
-      <c r="E110" s="17"/>
-      <c r="F110" s="17"/>
-      <c r="G110" s="17"/>
-      <c r="H110" s="17"/>
-      <c r="I110" s="17"/>
-      <c r="J110" s="17"/>
-      <c r="K110" s="17"/>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="18"/>
-      <c r="O110" s="18"/>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A111" s="16"/>
-      <c r="B111" s="16"/>
-      <c r="C111" s="17"/>
-      <c r="D111" s="17"/>
-      <c r="E111" s="17"/>
-      <c r="F111" s="17"/>
-      <c r="G111" s="17"/>
-      <c r="H111" s="17"/>
-      <c r="I111" s="17"/>
-      <c r="J111" s="17"/>
-      <c r="K111" s="17"/>
-      <c r="L111" s="17"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="18"/>
-      <c r="O111" s="18"/>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A112" s="16"/>
-      <c r="B112" s="16"/>
-      <c r="C112" s="17"/>
-      <c r="D112" s="17"/>
-      <c r="E112" s="17"/>
-      <c r="F112" s="17"/>
-      <c r="G112" s="17"/>
-      <c r="H112" s="17"/>
-      <c r="I112" s="17"/>
-      <c r="J112" s="17"/>
-      <c r="K112" s="17"/>
-      <c r="L112" s="17"/>
-      <c r="M112" s="17"/>
-      <c r="N112" s="18"/>
-      <c r="O112" s="18"/>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A113" s="16"/>
-      <c r="B113" s="16"/>
-      <c r="C113" s="17"/>
-      <c r="D113" s="17"/>
-      <c r="E113" s="17"/>
-      <c r="F113" s="17"/>
-      <c r="G113" s="17"/>
-      <c r="H113" s="17"/>
-      <c r="I113" s="17"/>
-      <c r="J113" s="17"/>
-      <c r="K113" s="17"/>
-      <c r="L113" s="17"/>
-      <c r="M113" s="17"/>
-      <c r="N113" s="18"/>
-      <c r="O113" s="18"/>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A114" s="16"/>
-      <c r="B114" s="19"/>
-      <c r="C114" s="20"/>
-      <c r="D114" s="20"/>
-      <c r="E114" s="20"/>
-      <c r="F114" s="20"/>
-      <c r="G114" s="20"/>
-      <c r="H114" s="20"/>
-      <c r="I114" s="20"/>
-      <c r="J114" s="20"/>
-      <c r="K114" s="20"/>
-      <c r="L114" s="20"/>
-      <c r="M114" s="20"/>
-      <c r="N114" s="21"/>
-      <c r="O114" s="18"/>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A115" s="19"/>
-      <c r="B115" s="20"/>
-      <c r="C115" s="20"/>
-      <c r="D115" s="20"/>
-      <c r="E115" s="20"/>
-      <c r="F115" s="20"/>
-      <c r="G115" s="20"/>
-      <c r="H115" s="20"/>
-      <c r="I115" s="20"/>
-      <c r="J115" s="20"/>
-      <c r="K115" s="20"/>
-      <c r="L115" s="20"/>
-      <c r="M115" s="20"/>
-      <c r="N115" s="20"/>
-      <c r="O115" s="21"/>
+      <c r="P108" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/me/1.Lap-trinh-python/9.Cac-van-de-mo-rong.xlsx
+++ b/me/1.Lap-trinh-python/9.Cac-van-de-mo-rong.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vudinhquang/Documents/quang/python/me/1.Lap-trinh-python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89789A26-1239-9646-82EE-F749B110C44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB5436F-020E-2747-BD9A-E7727DE3C107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1120" windowWidth="33800" windowHeight="18400" activeTab="1" xr2:uid="{472041F3-94B6-BA44-8755-3BBFF041A0A3}"/>
+    <workbookView xWindow="1040" yWindow="1060" windowWidth="33800" windowHeight="18400" activeTab="2" xr2:uid="{472041F3-94B6-BA44-8755-3BBFF041A0A3}"/>
   </bookViews>
   <sheets>
     <sheet name="name" sheetId="1" r:id="rId1"/>
     <sheet name="Local - global" sheetId="2" r:id="rId2"/>
+    <sheet name="Re 01" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="138">
   <si>
     <t>構成</t>
   </si>
@@ -369,13 +370,94 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>03_re_01.py</t>
+  </si>
+  <si>
+    <t>python/1.Lap-trinh-python/9.Cac-van-de-mo-rong/03_re_01.py</t>
+  </si>
+  <si>
+    <t>pattern = "abc"</t>
+  </si>
+  <si>
+    <t>・pattern = "abc"</t>
+  </si>
+  <si>
+    <t># https://www.youtube.com/results?search_query=zendvn+regular+experssion</t>
+  </si>
+  <si>
+    <t># https://www.tutorialspoint.com/python/python_reg_expressions.htm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">import re </t>
+  </si>
+  <si>
+    <t>match = re.match(pattern, text)</t>
+  </si>
+  <si>
+    <t>if match:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    print("Found")</t>
+  </si>
+  <si>
+    <t>else :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    print("Not Found") </t>
+  </si>
+  <si>
+    <t>python3 03_re_01.py</t>
+  </si>
+  <si>
+    <t>Kiểm tra xem pattern có ở đầu chuỗi text hay không</t>
+  </si>
+  <si>
+    <t>text    = "123 abc xabc 456"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    print(match)</t>
+  </si>
+  <si>
+    <t>pattern = ".*abc"</t>
+  </si>
+  <si>
+    <t>・pattern = ".*abc"</t>
+  </si>
+  <si>
+    <t>pattern = ".*abc.*"</t>
+  </si>
+  <si>
+    <t>・pattern = ".*abc.*"</t>
+  </si>
+  <si>
+    <t>03_re_02.py</t>
+  </si>
+  <si>
+    <t>python/1.Lap-trinh-python/9.Cac-van-de-mo-rong/03_re_02.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern = "[a-z]{3}-[1-9]{2}"  </t>
+  </si>
+  <si>
+    <t>text    = "auc-39"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    print("Not Found")</t>
+  </si>
+  <si>
+    <t>python3 03_re_02.py</t>
+  </si>
+  <si>
+    <t>Có 3 ký tự thường từ a đến z, tiếp theo là ký tự "-", tiếp theo là 2 ký tự số từ 1 đến 9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -397,6 +479,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -412,7 +502,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -509,11 +599,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -536,11 +641,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1018,6 +1126,293 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>102183</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>116782</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>381299</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>21897</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F9937BB-3AE5-A388-86CB-27B3CD4F3766}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="926953" y="20349196"/>
+          <a:ext cx="10176357" cy="926954"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>255460</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>145977</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>138678</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>87587</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FC1E63C-B50B-870E-A2F3-8E7F5B89AC7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1080230" y="18130345"/>
+          <a:ext cx="7306149" cy="350345"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>467127</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>124080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>795575</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>87587</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4D76F02-0D4E-FB95-1E2F-49FAEEFCF9AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1291897" y="17904080"/>
+          <a:ext cx="8576149" cy="576610"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>87586</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>65689</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>409267</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>21897</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAD10B02-598D-6FED-3125-20CA56FCD0B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="912356" y="25611666"/>
+          <a:ext cx="7744612" cy="773679"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>153276</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>80287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>502745</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>39271</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA89F8F3-2832-32FD-71BD-5A66E28601DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="978046" y="30939827"/>
+          <a:ext cx="7772400" cy="776455"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>65689</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>65691</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>265538</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEC49108-ACB1-A212-FBC3-9F9152822E5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="888649" y="35828891"/>
+          <a:ext cx="9252409" cy="858869"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2483,8 +2878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7096B496-B791-9B41-9893-F4D2A346E3DC}">
   <dimension ref="A3:P108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H96" sqref="H96"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3050,7 +3445,7 @@
       <c r="A52" s="1"/>
       <c r="B52" s="5"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="22" t="s">
+      <c r="D52" t="s">
         <v>74</v>
       </c>
       <c r="E52" s="1"/>
@@ -3076,7 +3471,7 @@
       <c r="A54" s="1"/>
       <c r="B54" s="5"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="22" t="s">
+      <c r="D54" t="s">
         <v>75</v>
       </c>
       <c r="E54" s="1"/>
@@ -3378,32 +3773,24 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B83" s="15"/>
-      <c r="C83" s="23"/>
-      <c r="D83" s="23"/>
       <c r="E83" s="16"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B84" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C84" s="23"/>
-      <c r="D84" s="23"/>
       <c r="E84" s="16"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B85" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C85" s="23"/>
-      <c r="D85" s="23"/>
       <c r="E85" s="16"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B86" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C86" s="23"/>
-      <c r="D86" s="23"/>
       <c r="E86" s="16"/>
       <c r="F86" t="s">
         <v>71</v>
@@ -3422,16 +3809,12 @@
       <c r="B87" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C87" s="23"/>
-      <c r="D87" s="23"/>
       <c r="E87" s="16"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B88" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C88" s="23"/>
-      <c r="D88" s="23"/>
       <c r="E88" s="16"/>
       <c r="F88" t="s">
         <v>71</v>
@@ -3444,21 +3827,17 @@
       <c r="B89" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C89" s="23"/>
-      <c r="D89" s="23"/>
       <c r="E89" s="16"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B90" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C90" s="23"/>
-      <c r="D90" s="23"/>
       <c r="E90" s="16"/>
       <c r="F90" t="s">
         <v>71</v>
       </c>
-      <c r="G90" s="24">
+      <c r="G90" s="22">
         <v>100</v>
       </c>
     </row>
@@ -3466,16 +3845,12 @@
       <c r="B91" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C91" s="23"/>
-      <c r="D91" s="23"/>
       <c r="E91" s="16"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B92" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C92" s="23"/>
-      <c r="D92" s="23"/>
       <c r="E92" s="16"/>
       <c r="F92" t="s">
         <v>71</v>
@@ -3486,22 +3861,16 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B93" s="15"/>
-      <c r="C93" s="23"/>
-      <c r="D93" s="23"/>
       <c r="E93" s="16"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B94" s="15"/>
-      <c r="C94" s="23"/>
-      <c r="D94" s="23"/>
       <c r="E94" s="16"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B95" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C95" s="23"/>
-      <c r="D95" s="23"/>
       <c r="E95" s="16"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
@@ -3535,148 +3904,37 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" s="15"/>
-      <c r="B100" s="23" t="s">
+      <c r="B100" t="s">
         <v>105</v>
       </c>
-      <c r="C100" s="23"/>
-      <c r="D100" s="23"/>
-      <c r="E100" s="23"/>
-      <c r="F100" s="23"/>
-      <c r="G100" s="23"/>
-      <c r="H100" s="23"/>
-      <c r="I100" s="23"/>
-      <c r="J100" s="23"/>
-      <c r="K100" s="23"/>
-      <c r="L100" s="23"/>
-      <c r="M100" s="23"/>
-      <c r="N100" s="23"/>
-      <c r="O100" s="23"/>
       <c r="P100" s="16"/>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" s="15"/>
-      <c r="B101" s="23"/>
-      <c r="C101" s="23"/>
-      <c r="D101" s="23"/>
-      <c r="E101" s="23"/>
-      <c r="F101" s="23"/>
-      <c r="G101" s="23"/>
-      <c r="H101" s="23"/>
-      <c r="I101" s="23"/>
-      <c r="J101" s="23"/>
-      <c r="K101" s="23"/>
-      <c r="L101" s="23"/>
-      <c r="M101" s="23"/>
-      <c r="N101" s="23"/>
-      <c r="O101" s="23"/>
       <c r="P101" s="16"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" s="15"/>
-      <c r="B102" s="23"/>
-      <c r="C102" s="23"/>
-      <c r="D102" s="23"/>
-      <c r="E102" s="23"/>
-      <c r="F102" s="23"/>
-      <c r="G102" s="23"/>
-      <c r="H102" s="23"/>
-      <c r="I102" s="23"/>
-      <c r="J102" s="23"/>
-      <c r="K102" s="23"/>
-      <c r="L102" s="23"/>
-      <c r="M102" s="23"/>
-      <c r="N102" s="23"/>
-      <c r="O102" s="23"/>
       <c r="P102" s="16"/>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" s="15"/>
-      <c r="B103" s="23"/>
-      <c r="C103" s="23"/>
-      <c r="D103" s="23"/>
-      <c r="E103" s="23"/>
-      <c r="F103" s="23"/>
-      <c r="G103" s="23"/>
-      <c r="H103" s="23"/>
-      <c r="I103" s="23"/>
-      <c r="J103" s="23"/>
-      <c r="K103" s="23"/>
-      <c r="L103" s="23"/>
-      <c r="M103" s="23"/>
-      <c r="N103" s="23"/>
-      <c r="O103" s="23"/>
       <c r="P103" s="16"/>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" s="15"/>
-      <c r="B104" s="23"/>
-      <c r="C104" s="23"/>
-      <c r="D104" s="23"/>
-      <c r="E104" s="23"/>
-      <c r="F104" s="23"/>
-      <c r="G104" s="23"/>
-      <c r="H104" s="23"/>
-      <c r="I104" s="23"/>
-      <c r="J104" s="23"/>
-      <c r="K104" s="23"/>
-      <c r="L104" s="23"/>
-      <c r="M104" s="23"/>
-      <c r="N104" s="23"/>
-      <c r="O104" s="23"/>
       <c r="P104" s="16"/>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="15"/>
-      <c r="B105" s="23"/>
-      <c r="C105" s="23"/>
-      <c r="D105" s="23"/>
-      <c r="E105" s="23"/>
-      <c r="F105" s="23"/>
-      <c r="G105" s="23"/>
-      <c r="H105" s="23"/>
-      <c r="I105" s="23"/>
-      <c r="J105" s="23"/>
-      <c r="K105" s="23"/>
-      <c r="L105" s="23"/>
-      <c r="M105" s="23"/>
-      <c r="N105" s="23"/>
-      <c r="O105" s="23"/>
       <c r="P105" s="16"/>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" s="15"/>
-      <c r="B106" s="23"/>
-      <c r="C106" s="23"/>
-      <c r="D106" s="23"/>
-      <c r="E106" s="23"/>
-      <c r="F106" s="23"/>
-      <c r="G106" s="23"/>
-      <c r="H106" s="23"/>
-      <c r="I106" s="23"/>
-      <c r="J106" s="23"/>
-      <c r="K106" s="23"/>
-      <c r="L106" s="23"/>
-      <c r="M106" s="23"/>
-      <c r="N106" s="23"/>
-      <c r="O106" s="23"/>
       <c r="P106" s="16"/>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" s="15"/>
-      <c r="B107" s="23"/>
-      <c r="C107" s="23"/>
-      <c r="D107" s="23"/>
-      <c r="E107" s="23"/>
-      <c r="F107" s="23"/>
-      <c r="G107" s="23"/>
-      <c r="H107" s="23"/>
-      <c r="I107" s="23"/>
-      <c r="J107" s="23"/>
-      <c r="K107" s="23"/>
-      <c r="L107" s="23"/>
-      <c r="M107" s="23"/>
-      <c r="N107" s="23"/>
-      <c r="O107" s="23"/>
       <c r="P107" s="16"/>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
@@ -3701,4 +3959,2673 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF812D9-6BE9-D24E-A2E0-24511D7FDF00}">
+  <dimension ref="A3:O182"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A167" zoomScale="125" workbookViewId="0">
+      <selection activeCell="G166" sqref="G166"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="1"/>
+      <c r="D34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="1"/>
+      <c r="D35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="1"/>
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="5"/>
+      <c r="C38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="5"/>
+      <c r="D39" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5"/>
+      <c r="D40" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5"/>
+      <c r="D41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="1"/>
+      <c r="D43" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="1"/>
+      <c r="D44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="1"/>
+      <c r="D45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="1"/>
+      <c r="D46" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="1"/>
+      <c r="D47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="1"/>
+      <c r="D48" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="1"/>
+      <c r="D49" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="1"/>
+      <c r="D50" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="1"/>
+      <c r="D52" t="s">
+        <v>74</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="1"/>
+      <c r="D56" t="s">
+        <v>75</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+      <c r="B57" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="1"/>
+      <c r="D59" t="s">
+        <v>50</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="1"/>
+      <c r="D60" t="s">
+        <v>51</v>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="1"/>
+      <c r="D61" t="s">
+        <v>52</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="6"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="1"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="1"/>
+      <c r="D62" t="s">
+        <v>53</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="1"/>
+      <c r="D63" t="s">
+        <v>54</v>
+      </c>
+      <c r="E63" s="1"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="1"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="1"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="1"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="1"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="1"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="1"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="1"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="1"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="1"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="1"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="1"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="1"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="1"/>
+      <c r="B77" s="5"/>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="6"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="1"/>
+      <c r="B78" s="5"/>
+      <c r="C78" t="s">
+        <v>69</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="1"/>
+      <c r="B79" s="5"/>
+      <c r="C79" t="s">
+        <v>70</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="6"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="1"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A83" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B83" s="13"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="13"/>
+      <c r="J83" s="13"/>
+      <c r="K83" s="13"/>
+      <c r="L83" s="13"/>
+      <c r="M83" s="13"/>
+      <c r="N83" s="13"/>
+      <c r="O83" s="14"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A84" s="15"/>
+      <c r="B84" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="13"/>
+      <c r="J84" s="13"/>
+      <c r="K84" s="13"/>
+      <c r="L84" s="13"/>
+      <c r="M84" s="13"/>
+      <c r="N84" s="14"/>
+      <c r="O84" s="16"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A85" s="15"/>
+      <c r="B85" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="24"/>
+      <c r="J85" s="24"/>
+      <c r="K85" s="24"/>
+      <c r="L85" s="24"/>
+      <c r="M85" s="24"/>
+      <c r="N85" s="16"/>
+      <c r="O85" s="16"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A86" s="15"/>
+      <c r="B86" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C86" s="24"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="24"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="24"/>
+      <c r="J86" s="24"/>
+      <c r="K86" s="24"/>
+      <c r="L86" s="24"/>
+      <c r="M86" s="24"/>
+      <c r="N86" s="16"/>
+      <c r="O86" s="16"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A87" s="15"/>
+      <c r="B87" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C87" s="24"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="24"/>
+      <c r="G87" s="24"/>
+      <c r="H87" s="16"/>
+      <c r="I87" s="24"/>
+      <c r="J87" s="24"/>
+      <c r="K87" s="24"/>
+      <c r="L87" s="24"/>
+      <c r="M87" s="24"/>
+      <c r="N87" s="16"/>
+      <c r="O87" s="16"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A88" s="15"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="16"/>
+      <c r="I88" s="24"/>
+      <c r="J88" s="24"/>
+      <c r="K88" s="24"/>
+      <c r="L88" s="24"/>
+      <c r="M88" s="24"/>
+      <c r="N88" s="16"/>
+      <c r="O88" s="16"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A89" s="15"/>
+      <c r="B89" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="24"/>
+      <c r="H89" s="16"/>
+      <c r="I89" s="24"/>
+      <c r="J89" s="24"/>
+      <c r="K89" s="24"/>
+      <c r="L89" s="24"/>
+      <c r="M89" s="24"/>
+      <c r="N89" s="16"/>
+      <c r="O89" s="16"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A90" s="15"/>
+      <c r="B90" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C90" s="24"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="24"/>
+      <c r="F90" s="24"/>
+      <c r="G90" s="24"/>
+      <c r="H90" s="16"/>
+      <c r="I90" s="24"/>
+      <c r="J90" s="24"/>
+      <c r="K90" s="24"/>
+      <c r="L90" s="24"/>
+      <c r="M90" s="24"/>
+      <c r="N90" s="16"/>
+      <c r="O90" s="16"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A91" s="15"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="24"/>
+      <c r="H91" s="16"/>
+      <c r="I91" s="24"/>
+      <c r="J91" s="24"/>
+      <c r="K91" s="24"/>
+      <c r="L91" s="24"/>
+      <c r="M91" s="24"/>
+      <c r="N91" s="16"/>
+      <c r="O91" s="16"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A92" s="15"/>
+      <c r="B92" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C92" s="24"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="24"/>
+      <c r="H92" s="16"/>
+      <c r="I92" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="J92" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="K92" s="24"/>
+      <c r="L92" s="24"/>
+      <c r="M92" s="24"/>
+      <c r="N92" s="16"/>
+      <c r="O92" s="16"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A93" s="15"/>
+      <c r="B93" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C93" s="24"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="24"/>
+      <c r="H93" s="16"/>
+      <c r="I93" s="24"/>
+      <c r="J93" s="24"/>
+      <c r="K93" s="24"/>
+      <c r="L93" s="24"/>
+      <c r="M93" s="24"/>
+      <c r="N93" s="16"/>
+      <c r="O93" s="16"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A94" s="15"/>
+      <c r="B94" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="24"/>
+      <c r="H94" s="16"/>
+      <c r="I94" s="24"/>
+      <c r="J94" s="24"/>
+      <c r="K94" s="24"/>
+      <c r="L94" s="24"/>
+      <c r="M94" s="24"/>
+      <c r="N94" s="16"/>
+      <c r="O94" s="16"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A95" s="15"/>
+      <c r="B95" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C95" s="24"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="24"/>
+      <c r="F95" s="24"/>
+      <c r="G95" s="24"/>
+      <c r="H95" s="16"/>
+      <c r="I95" s="24"/>
+      <c r="J95" s="24"/>
+      <c r="K95" s="24"/>
+      <c r="L95" s="24"/>
+      <c r="M95" s="24"/>
+      <c r="N95" s="16"/>
+      <c r="O95" s="16"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A96" s="15"/>
+      <c r="B96" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C96" s="24"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="24"/>
+      <c r="H96" s="16"/>
+      <c r="I96" s="24"/>
+      <c r="J96" s="24"/>
+      <c r="K96" s="24"/>
+      <c r="L96" s="24"/>
+      <c r="M96" s="24"/>
+      <c r="N96" s="16"/>
+      <c r="O96" s="16"/>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A97" s="15"/>
+      <c r="B97" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="18"/>
+      <c r="H97" s="19"/>
+      <c r="I97" s="24"/>
+      <c r="J97" s="24"/>
+      <c r="K97" s="24"/>
+      <c r="L97" s="24"/>
+      <c r="M97" s="24"/>
+      <c r="N97" s="16"/>
+      <c r="O97" s="16"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A98" s="15"/>
+      <c r="B98" s="15"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="24"/>
+      <c r="H98" s="24"/>
+      <c r="I98" s="24"/>
+      <c r="J98" s="24"/>
+      <c r="K98" s="24"/>
+      <c r="L98" s="24"/>
+      <c r="M98" s="24"/>
+      <c r="N98" s="16"/>
+      <c r="O98" s="16"/>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A99" s="15"/>
+      <c r="B99" s="15"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="24"/>
+      <c r="F99" s="24"/>
+      <c r="G99" s="24"/>
+      <c r="H99" s="24"/>
+      <c r="I99" s="24"/>
+      <c r="J99" s="24"/>
+      <c r="K99" s="24"/>
+      <c r="L99" s="24"/>
+      <c r="M99" s="24"/>
+      <c r="N99" s="16"/>
+      <c r="O99" s="16"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A100" s="15"/>
+      <c r="B100" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C100" s="24"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="24"/>
+      <c r="F100" s="24"/>
+      <c r="G100" s="24"/>
+      <c r="H100" s="24"/>
+      <c r="I100" s="24"/>
+      <c r="J100" s="24"/>
+      <c r="K100" s="24"/>
+      <c r="L100" s="24"/>
+      <c r="M100" s="24"/>
+      <c r="N100" s="16"/>
+      <c r="O100" s="16"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A101" s="15"/>
+      <c r="B101" s="15"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="24"/>
+      <c r="F101" s="24"/>
+      <c r="G101" s="24"/>
+      <c r="H101" s="24"/>
+      <c r="I101" s="24"/>
+      <c r="J101" s="24"/>
+      <c r="K101" s="24"/>
+      <c r="L101" s="24"/>
+      <c r="M101" s="24"/>
+      <c r="N101" s="16"/>
+      <c r="O101" s="16"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A102" s="15"/>
+      <c r="B102" s="15"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="24"/>
+      <c r="F102" s="24"/>
+      <c r="G102" s="24"/>
+      <c r="H102" s="24"/>
+      <c r="I102" s="24"/>
+      <c r="J102" s="24"/>
+      <c r="K102" s="24"/>
+      <c r="L102" s="24"/>
+      <c r="M102" s="24"/>
+      <c r="N102" s="16"/>
+      <c r="O102" s="16"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A103" s="15"/>
+      <c r="B103" s="15"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="24"/>
+      <c r="F103" s="24"/>
+      <c r="G103" s="24"/>
+      <c r="H103" s="24"/>
+      <c r="I103" s="24"/>
+      <c r="J103" s="24"/>
+      <c r="K103" s="24"/>
+      <c r="L103" s="24"/>
+      <c r="M103" s="24"/>
+      <c r="N103" s="16"/>
+      <c r="O103" s="16"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A104" s="15"/>
+      <c r="B104" s="15"/>
+      <c r="C104" s="24"/>
+      <c r="D104" s="24"/>
+      <c r="E104" s="24"/>
+      <c r="F104" s="24"/>
+      <c r="G104" s="24"/>
+      <c r="H104" s="24"/>
+      <c r="I104" s="24"/>
+      <c r="J104" s="24"/>
+      <c r="K104" s="24"/>
+      <c r="L104" s="24"/>
+      <c r="M104" s="24"/>
+      <c r="N104" s="16"/>
+      <c r="O104" s="16"/>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A105" s="15"/>
+      <c r="B105" s="15"/>
+      <c r="C105" s="24"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="24"/>
+      <c r="F105" s="24"/>
+      <c r="G105" s="24"/>
+      <c r="H105" s="24"/>
+      <c r="I105" s="24"/>
+      <c r="J105" s="24"/>
+      <c r="K105" s="24"/>
+      <c r="L105" s="24"/>
+      <c r="M105" s="24"/>
+      <c r="N105" s="16"/>
+      <c r="O105" s="16"/>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A106" s="15"/>
+      <c r="B106" s="17"/>
+      <c r="C106" s="18"/>
+      <c r="D106" s="18"/>
+      <c r="E106" s="18"/>
+      <c r="F106" s="18"/>
+      <c r="G106" s="18"/>
+      <c r="H106" s="18"/>
+      <c r="I106" s="18"/>
+      <c r="J106" s="18"/>
+      <c r="K106" s="18"/>
+      <c r="L106" s="18"/>
+      <c r="M106" s="18"/>
+      <c r="N106" s="19"/>
+      <c r="O106" s="16"/>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A107" s="15"/>
+      <c r="B107" s="24"/>
+      <c r="C107" s="24"/>
+      <c r="D107" s="24"/>
+      <c r="E107" s="24"/>
+      <c r="F107" s="24"/>
+      <c r="G107" s="24"/>
+      <c r="H107" s="24"/>
+      <c r="I107" s="24"/>
+      <c r="J107" s="24"/>
+      <c r="K107" s="24"/>
+      <c r="L107" s="24"/>
+      <c r="M107" s="24"/>
+      <c r="N107" s="24"/>
+      <c r="O107" s="16"/>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A108" s="15"/>
+      <c r="B108" s="24"/>
+      <c r="C108" s="24"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="24"/>
+      <c r="F108" s="24"/>
+      <c r="G108" s="24"/>
+      <c r="H108" s="24"/>
+      <c r="I108" s="24"/>
+      <c r="J108" s="24"/>
+      <c r="K108" s="24"/>
+      <c r="L108" s="24"/>
+      <c r="M108" s="24"/>
+      <c r="N108" s="24"/>
+      <c r="O108" s="16"/>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A109" s="15"/>
+      <c r="B109" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="C109" s="13"/>
+      <c r="D109" s="13"/>
+      <c r="E109" s="13"/>
+      <c r="F109" s="13"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="13"/>
+      <c r="I109" s="13"/>
+      <c r="J109" s="13"/>
+      <c r="K109" s="13"/>
+      <c r="L109" s="14"/>
+      <c r="M109" s="24"/>
+      <c r="N109" s="24"/>
+      <c r="O109" s="16"/>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A110" s="15"/>
+      <c r="B110" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C110" s="13"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="13"/>
+      <c r="F110" s="13"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="14"/>
+      <c r="I110" s="24"/>
+      <c r="J110" s="24"/>
+      <c r="K110" s="24"/>
+      <c r="L110" s="16"/>
+      <c r="M110" s="24"/>
+      <c r="N110" s="24"/>
+      <c r="O110" s="16"/>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A111" s="15"/>
+      <c r="B111" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C111" s="24"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="24"/>
+      <c r="F111" s="24"/>
+      <c r="G111" s="24"/>
+      <c r="H111" s="16"/>
+      <c r="I111" s="24"/>
+      <c r="J111" s="24"/>
+      <c r="K111" s="24"/>
+      <c r="L111" s="16"/>
+      <c r="M111" s="24"/>
+      <c r="N111" s="24"/>
+      <c r="O111" s="16"/>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A112" s="15"/>
+      <c r="B112" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C112" s="24"/>
+      <c r="D112" s="24"/>
+      <c r="E112" s="24"/>
+      <c r="F112" s="24"/>
+      <c r="G112" s="24"/>
+      <c r="H112" s="16"/>
+      <c r="I112" s="24"/>
+      <c r="J112" s="24"/>
+      <c r="K112" s="24"/>
+      <c r="L112" s="16"/>
+      <c r="M112" s="24"/>
+      <c r="N112" s="24"/>
+      <c r="O112" s="16"/>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A113" s="15"/>
+      <c r="B113" s="15"/>
+      <c r="C113" s="24"/>
+      <c r="D113" s="24"/>
+      <c r="E113" s="24"/>
+      <c r="F113" s="24"/>
+      <c r="G113" s="24"/>
+      <c r="H113" s="16"/>
+      <c r="I113" s="24"/>
+      <c r="J113" s="24"/>
+      <c r="K113" s="24"/>
+      <c r="L113" s="16"/>
+      <c r="M113" s="24"/>
+      <c r="N113" s="24"/>
+      <c r="O113" s="16"/>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A114" s="15"/>
+      <c r="B114" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C114" s="24"/>
+      <c r="D114" s="24"/>
+      <c r="E114" s="24"/>
+      <c r="F114" s="24"/>
+      <c r="G114" s="24"/>
+      <c r="H114" s="16"/>
+      <c r="I114" s="24"/>
+      <c r="J114" s="24"/>
+      <c r="K114" s="24"/>
+      <c r="L114" s="16"/>
+      <c r="M114" s="24"/>
+      <c r="N114" s="24"/>
+      <c r="O114" s="16"/>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A115" s="15"/>
+      <c r="B115" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C115" s="24"/>
+      <c r="D115" s="24"/>
+      <c r="E115" s="24"/>
+      <c r="F115" s="24"/>
+      <c r="G115" s="24"/>
+      <c r="H115" s="16"/>
+      <c r="I115" s="24"/>
+      <c r="J115" s="24"/>
+      <c r="K115" s="24"/>
+      <c r="L115" s="16"/>
+      <c r="M115" s="24"/>
+      <c r="N115" s="24"/>
+      <c r="O115" s="16"/>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A116" s="15"/>
+      <c r="B116" s="15"/>
+      <c r="C116" s="24"/>
+      <c r="D116" s="24"/>
+      <c r="E116" s="24"/>
+      <c r="F116" s="24"/>
+      <c r="G116" s="24"/>
+      <c r="H116" s="16"/>
+      <c r="I116" s="24"/>
+      <c r="J116" s="24"/>
+      <c r="K116" s="24"/>
+      <c r="L116" s="16"/>
+      <c r="M116" s="24"/>
+      <c r="N116" s="24"/>
+      <c r="O116" s="16"/>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A117" s="15"/>
+      <c r="B117" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C117" s="24"/>
+      <c r="D117" s="24"/>
+      <c r="E117" s="24"/>
+      <c r="F117" s="24"/>
+      <c r="G117" s="24"/>
+      <c r="H117" s="16"/>
+      <c r="I117" s="24"/>
+      <c r="J117" s="24"/>
+      <c r="K117" s="24"/>
+      <c r="L117" s="16"/>
+      <c r="M117" s="24"/>
+      <c r="N117" s="24"/>
+      <c r="O117" s="16"/>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A118" s="15"/>
+      <c r="B118" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C118" s="24"/>
+      <c r="D118" s="24"/>
+      <c r="E118" s="24"/>
+      <c r="F118" s="24"/>
+      <c r="G118" s="24"/>
+      <c r="H118" s="16"/>
+      <c r="I118" s="24"/>
+      <c r="J118" s="24"/>
+      <c r="K118" s="24"/>
+      <c r="L118" s="16"/>
+      <c r="M118" s="24"/>
+      <c r="N118" s="24"/>
+      <c r="O118" s="16"/>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A119" s="15"/>
+      <c r="B119" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C119" s="24"/>
+      <c r="D119" s="24"/>
+      <c r="E119" s="24"/>
+      <c r="F119" s="24"/>
+      <c r="G119" s="24"/>
+      <c r="H119" s="16"/>
+      <c r="I119" s="24"/>
+      <c r="J119" s="24"/>
+      <c r="K119" s="24"/>
+      <c r="L119" s="16"/>
+      <c r="M119" s="24"/>
+      <c r="N119" s="24"/>
+      <c r="O119" s="16"/>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A120" s="15"/>
+      <c r="B120" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C120" s="24"/>
+      <c r="D120" s="24"/>
+      <c r="E120" s="24"/>
+      <c r="F120" s="24"/>
+      <c r="G120" s="24"/>
+      <c r="H120" s="16"/>
+      <c r="I120" s="24"/>
+      <c r="J120" s="24"/>
+      <c r="K120" s="24"/>
+      <c r="L120" s="16"/>
+      <c r="M120" s="24"/>
+      <c r="N120" s="24"/>
+      <c r="O120" s="16"/>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A121" s="15"/>
+      <c r="B121" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C121" s="24"/>
+      <c r="D121" s="24"/>
+      <c r="E121" s="24"/>
+      <c r="F121" s="24"/>
+      <c r="G121" s="24"/>
+      <c r="H121" s="16"/>
+      <c r="I121" s="24"/>
+      <c r="J121" s="24"/>
+      <c r="K121" s="24"/>
+      <c r="L121" s="16"/>
+      <c r="M121" s="24"/>
+      <c r="N121" s="24"/>
+      <c r="O121" s="16"/>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A122" s="15"/>
+      <c r="B122" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C122" s="24"/>
+      <c r="D122" s="24"/>
+      <c r="E122" s="24"/>
+      <c r="F122" s="24"/>
+      <c r="G122" s="24"/>
+      <c r="H122" s="16"/>
+      <c r="I122" s="24"/>
+      <c r="J122" s="24"/>
+      <c r="K122" s="24"/>
+      <c r="L122" s="16"/>
+      <c r="M122" s="24"/>
+      <c r="N122" s="24"/>
+      <c r="O122" s="16"/>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A123" s="15"/>
+      <c r="B123" s="17"/>
+      <c r="C123" s="18"/>
+      <c r="D123" s="18"/>
+      <c r="E123" s="18"/>
+      <c r="F123" s="18"/>
+      <c r="G123" s="18"/>
+      <c r="H123" s="19"/>
+      <c r="I123" s="24"/>
+      <c r="J123" s="24"/>
+      <c r="K123" s="24"/>
+      <c r="L123" s="16"/>
+      <c r="M123" s="24"/>
+      <c r="N123" s="24"/>
+      <c r="O123" s="16"/>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A124" s="15"/>
+      <c r="B124" s="15"/>
+      <c r="C124" s="24"/>
+      <c r="D124" s="24"/>
+      <c r="E124" s="24"/>
+      <c r="F124" s="24"/>
+      <c r="G124" s="24"/>
+      <c r="H124" s="24"/>
+      <c r="I124" s="24"/>
+      <c r="J124" s="24"/>
+      <c r="K124" s="24"/>
+      <c r="L124" s="16"/>
+      <c r="M124" s="24"/>
+      <c r="N124" s="24"/>
+      <c r="O124" s="16"/>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A125" s="15"/>
+      <c r="B125" s="15"/>
+      <c r="C125" s="24"/>
+      <c r="D125" s="24"/>
+      <c r="E125" s="24"/>
+      <c r="F125" s="24"/>
+      <c r="G125" s="24"/>
+      <c r="H125" s="24"/>
+      <c r="I125" s="24"/>
+      <c r="J125" s="24"/>
+      <c r="K125" s="24"/>
+      <c r="L125" s="16"/>
+      <c r="M125" s="24"/>
+      <c r="N125" s="24"/>
+      <c r="O125" s="16"/>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A126" s="15"/>
+      <c r="B126" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C126" s="13"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="13"/>
+      <c r="F126" s="13"/>
+      <c r="G126" s="13"/>
+      <c r="H126" s="13"/>
+      <c r="I126" s="13"/>
+      <c r="J126" s="13"/>
+      <c r="K126" s="14"/>
+      <c r="L126" s="16"/>
+      <c r="M126" s="24"/>
+      <c r="N126" s="24"/>
+      <c r="O126" s="16"/>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A127" s="15"/>
+      <c r="B127" s="15"/>
+      <c r="C127" s="24"/>
+      <c r="D127" s="24"/>
+      <c r="E127" s="24"/>
+      <c r="F127" s="24"/>
+      <c r="G127" s="24"/>
+      <c r="H127" s="24"/>
+      <c r="I127" s="24"/>
+      <c r="J127" s="24"/>
+      <c r="K127" s="16"/>
+      <c r="L127" s="16"/>
+      <c r="M127" s="24"/>
+      <c r="N127" s="24"/>
+      <c r="O127" s="16"/>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A128" s="15"/>
+      <c r="B128" s="15"/>
+      <c r="C128" s="24"/>
+      <c r="D128" s="24"/>
+      <c r="E128" s="24"/>
+      <c r="F128" s="24"/>
+      <c r="G128" s="24"/>
+      <c r="H128" s="24"/>
+      <c r="I128" s="24"/>
+      <c r="J128" s="24"/>
+      <c r="K128" s="16"/>
+      <c r="L128" s="16"/>
+      <c r="M128" s="24"/>
+      <c r="N128" s="24"/>
+      <c r="O128" s="16"/>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A129" s="15"/>
+      <c r="B129" s="15"/>
+      <c r="C129" s="24"/>
+      <c r="D129" s="24"/>
+      <c r="E129" s="24"/>
+      <c r="F129" s="24"/>
+      <c r="G129" s="24"/>
+      <c r="H129" s="24"/>
+      <c r="I129" s="24"/>
+      <c r="J129" s="24"/>
+      <c r="K129" s="16"/>
+      <c r="L129" s="16"/>
+      <c r="M129" s="24"/>
+      <c r="N129" s="24"/>
+      <c r="O129" s="16"/>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A130" s="15"/>
+      <c r="B130" s="15"/>
+      <c r="C130" s="24"/>
+      <c r="D130" s="24"/>
+      <c r="E130" s="24"/>
+      <c r="F130" s="24"/>
+      <c r="G130" s="24"/>
+      <c r="H130" s="24"/>
+      <c r="I130" s="24"/>
+      <c r="J130" s="24"/>
+      <c r="K130" s="16"/>
+      <c r="L130" s="16"/>
+      <c r="M130" s="24"/>
+      <c r="N130" s="24"/>
+      <c r="O130" s="16"/>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A131" s="15"/>
+      <c r="B131" s="17"/>
+      <c r="C131" s="18"/>
+      <c r="D131" s="18"/>
+      <c r="E131" s="18"/>
+      <c r="F131" s="18"/>
+      <c r="G131" s="18"/>
+      <c r="H131" s="18"/>
+      <c r="I131" s="18"/>
+      <c r="J131" s="18"/>
+      <c r="K131" s="19"/>
+      <c r="L131" s="16"/>
+      <c r="M131" s="24"/>
+      <c r="N131" s="24"/>
+      <c r="O131" s="16"/>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A132" s="15"/>
+      <c r="B132" s="17"/>
+      <c r="C132" s="18"/>
+      <c r="D132" s="18"/>
+      <c r="E132" s="18"/>
+      <c r="F132" s="18"/>
+      <c r="G132" s="18"/>
+      <c r="H132" s="18"/>
+      <c r="I132" s="18"/>
+      <c r="J132" s="18"/>
+      <c r="K132" s="18"/>
+      <c r="L132" s="19"/>
+      <c r="M132" s="24"/>
+      <c r="N132" s="24"/>
+      <c r="O132" s="16"/>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A133" s="15"/>
+      <c r="B133" s="24"/>
+      <c r="C133" s="24"/>
+      <c r="D133" s="24"/>
+      <c r="E133" s="24"/>
+      <c r="F133" s="24"/>
+      <c r="G133" s="24"/>
+      <c r="H133" s="24"/>
+      <c r="I133" s="24"/>
+      <c r="J133" s="24"/>
+      <c r="K133" s="24"/>
+      <c r="L133" s="24"/>
+      <c r="M133" s="24"/>
+      <c r="N133" s="24"/>
+      <c r="O133" s="16"/>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A134" s="15"/>
+      <c r="B134" s="24"/>
+      <c r="C134" s="24"/>
+      <c r="D134" s="24"/>
+      <c r="E134" s="24"/>
+      <c r="F134" s="24"/>
+      <c r="G134" s="24"/>
+      <c r="H134" s="24"/>
+      <c r="I134" s="24"/>
+      <c r="J134" s="24"/>
+      <c r="K134" s="24"/>
+      <c r="L134" s="24"/>
+      <c r="M134" s="24"/>
+      <c r="N134" s="24"/>
+      <c r="O134" s="16"/>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A135" s="15"/>
+      <c r="B135" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C135" s="13"/>
+      <c r="D135" s="13"/>
+      <c r="E135" s="13"/>
+      <c r="F135" s="13"/>
+      <c r="G135" s="13"/>
+      <c r="H135" s="13"/>
+      <c r="I135" s="13"/>
+      <c r="J135" s="13"/>
+      <c r="K135" s="13"/>
+      <c r="L135" s="14"/>
+      <c r="M135" s="24"/>
+      <c r="N135" s="24"/>
+      <c r="O135" s="16"/>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A136" s="15"/>
+      <c r="B136" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C136" s="13"/>
+      <c r="D136" s="13"/>
+      <c r="E136" s="13"/>
+      <c r="F136" s="13"/>
+      <c r="G136" s="13"/>
+      <c r="H136" s="14"/>
+      <c r="I136" s="24"/>
+      <c r="J136" s="24"/>
+      <c r="K136" s="24"/>
+      <c r="L136" s="16"/>
+      <c r="M136" s="24"/>
+      <c r="N136" s="24"/>
+      <c r="O136" s="16"/>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A137" s="15"/>
+      <c r="B137" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C137" s="24"/>
+      <c r="D137" s="24"/>
+      <c r="E137" s="24"/>
+      <c r="F137" s="24"/>
+      <c r="G137" s="24"/>
+      <c r="H137" s="16"/>
+      <c r="I137" s="24"/>
+      <c r="J137" s="24"/>
+      <c r="K137" s="24"/>
+      <c r="L137" s="16"/>
+      <c r="M137" s="24"/>
+      <c r="N137" s="24"/>
+      <c r="O137" s="16"/>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A138" s="15"/>
+      <c r="B138" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C138" s="24"/>
+      <c r="D138" s="24"/>
+      <c r="E138" s="24"/>
+      <c r="F138" s="24"/>
+      <c r="G138" s="24"/>
+      <c r="H138" s="16"/>
+      <c r="I138" s="24"/>
+      <c r="J138" s="24"/>
+      <c r="K138" s="24"/>
+      <c r="L138" s="16"/>
+      <c r="M138" s="24"/>
+      <c r="N138" s="24"/>
+      <c r="O138" s="16"/>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A139" s="15"/>
+      <c r="B139" s="15"/>
+      <c r="C139" s="24"/>
+      <c r="D139" s="24"/>
+      <c r="E139" s="24"/>
+      <c r="F139" s="24"/>
+      <c r="G139" s="24"/>
+      <c r="H139" s="16"/>
+      <c r="I139" s="24"/>
+      <c r="J139" s="24"/>
+      <c r="K139" s="24"/>
+      <c r="L139" s="16"/>
+      <c r="M139" s="24"/>
+      <c r="N139" s="24"/>
+      <c r="O139" s="16"/>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A140" s="15"/>
+      <c r="B140" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C140" s="24"/>
+      <c r="D140" s="24"/>
+      <c r="E140" s="24"/>
+      <c r="F140" s="24"/>
+      <c r="G140" s="24"/>
+      <c r="H140" s="16"/>
+      <c r="I140" s="24"/>
+      <c r="J140" s="24"/>
+      <c r="K140" s="24"/>
+      <c r="L140" s="16"/>
+      <c r="M140" s="24"/>
+      <c r="N140" s="24"/>
+      <c r="O140" s="16"/>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A141" s="15"/>
+      <c r="B141" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C141" s="24"/>
+      <c r="D141" s="24"/>
+      <c r="E141" s="24"/>
+      <c r="F141" s="24"/>
+      <c r="G141" s="24"/>
+      <c r="H141" s="16"/>
+      <c r="I141" s="24"/>
+      <c r="J141" s="24"/>
+      <c r="K141" s="24"/>
+      <c r="L141" s="16"/>
+      <c r="M141" s="24"/>
+      <c r="N141" s="24"/>
+      <c r="O141" s="16"/>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A142" s="15"/>
+      <c r="B142" s="15"/>
+      <c r="C142" s="24"/>
+      <c r="D142" s="24"/>
+      <c r="E142" s="24"/>
+      <c r="F142" s="24"/>
+      <c r="G142" s="24"/>
+      <c r="H142" s="16"/>
+      <c r="I142" s="24"/>
+      <c r="J142" s="24"/>
+      <c r="K142" s="24"/>
+      <c r="L142" s="16"/>
+      <c r="M142" s="24"/>
+      <c r="N142" s="24"/>
+      <c r="O142" s="16"/>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A143" s="15"/>
+      <c r="B143" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C143" s="24"/>
+      <c r="D143" s="24"/>
+      <c r="E143" s="24"/>
+      <c r="F143" s="24"/>
+      <c r="G143" s="24"/>
+      <c r="H143" s="16"/>
+      <c r="I143" s="24"/>
+      <c r="J143" s="24"/>
+      <c r="K143" s="24"/>
+      <c r="L143" s="16"/>
+      <c r="M143" s="24"/>
+      <c r="N143" s="24"/>
+      <c r="O143" s="16"/>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A144" s="15"/>
+      <c r="B144" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C144" s="24"/>
+      <c r="D144" s="24"/>
+      <c r="E144" s="24"/>
+      <c r="F144" s="24"/>
+      <c r="G144" s="24"/>
+      <c r="H144" s="16"/>
+      <c r="I144" s="24"/>
+      <c r="J144" s="24"/>
+      <c r="K144" s="24"/>
+      <c r="L144" s="16"/>
+      <c r="M144" s="24"/>
+      <c r="N144" s="24"/>
+      <c r="O144" s="16"/>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A145" s="15"/>
+      <c r="B145" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C145" s="24"/>
+      <c r="D145" s="24"/>
+      <c r="E145" s="24"/>
+      <c r="F145" s="24"/>
+      <c r="G145" s="24"/>
+      <c r="H145" s="16"/>
+      <c r="I145" s="24"/>
+      <c r="J145" s="24"/>
+      <c r="K145" s="24"/>
+      <c r="L145" s="16"/>
+      <c r="M145" s="24"/>
+      <c r="N145" s="24"/>
+      <c r="O145" s="16"/>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A146" s="15"/>
+      <c r="B146" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C146" s="24"/>
+      <c r="D146" s="24"/>
+      <c r="E146" s="24"/>
+      <c r="F146" s="24"/>
+      <c r="G146" s="24"/>
+      <c r="H146" s="16"/>
+      <c r="I146" s="24"/>
+      <c r="J146" s="24"/>
+      <c r="K146" s="24"/>
+      <c r="L146" s="16"/>
+      <c r="M146" s="24"/>
+      <c r="N146" s="24"/>
+      <c r="O146" s="16"/>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A147" s="15"/>
+      <c r="B147" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C147" s="24"/>
+      <c r="D147" s="24"/>
+      <c r="E147" s="24"/>
+      <c r="F147" s="24"/>
+      <c r="G147" s="24"/>
+      <c r="H147" s="16"/>
+      <c r="I147" s="24"/>
+      <c r="J147" s="24"/>
+      <c r="K147" s="24"/>
+      <c r="L147" s="16"/>
+      <c r="M147" s="24"/>
+      <c r="N147" s="24"/>
+      <c r="O147" s="16"/>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A148" s="15"/>
+      <c r="B148" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C148" s="24"/>
+      <c r="D148" s="24"/>
+      <c r="E148" s="24"/>
+      <c r="F148" s="24"/>
+      <c r="G148" s="24"/>
+      <c r="H148" s="16"/>
+      <c r="I148" s="24"/>
+      <c r="J148" s="24"/>
+      <c r="K148" s="24"/>
+      <c r="L148" s="16"/>
+      <c r="M148" s="24"/>
+      <c r="N148" s="24"/>
+      <c r="O148" s="16"/>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A149" s="15"/>
+      <c r="B149" s="17"/>
+      <c r="C149" s="18"/>
+      <c r="D149" s="18"/>
+      <c r="E149" s="18"/>
+      <c r="F149" s="18"/>
+      <c r="G149" s="18"/>
+      <c r="H149" s="19"/>
+      <c r="I149" s="24"/>
+      <c r="J149" s="24"/>
+      <c r="K149" s="24"/>
+      <c r="L149" s="16"/>
+      <c r="M149" s="24"/>
+      <c r="N149" s="24"/>
+      <c r="O149" s="16"/>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A150" s="15"/>
+      <c r="B150" s="15"/>
+      <c r="C150" s="24"/>
+      <c r="D150" s="24"/>
+      <c r="E150" s="24"/>
+      <c r="F150" s="24"/>
+      <c r="G150" s="24"/>
+      <c r="H150" s="24"/>
+      <c r="I150" s="24"/>
+      <c r="J150" s="24"/>
+      <c r="K150" s="24"/>
+      <c r="L150" s="16"/>
+      <c r="M150" s="24"/>
+      <c r="N150" s="24"/>
+      <c r="O150" s="16"/>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A151" s="15"/>
+      <c r="B151" s="15"/>
+      <c r="C151" s="24"/>
+      <c r="D151" s="24"/>
+      <c r="E151" s="24"/>
+      <c r="F151" s="24"/>
+      <c r="G151" s="24"/>
+      <c r="H151" s="24"/>
+      <c r="I151" s="24"/>
+      <c r="J151" s="24"/>
+      <c r="K151" s="24"/>
+      <c r="L151" s="16"/>
+      <c r="M151" s="24"/>
+      <c r="N151" s="24"/>
+      <c r="O151" s="16"/>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A152" s="15"/>
+      <c r="B152" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C152" s="13"/>
+      <c r="D152" s="13"/>
+      <c r="E152" s="13"/>
+      <c r="F152" s="13"/>
+      <c r="G152" s="13"/>
+      <c r="H152" s="13"/>
+      <c r="I152" s="13"/>
+      <c r="J152" s="13"/>
+      <c r="K152" s="14"/>
+      <c r="L152" s="16"/>
+      <c r="M152" s="24"/>
+      <c r="N152" s="24"/>
+      <c r="O152" s="16"/>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A153" s="15"/>
+      <c r="B153" s="15"/>
+      <c r="C153" s="24"/>
+      <c r="D153" s="24"/>
+      <c r="E153" s="24"/>
+      <c r="F153" s="24"/>
+      <c r="G153" s="24"/>
+      <c r="H153" s="24"/>
+      <c r="I153" s="24"/>
+      <c r="J153" s="24"/>
+      <c r="K153" s="16"/>
+      <c r="L153" s="16"/>
+      <c r="M153" s="24"/>
+      <c r="N153" s="24"/>
+      <c r="O153" s="16"/>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A154" s="15"/>
+      <c r="B154" s="15"/>
+      <c r="C154" s="24"/>
+      <c r="D154" s="24"/>
+      <c r="E154" s="24"/>
+      <c r="F154" s="24"/>
+      <c r="G154" s="24"/>
+      <c r="H154" s="24"/>
+      <c r="I154" s="24"/>
+      <c r="J154" s="24"/>
+      <c r="K154" s="16"/>
+      <c r="L154" s="16"/>
+      <c r="M154" s="24"/>
+      <c r="N154" s="24"/>
+      <c r="O154" s="16"/>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A155" s="15"/>
+      <c r="B155" s="15"/>
+      <c r="C155" s="24"/>
+      <c r="D155" s="24"/>
+      <c r="E155" s="24"/>
+      <c r="F155" s="24"/>
+      <c r="G155" s="24"/>
+      <c r="H155" s="24"/>
+      <c r="I155" s="24"/>
+      <c r="J155" s="24"/>
+      <c r="K155" s="16"/>
+      <c r="L155" s="16"/>
+      <c r="M155" s="24"/>
+      <c r="N155" s="24"/>
+      <c r="O155" s="16"/>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A156" s="15"/>
+      <c r="B156" s="15"/>
+      <c r="C156" s="24"/>
+      <c r="D156" s="24"/>
+      <c r="E156" s="24"/>
+      <c r="F156" s="24"/>
+      <c r="G156" s="24"/>
+      <c r="H156" s="24"/>
+      <c r="I156" s="24"/>
+      <c r="J156" s="24"/>
+      <c r="K156" s="16"/>
+      <c r="L156" s="16"/>
+      <c r="M156" s="24"/>
+      <c r="N156" s="24"/>
+      <c r="O156" s="16"/>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A157" s="15"/>
+      <c r="B157" s="17"/>
+      <c r="C157" s="18"/>
+      <c r="D157" s="18"/>
+      <c r="E157" s="18"/>
+      <c r="F157" s="18"/>
+      <c r="G157" s="18"/>
+      <c r="H157" s="18"/>
+      <c r="I157" s="18"/>
+      <c r="J157" s="18"/>
+      <c r="K157" s="19"/>
+      <c r="L157" s="16"/>
+      <c r="M157" s="24"/>
+      <c r="N157" s="24"/>
+      <c r="O157" s="16"/>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A158" s="15"/>
+      <c r="B158" s="17"/>
+      <c r="C158" s="18"/>
+      <c r="D158" s="18"/>
+      <c r="E158" s="18"/>
+      <c r="F158" s="18"/>
+      <c r="G158" s="18"/>
+      <c r="H158" s="18"/>
+      <c r="I158" s="18"/>
+      <c r="J158" s="18"/>
+      <c r="K158" s="18"/>
+      <c r="L158" s="19"/>
+      <c r="M158" s="24"/>
+      <c r="N158" s="24"/>
+      <c r="O158" s="16"/>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A159" s="17"/>
+      <c r="B159" s="18"/>
+      <c r="C159" s="18"/>
+      <c r="D159" s="18"/>
+      <c r="E159" s="18"/>
+      <c r="F159" s="18"/>
+      <c r="G159" s="18"/>
+      <c r="H159" s="18"/>
+      <c r="I159" s="18"/>
+      <c r="J159" s="18"/>
+      <c r="K159" s="18"/>
+      <c r="L159" s="18"/>
+      <c r="M159" s="18"/>
+      <c r="N159" s="18"/>
+      <c r="O159" s="19"/>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A162" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B162" s="13"/>
+      <c r="C162" s="13"/>
+      <c r="D162" s="13"/>
+      <c r="E162" s="13"/>
+      <c r="F162" s="13"/>
+      <c r="G162" s="13"/>
+      <c r="H162" s="13"/>
+      <c r="I162" s="13"/>
+      <c r="J162" s="13"/>
+      <c r="K162" s="13"/>
+      <c r="L162" s="13"/>
+      <c r="M162" s="13"/>
+      <c r="N162" s="14"/>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A163" s="15"/>
+      <c r="B163" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C163" s="13"/>
+      <c r="D163" s="13"/>
+      <c r="E163" s="14"/>
+      <c r="F163" s="24"/>
+      <c r="G163" s="24"/>
+      <c r="H163" s="24"/>
+      <c r="I163" s="24"/>
+      <c r="J163" s="24"/>
+      <c r="K163" s="24"/>
+      <c r="L163" s="24"/>
+      <c r="M163" s="24"/>
+      <c r="N163" s="16"/>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A164" s="15"/>
+      <c r="B164" s="15"/>
+      <c r="C164" s="24"/>
+      <c r="D164" s="24"/>
+      <c r="E164" s="16"/>
+      <c r="F164" s="24"/>
+      <c r="G164" s="24"/>
+      <c r="H164" s="24"/>
+      <c r="I164" s="24"/>
+      <c r="J164" s="24"/>
+      <c r="K164" s="24"/>
+      <c r="L164" s="24"/>
+      <c r="M164" s="24"/>
+      <c r="N164" s="16"/>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A165" s="15"/>
+      <c r="B165" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C165" s="24"/>
+      <c r="D165" s="24"/>
+      <c r="E165" s="16"/>
+      <c r="F165" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="G165" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="H165" s="24"/>
+      <c r="I165" s="24"/>
+      <c r="J165" s="24"/>
+      <c r="K165" s="24"/>
+      <c r="L165" s="24"/>
+      <c r="M165" s="24"/>
+      <c r="N165" s="16"/>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A166" s="15"/>
+      <c r="B166" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C166" s="24"/>
+      <c r="D166" s="24"/>
+      <c r="E166" s="16"/>
+      <c r="F166" s="24"/>
+      <c r="G166" s="24"/>
+      <c r="H166" s="24"/>
+      <c r="I166" s="24"/>
+      <c r="J166" s="24"/>
+      <c r="K166" s="24"/>
+      <c r="L166" s="24"/>
+      <c r="M166" s="24"/>
+      <c r="N166" s="16"/>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A167" s="15"/>
+      <c r="B167" s="15"/>
+      <c r="C167" s="24"/>
+      <c r="D167" s="24"/>
+      <c r="E167" s="16"/>
+      <c r="F167" s="24"/>
+      <c r="G167" s="24"/>
+      <c r="H167" s="24"/>
+      <c r="I167" s="24"/>
+      <c r="J167" s="24"/>
+      <c r="K167" s="24"/>
+      <c r="L167" s="24"/>
+      <c r="M167" s="24"/>
+      <c r="N167" s="16"/>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A168" s="15"/>
+      <c r="B168" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C168" s="24"/>
+      <c r="D168" s="24"/>
+      <c r="E168" s="16"/>
+      <c r="F168" s="24"/>
+      <c r="G168" s="24"/>
+      <c r="H168" s="24"/>
+      <c r="I168" s="24"/>
+      <c r="J168" s="24"/>
+      <c r="K168" s="24"/>
+      <c r="L168" s="24"/>
+      <c r="M168" s="24"/>
+      <c r="N168" s="16"/>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A169" s="15"/>
+      <c r="B169" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C169" s="24"/>
+      <c r="D169" s="24"/>
+      <c r="E169" s="16"/>
+      <c r="F169" s="24"/>
+      <c r="G169" s="24"/>
+      <c r="H169" s="24"/>
+      <c r="I169" s="24"/>
+      <c r="J169" s="24"/>
+      <c r="K169" s="24"/>
+      <c r="L169" s="24"/>
+      <c r="M169" s="24"/>
+      <c r="N169" s="16"/>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A170" s="15"/>
+      <c r="B170" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C170" s="24"/>
+      <c r="D170" s="24"/>
+      <c r="E170" s="16"/>
+      <c r="F170" s="24"/>
+      <c r="G170" s="24"/>
+      <c r="H170" s="24"/>
+      <c r="I170" s="24"/>
+      <c r="J170" s="24"/>
+      <c r="K170" s="24"/>
+      <c r="L170" s="24"/>
+      <c r="M170" s="24"/>
+      <c r="N170" s="16"/>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A171" s="15"/>
+      <c r="B171" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C171" s="24"/>
+      <c r="D171" s="24"/>
+      <c r="E171" s="16"/>
+      <c r="F171" s="24"/>
+      <c r="G171" s="24"/>
+      <c r="H171" s="24"/>
+      <c r="I171" s="24"/>
+      <c r="J171" s="24"/>
+      <c r="K171" s="24"/>
+      <c r="L171" s="24"/>
+      <c r="M171" s="24"/>
+      <c r="N171" s="16"/>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A172" s="15"/>
+      <c r="B172" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C172" s="24"/>
+      <c r="D172" s="24"/>
+      <c r="E172" s="16"/>
+      <c r="F172" s="24"/>
+      <c r="G172" s="24"/>
+      <c r="H172" s="24"/>
+      <c r="I172" s="24"/>
+      <c r="J172" s="24"/>
+      <c r="K172" s="24"/>
+      <c r="L172" s="24"/>
+      <c r="M172" s="24"/>
+      <c r="N172" s="16"/>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A173" s="15"/>
+      <c r="B173" s="17"/>
+      <c r="C173" s="18"/>
+      <c r="D173" s="18"/>
+      <c r="E173" s="19"/>
+      <c r="F173" s="24"/>
+      <c r="G173" s="24"/>
+      <c r="H173" s="24"/>
+      <c r="I173" s="24"/>
+      <c r="J173" s="24"/>
+      <c r="K173" s="24"/>
+      <c r="L173" s="24"/>
+      <c r="M173" s="24"/>
+      <c r="N173" s="16"/>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A174" s="15"/>
+      <c r="B174" s="24"/>
+      <c r="C174" s="24"/>
+      <c r="D174" s="24"/>
+      <c r="E174" s="24"/>
+      <c r="F174" s="24"/>
+      <c r="G174" s="24"/>
+      <c r="H174" s="24"/>
+      <c r="I174" s="24"/>
+      <c r="J174" s="24"/>
+      <c r="K174" s="24"/>
+      <c r="L174" s="24"/>
+      <c r="M174" s="24"/>
+      <c r="N174" s="16"/>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A175" s="15"/>
+      <c r="B175" s="24"/>
+      <c r="C175" s="24"/>
+      <c r="D175" s="24"/>
+      <c r="E175" s="24"/>
+      <c r="F175" s="24"/>
+      <c r="G175" s="24"/>
+      <c r="H175" s="24"/>
+      <c r="I175" s="24"/>
+      <c r="J175" s="24"/>
+      <c r="K175" s="24"/>
+      <c r="L175" s="24"/>
+      <c r="M175" s="24"/>
+      <c r="N175" s="16"/>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A176" s="15"/>
+      <c r="B176" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C176" s="13"/>
+      <c r="D176" s="13"/>
+      <c r="E176" s="13"/>
+      <c r="F176" s="13"/>
+      <c r="G176" s="13"/>
+      <c r="H176" s="13"/>
+      <c r="I176" s="13"/>
+      <c r="J176" s="13"/>
+      <c r="K176" s="13"/>
+      <c r="L176" s="13"/>
+      <c r="M176" s="14"/>
+      <c r="N176" s="16"/>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A177" s="15"/>
+      <c r="B177" s="15"/>
+      <c r="C177" s="24"/>
+      <c r="D177" s="24"/>
+      <c r="E177" s="24"/>
+      <c r="F177" s="24"/>
+      <c r="G177" s="24"/>
+      <c r="H177" s="24"/>
+      <c r="I177" s="24"/>
+      <c r="J177" s="24"/>
+      <c r="K177" s="24"/>
+      <c r="L177" s="24"/>
+      <c r="M177" s="16"/>
+      <c r="N177" s="16"/>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A178" s="15"/>
+      <c r="B178" s="15"/>
+      <c r="C178" s="24"/>
+      <c r="D178" s="24"/>
+      <c r="E178" s="24"/>
+      <c r="F178" s="24"/>
+      <c r="G178" s="24"/>
+      <c r="H178" s="24"/>
+      <c r="I178" s="24"/>
+      <c r="J178" s="24"/>
+      <c r="K178" s="24"/>
+      <c r="L178" s="24"/>
+      <c r="M178" s="16"/>
+      <c r="N178" s="16"/>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A179" s="15"/>
+      <c r="B179" s="15"/>
+      <c r="C179" s="24"/>
+      <c r="D179" s="24"/>
+      <c r="E179" s="24"/>
+      <c r="F179" s="24"/>
+      <c r="G179" s="24"/>
+      <c r="H179" s="24"/>
+      <c r="I179" s="24"/>
+      <c r="J179" s="24"/>
+      <c r="K179" s="24"/>
+      <c r="L179" s="24"/>
+      <c r="M179" s="16"/>
+      <c r="N179" s="16"/>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A180" s="15"/>
+      <c r="B180" s="15"/>
+      <c r="C180" s="24"/>
+      <c r="D180" s="24"/>
+      <c r="E180" s="24"/>
+      <c r="F180" s="24"/>
+      <c r="G180" s="24"/>
+      <c r="H180" s="24"/>
+      <c r="I180" s="24"/>
+      <c r="J180" s="24"/>
+      <c r="K180" s="24"/>
+      <c r="L180" s="24"/>
+      <c r="M180" s="16"/>
+      <c r="N180" s="16"/>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A181" s="15"/>
+      <c r="B181" s="17"/>
+      <c r="C181" s="18"/>
+      <c r="D181" s="18"/>
+      <c r="E181" s="18"/>
+      <c r="F181" s="18"/>
+      <c r="G181" s="18"/>
+      <c r="H181" s="18"/>
+      <c r="I181" s="18"/>
+      <c r="J181" s="18"/>
+      <c r="K181" s="18"/>
+      <c r="L181" s="18"/>
+      <c r="M181" s="19"/>
+      <c r="N181" s="16"/>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A182" s="17"/>
+      <c r="B182" s="18"/>
+      <c r="C182" s="18"/>
+      <c r="D182" s="18"/>
+      <c r="E182" s="18"/>
+      <c r="F182" s="18"/>
+      <c r="G182" s="18"/>
+      <c r="H182" s="18"/>
+      <c r="I182" s="18"/>
+      <c r="J182" s="18"/>
+      <c r="K182" s="18"/>
+      <c r="L182" s="18"/>
+      <c r="M182" s="18"/>
+      <c r="N182" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/1.Lap-trinh-python/9.Cac-van-de-mo-rong.xlsx
+++ b/me/1.Lap-trinh-python/9.Cac-van-de-mo-rong.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vudinhquang/Documents/quang/python/me/1.Lap-trinh-python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB5436F-020E-2747-BD9A-E7727DE3C107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708F54A1-E51D-C44E-9645-83F6F7328DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1060" windowWidth="33800" windowHeight="18400" activeTab="2" xr2:uid="{472041F3-94B6-BA44-8755-3BBFF041A0A3}"/>
+    <workbookView xWindow="960" yWindow="920" windowWidth="33800" windowHeight="18400" activeTab="3" xr2:uid="{472041F3-94B6-BA44-8755-3BBFF041A0A3}"/>
   </bookViews>
   <sheets>
     <sheet name="name" sheetId="1" r:id="rId1"/>
     <sheet name="Local - global" sheetId="2" r:id="rId2"/>
     <sheet name="Re 01" sheetId="3" r:id="rId3"/>
+    <sheet name="Re 02" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="161">
   <si>
     <t>構成</t>
   </si>
@@ -451,6 +452,75 @@
   </si>
   <si>
     <t>Có 3 ký tự thường từ a đến z, tiếp theo là ký tự "-", tiếp theo là 2 ký tự số từ 1 đến 9</t>
+  </si>
+  <si>
+    <t>03_re_03.py</t>
+  </si>
+  <si>
+    <t>python/1.Lap-trinh-python/9.Cac-van-de-mo-rong/03_re_03.py</t>
+  </si>
+  <si>
+    <t>if re.search(pattern, text):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     print (match.group())</t>
+  </si>
+  <si>
+    <t>match = re.search(pattern, text)</t>
+  </si>
+  <si>
+    <t>python3 03_re_03.py</t>
+  </si>
+  <si>
+    <t>group() sẽ lấy ra giá trị trùng khớp</t>
+  </si>
+  <si>
+    <t>03_re_04.py</t>
+  </si>
+  <si>
+    <t>python/1.Lap-trinh-python/9.Cac-van-de-mo-rong/03_re_04.py</t>
+  </si>
+  <si>
+    <t>pattern = "[A-Z]{3}-[1-9]{2}"</t>
+  </si>
+  <si>
+    <t>text    = "adc-12"</t>
+  </si>
+  <si>
+    <t>match = re.match(pattern, text, re.IGNORECASE)</t>
+  </si>
+  <si>
+    <t>IGNORECASE: Không phân biệt chữ hoa và chữ thường</t>
+  </si>
+  <si>
+    <t>python3 03_re_04.py</t>
+  </si>
+  <si>
+    <t>python/1.Lap-trinh-python/9.Cac-van-de-mo-rong/03_re_05.py</t>
+  </si>
+  <si>
+    <t>pattern = "\\D"</t>
+  </si>
+  <si>
+    <t>text    = "0383-308-983 Mr Quang"</t>
+  </si>
+  <si>
+    <t>result = re.sub(pattern, "", text)</t>
+  </si>
+  <si>
+    <t>print(result)</t>
+  </si>
+  <si>
+    <t>python3 03_re_05.py</t>
+  </si>
+  <si>
+    <t>Trong chuỗi text bỏ đi các ký tự không phải số</t>
+  </si>
+  <si>
+    <t>Các ký tự không phải số. "\\D" tương đương với r"\D"</t>
+  </si>
+  <si>
+    <t>03_re_05.py</t>
   </si>
 </sst>
 </file>
@@ -618,7 +688,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -644,11 +714,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1413,6 +1482,240 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>101601</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>67733</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>514566</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>143933</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1347673-A56E-95EF-CC0D-295E4FA61E6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="931334" y="20590933"/>
+          <a:ext cx="9540032" cy="889000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>437088</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>16933</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91B31162-AB32-F2D8-D546-778D1D1DCE10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="956733" y="25882600"/>
+          <a:ext cx="10266888" cy="956733"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>118533</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>349786</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>135467</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A83C465F-12F7-E5E8-C703-FDD76A08A835}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="948266" y="30962600"/>
+          <a:ext cx="9358320" cy="872067"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>618810</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>33867</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39F7314A-A236-0B94-88DA-B948A6297FE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="956733" y="35026600"/>
+          <a:ext cx="10448610" cy="973667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>143933</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>389466</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>59267</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06C8A31E-5E48-645C-78DC-B35DD32E0836}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1710267" y="33265533"/>
+          <a:ext cx="5317066" cy="524934"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3965,8 +4268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF812D9-6BE9-D24E-A2E0-24511D7FDF00}">
   <dimension ref="A3:O182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G166" sqref="G166"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4542,7 +4845,7 @@
       <c r="A53" s="1"/>
       <c r="B53" s="5"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="23" t="s">
+      <c r="D53" t="s">
         <v>93</v>
       </c>
       <c r="E53" s="1"/>
@@ -4892,7 +5195,7 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="15"/>
-      <c r="B84" s="26" t="s">
+      <c r="B84" s="24" t="s">
         <v>114</v>
       </c>
       <c r="C84" s="13"/>
@@ -4920,11 +5223,6 @@
       <c r="F85" s="13"/>
       <c r="G85" s="13"/>
       <c r="H85" s="14"/>
-      <c r="I85" s="24"/>
-      <c r="J85" s="24"/>
-      <c r="K85" s="24"/>
-      <c r="L85" s="24"/>
-      <c r="M85" s="24"/>
       <c r="N85" s="16"/>
       <c r="O85" s="16"/>
     </row>
@@ -4933,17 +5231,7 @@
       <c r="B86" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="C86" s="24"/>
-      <c r="D86" s="24"/>
-      <c r="E86" s="24"/>
-      <c r="F86" s="24"/>
-      <c r="G86" s="24"/>
       <c r="H86" s="16"/>
-      <c r="I86" s="24"/>
-      <c r="J86" s="24"/>
-      <c r="K86" s="24"/>
-      <c r="L86" s="24"/>
-      <c r="M86" s="24"/>
       <c r="N86" s="16"/>
       <c r="O86" s="16"/>
     </row>
@@ -4952,53 +5240,23 @@
       <c r="B87" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="C87" s="24"/>
-      <c r="D87" s="24"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="24"/>
-      <c r="G87" s="24"/>
       <c r="H87" s="16"/>
-      <c r="I87" s="24"/>
-      <c r="J87" s="24"/>
-      <c r="K87" s="24"/>
-      <c r="L87" s="24"/>
-      <c r="M87" s="24"/>
       <c r="N87" s="16"/>
       <c r="O87" s="16"/>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="15"/>
       <c r="B88" s="15"/>
-      <c r="C88" s="24"/>
-      <c r="D88" s="24"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="24"/>
       <c r="H88" s="16"/>
-      <c r="I88" s="24"/>
-      <c r="J88" s="24"/>
-      <c r="K88" s="24"/>
-      <c r="L88" s="24"/>
-      <c r="M88" s="24"/>
       <c r="N88" s="16"/>
       <c r="O88" s="16"/>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="15"/>
-      <c r="B89" s="25" t="s">
+      <c r="B89" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="C89" s="24"/>
-      <c r="D89" s="24"/>
-      <c r="E89" s="24"/>
-      <c r="F89" s="24"/>
-      <c r="G89" s="24"/>
       <c r="H89" s="16"/>
-      <c r="I89" s="24"/>
-      <c r="J89" s="24"/>
-      <c r="K89" s="24"/>
-      <c r="L89" s="24"/>
-      <c r="M89" s="24"/>
       <c r="N89" s="16"/>
       <c r="O89" s="16"/>
     </row>
@@ -5007,34 +5265,14 @@
       <c r="B90" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C90" s="24"/>
-      <c r="D90" s="24"/>
-      <c r="E90" s="24"/>
-      <c r="F90" s="24"/>
-      <c r="G90" s="24"/>
       <c r="H90" s="16"/>
-      <c r="I90" s="24"/>
-      <c r="J90" s="24"/>
-      <c r="K90" s="24"/>
-      <c r="L90" s="24"/>
-      <c r="M90" s="24"/>
       <c r="N90" s="16"/>
       <c r="O90" s="16"/>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="15"/>
       <c r="B91" s="15"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="24"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="24"/>
-      <c r="G91" s="24"/>
       <c r="H91" s="16"/>
-      <c r="I91" s="24"/>
-      <c r="J91" s="24"/>
-      <c r="K91" s="24"/>
-      <c r="L91" s="24"/>
-      <c r="M91" s="24"/>
       <c r="N91" s="16"/>
       <c r="O91" s="16"/>
     </row>
@@ -5043,21 +5281,13 @@
       <c r="B92" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C92" s="24"/>
-      <c r="D92" s="24"/>
-      <c r="E92" s="24"/>
-      <c r="F92" s="24"/>
-      <c r="G92" s="24"/>
       <c r="H92" s="16"/>
-      <c r="I92" s="24" t="s">
+      <c r="I92" t="s">
         <v>71</v>
       </c>
-      <c r="J92" s="24" t="s">
+      <c r="J92" t="s">
         <v>124</v>
       </c>
-      <c r="K92" s="24"/>
-      <c r="L92" s="24"/>
-      <c r="M92" s="24"/>
       <c r="N92" s="16"/>
       <c r="O92" s="16"/>
     </row>
@@ -5066,17 +5296,7 @@
       <c r="B93" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C93" s="24"/>
-      <c r="D93" s="24"/>
-      <c r="E93" s="24"/>
-      <c r="F93" s="24"/>
-      <c r="G93" s="24"/>
       <c r="H93" s="16"/>
-      <c r="I93" s="24"/>
-      <c r="J93" s="24"/>
-      <c r="K93" s="24"/>
-      <c r="L93" s="24"/>
-      <c r="M93" s="24"/>
       <c r="N93" s="16"/>
       <c r="O93" s="16"/>
     </row>
@@ -5085,17 +5305,7 @@
       <c r="B94" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C94" s="24"/>
-      <c r="D94" s="24"/>
-      <c r="E94" s="24"/>
-      <c r="F94" s="24"/>
-      <c r="G94" s="24"/>
       <c r="H94" s="16"/>
-      <c r="I94" s="24"/>
-      <c r="J94" s="24"/>
-      <c r="K94" s="24"/>
-      <c r="L94" s="24"/>
-      <c r="M94" s="24"/>
       <c r="N94" s="16"/>
       <c r="O94" s="16"/>
     </row>
@@ -5104,17 +5314,7 @@
       <c r="B95" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C95" s="24"/>
-      <c r="D95" s="24"/>
-      <c r="E95" s="24"/>
-      <c r="F95" s="24"/>
-      <c r="G95" s="24"/>
       <c r="H95" s="16"/>
-      <c r="I95" s="24"/>
-      <c r="J95" s="24"/>
-      <c r="K95" s="24"/>
-      <c r="L95" s="24"/>
-      <c r="M95" s="24"/>
       <c r="N95" s="16"/>
       <c r="O95" s="16"/>
     </row>
@@ -5123,17 +5323,7 @@
       <c r="B96" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="C96" s="24"/>
-      <c r="D96" s="24"/>
-      <c r="E96" s="24"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="24"/>
       <c r="H96" s="16"/>
-      <c r="I96" s="24"/>
-      <c r="J96" s="24"/>
-      <c r="K96" s="24"/>
-      <c r="L96" s="24"/>
-      <c r="M96" s="24"/>
       <c r="N96" s="16"/>
       <c r="O96" s="16"/>
     </row>
@@ -5148,45 +5338,18 @@
       <c r="F97" s="18"/>
       <c r="G97" s="18"/>
       <c r="H97" s="19"/>
-      <c r="I97" s="24"/>
-      <c r="J97" s="24"/>
-      <c r="K97" s="24"/>
-      <c r="L97" s="24"/>
-      <c r="M97" s="24"/>
       <c r="N97" s="16"/>
       <c r="O97" s="16"/>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="15"/>
       <c r="B98" s="15"/>
-      <c r="C98" s="24"/>
-      <c r="D98" s="24"/>
-      <c r="E98" s="24"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="24"/>
-      <c r="H98" s="24"/>
-      <c r="I98" s="24"/>
-      <c r="J98" s="24"/>
-      <c r="K98" s="24"/>
-      <c r="L98" s="24"/>
-      <c r="M98" s="24"/>
       <c r="N98" s="16"/>
       <c r="O98" s="16"/>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="15"/>
       <c r="B99" s="15"/>
-      <c r="C99" s="24"/>
-      <c r="D99" s="24"/>
-      <c r="E99" s="24"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="24"/>
-      <c r="H99" s="24"/>
-      <c r="I99" s="24"/>
-      <c r="J99" s="24"/>
-      <c r="K99" s="24"/>
-      <c r="L99" s="24"/>
-      <c r="M99" s="24"/>
       <c r="N99" s="16"/>
       <c r="O99" s="16"/>
     </row>
@@ -5195,102 +5358,36 @@
       <c r="B100" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="C100" s="24"/>
-      <c r="D100" s="24"/>
-      <c r="E100" s="24"/>
-      <c r="F100" s="24"/>
-      <c r="G100" s="24"/>
-      <c r="H100" s="24"/>
-      <c r="I100" s="24"/>
-      <c r="J100" s="24"/>
-      <c r="K100" s="24"/>
-      <c r="L100" s="24"/>
-      <c r="M100" s="24"/>
       <c r="N100" s="16"/>
       <c r="O100" s="16"/>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="15"/>
       <c r="B101" s="15"/>
-      <c r="C101" s="24"/>
-      <c r="D101" s="24"/>
-      <c r="E101" s="24"/>
-      <c r="F101" s="24"/>
-      <c r="G101" s="24"/>
-      <c r="H101" s="24"/>
-      <c r="I101" s="24"/>
-      <c r="J101" s="24"/>
-      <c r="K101" s="24"/>
-      <c r="L101" s="24"/>
-      <c r="M101" s="24"/>
       <c r="N101" s="16"/>
       <c r="O101" s="16"/>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="15"/>
       <c r="B102" s="15"/>
-      <c r="C102" s="24"/>
-      <c r="D102" s="24"/>
-      <c r="E102" s="24"/>
-      <c r="F102" s="24"/>
-      <c r="G102" s="24"/>
-      <c r="H102" s="24"/>
-      <c r="I102" s="24"/>
-      <c r="J102" s="24"/>
-      <c r="K102" s="24"/>
-      <c r="L102" s="24"/>
-      <c r="M102" s="24"/>
       <c r="N102" s="16"/>
       <c r="O102" s="16"/>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="15"/>
       <c r="B103" s="15"/>
-      <c r="C103" s="24"/>
-      <c r="D103" s="24"/>
-      <c r="E103" s="24"/>
-      <c r="F103" s="24"/>
-      <c r="G103" s="24"/>
-      <c r="H103" s="24"/>
-      <c r="I103" s="24"/>
-      <c r="J103" s="24"/>
-      <c r="K103" s="24"/>
-      <c r="L103" s="24"/>
-      <c r="M103" s="24"/>
       <c r="N103" s="16"/>
       <c r="O103" s="16"/>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="15"/>
       <c r="B104" s="15"/>
-      <c r="C104" s="24"/>
-      <c r="D104" s="24"/>
-      <c r="E104" s="24"/>
-      <c r="F104" s="24"/>
-      <c r="G104" s="24"/>
-      <c r="H104" s="24"/>
-      <c r="I104" s="24"/>
-      <c r="J104" s="24"/>
-      <c r="K104" s="24"/>
-      <c r="L104" s="24"/>
-      <c r="M104" s="24"/>
       <c r="N104" s="16"/>
       <c r="O104" s="16"/>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="15"/>
       <c r="B105" s="15"/>
-      <c r="C105" s="24"/>
-      <c r="D105" s="24"/>
-      <c r="E105" s="24"/>
-      <c r="F105" s="24"/>
-      <c r="G105" s="24"/>
-      <c r="H105" s="24"/>
-      <c r="I105" s="24"/>
-      <c r="J105" s="24"/>
-      <c r="K105" s="24"/>
-      <c r="L105" s="24"/>
-      <c r="M105" s="24"/>
       <c r="N105" s="16"/>
       <c r="O105" s="16"/>
     </row>
@@ -5313,41 +5410,15 @@
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="15"/>
-      <c r="B107" s="24"/>
-      <c r="C107" s="24"/>
-      <c r="D107" s="24"/>
-      <c r="E107" s="24"/>
-      <c r="F107" s="24"/>
-      <c r="G107" s="24"/>
-      <c r="H107" s="24"/>
-      <c r="I107" s="24"/>
-      <c r="J107" s="24"/>
-      <c r="K107" s="24"/>
-      <c r="L107" s="24"/>
-      <c r="M107" s="24"/>
-      <c r="N107" s="24"/>
       <c r="O107" s="16"/>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="15"/>
-      <c r="B108" s="24"/>
-      <c r="C108" s="24"/>
-      <c r="D108" s="24"/>
-      <c r="E108" s="24"/>
-      <c r="F108" s="24"/>
-      <c r="G108" s="24"/>
-      <c r="H108" s="24"/>
-      <c r="I108" s="24"/>
-      <c r="J108" s="24"/>
-      <c r="K108" s="24"/>
-      <c r="L108" s="24"/>
-      <c r="M108" s="24"/>
-      <c r="N108" s="24"/>
       <c r="O108" s="16"/>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="15"/>
-      <c r="B109" s="27" t="s">
+      <c r="B109" s="25" t="s">
         <v>128</v>
       </c>
       <c r="C109" s="13"/>
@@ -5360,8 +5431,6 @@
       <c r="J109" s="13"/>
       <c r="K109" s="13"/>
       <c r="L109" s="14"/>
-      <c r="M109" s="24"/>
-      <c r="N109" s="24"/>
       <c r="O109" s="16"/>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.2">
@@ -5375,12 +5444,7 @@
       <c r="F110" s="13"/>
       <c r="G110" s="13"/>
       <c r="H110" s="14"/>
-      <c r="I110" s="24"/>
-      <c r="J110" s="24"/>
-      <c r="K110" s="24"/>
       <c r="L110" s="16"/>
-      <c r="M110" s="24"/>
-      <c r="N110" s="24"/>
       <c r="O110" s="16"/>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.2">
@@ -5388,18 +5452,8 @@
       <c r="B111" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="C111" s="24"/>
-      <c r="D111" s="24"/>
-      <c r="E111" s="24"/>
-      <c r="F111" s="24"/>
-      <c r="G111" s="24"/>
       <c r="H111" s="16"/>
-      <c r="I111" s="24"/>
-      <c r="J111" s="24"/>
-      <c r="K111" s="24"/>
       <c r="L111" s="16"/>
-      <c r="M111" s="24"/>
-      <c r="N111" s="24"/>
       <c r="O111" s="16"/>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.2">
@@ -5407,54 +5461,24 @@
       <c r="B112" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="C112" s="24"/>
-      <c r="D112" s="24"/>
-      <c r="E112" s="24"/>
-      <c r="F112" s="24"/>
-      <c r="G112" s="24"/>
       <c r="H112" s="16"/>
-      <c r="I112" s="24"/>
-      <c r="J112" s="24"/>
-      <c r="K112" s="24"/>
       <c r="L112" s="16"/>
-      <c r="M112" s="24"/>
-      <c r="N112" s="24"/>
       <c r="O112" s="16"/>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="15"/>
       <c r="B113" s="15"/>
-      <c r="C113" s="24"/>
-      <c r="D113" s="24"/>
-      <c r="E113" s="24"/>
-      <c r="F113" s="24"/>
-      <c r="G113" s="24"/>
       <c r="H113" s="16"/>
-      <c r="I113" s="24"/>
-      <c r="J113" s="24"/>
-      <c r="K113" s="24"/>
       <c r="L113" s="16"/>
-      <c r="M113" s="24"/>
-      <c r="N113" s="24"/>
       <c r="O113" s="16"/>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="15"/>
-      <c r="B114" s="25" t="s">
+      <c r="B114" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="C114" s="24"/>
-      <c r="D114" s="24"/>
-      <c r="E114" s="24"/>
-      <c r="F114" s="24"/>
-      <c r="G114" s="24"/>
       <c r="H114" s="16"/>
-      <c r="I114" s="24"/>
-      <c r="J114" s="24"/>
-      <c r="K114" s="24"/>
       <c r="L114" s="16"/>
-      <c r="M114" s="24"/>
-      <c r="N114" s="24"/>
       <c r="O114" s="16"/>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.2">
@@ -5462,35 +5486,15 @@
       <c r="B115" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C115" s="24"/>
-      <c r="D115" s="24"/>
-      <c r="E115" s="24"/>
-      <c r="F115" s="24"/>
-      <c r="G115" s="24"/>
       <c r="H115" s="16"/>
-      <c r="I115" s="24"/>
-      <c r="J115" s="24"/>
-      <c r="K115" s="24"/>
       <c r="L115" s="16"/>
-      <c r="M115" s="24"/>
-      <c r="N115" s="24"/>
       <c r="O115" s="16"/>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="15"/>
       <c r="B116" s="15"/>
-      <c r="C116" s="24"/>
-      <c r="D116" s="24"/>
-      <c r="E116" s="24"/>
-      <c r="F116" s="24"/>
-      <c r="G116" s="24"/>
       <c r="H116" s="16"/>
-      <c r="I116" s="24"/>
-      <c r="J116" s="24"/>
-      <c r="K116" s="24"/>
       <c r="L116" s="16"/>
-      <c r="M116" s="24"/>
-      <c r="N116" s="24"/>
       <c r="O116" s="16"/>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.2">
@@ -5498,18 +5502,8 @@
       <c r="B117" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C117" s="24"/>
-      <c r="D117" s="24"/>
-      <c r="E117" s="24"/>
-      <c r="F117" s="24"/>
-      <c r="G117" s="24"/>
       <c r="H117" s="16"/>
-      <c r="I117" s="24"/>
-      <c r="J117" s="24"/>
-      <c r="K117" s="24"/>
       <c r="L117" s="16"/>
-      <c r="M117" s="24"/>
-      <c r="N117" s="24"/>
       <c r="O117" s="16"/>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.2">
@@ -5517,18 +5511,8 @@
       <c r="B118" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C118" s="24"/>
-      <c r="D118" s="24"/>
-      <c r="E118" s="24"/>
-      <c r="F118" s="24"/>
-      <c r="G118" s="24"/>
       <c r="H118" s="16"/>
-      <c r="I118" s="24"/>
-      <c r="J118" s="24"/>
-      <c r="K118" s="24"/>
       <c r="L118" s="16"/>
-      <c r="M118" s="24"/>
-      <c r="N118" s="24"/>
       <c r="O118" s="16"/>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.2">
@@ -5536,18 +5520,8 @@
       <c r="B119" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C119" s="24"/>
-      <c r="D119" s="24"/>
-      <c r="E119" s="24"/>
-      <c r="F119" s="24"/>
-      <c r="G119" s="24"/>
       <c r="H119" s="16"/>
-      <c r="I119" s="24"/>
-      <c r="J119" s="24"/>
-      <c r="K119" s="24"/>
       <c r="L119" s="16"/>
-      <c r="M119" s="24"/>
-      <c r="N119" s="24"/>
       <c r="O119" s="16"/>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.2">
@@ -5555,18 +5529,8 @@
       <c r="B120" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C120" s="24"/>
-      <c r="D120" s="24"/>
-      <c r="E120" s="24"/>
-      <c r="F120" s="24"/>
-      <c r="G120" s="24"/>
       <c r="H120" s="16"/>
-      <c r="I120" s="24"/>
-      <c r="J120" s="24"/>
-      <c r="K120" s="24"/>
       <c r="L120" s="16"/>
-      <c r="M120" s="24"/>
-      <c r="N120" s="24"/>
       <c r="O120" s="16"/>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.2">
@@ -5574,18 +5538,8 @@
       <c r="B121" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="C121" s="24"/>
-      <c r="D121" s="24"/>
-      <c r="E121" s="24"/>
-      <c r="F121" s="24"/>
-      <c r="G121" s="24"/>
       <c r="H121" s="16"/>
-      <c r="I121" s="24"/>
-      <c r="J121" s="24"/>
-      <c r="K121" s="24"/>
       <c r="L121" s="16"/>
-      <c r="M121" s="24"/>
-      <c r="N121" s="24"/>
       <c r="O121" s="16"/>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.2">
@@ -5593,18 +5547,8 @@
       <c r="B122" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="C122" s="24"/>
-      <c r="D122" s="24"/>
-      <c r="E122" s="24"/>
-      <c r="F122" s="24"/>
-      <c r="G122" s="24"/>
       <c r="H122" s="16"/>
-      <c r="I122" s="24"/>
-      <c r="J122" s="24"/>
-      <c r="K122" s="24"/>
       <c r="L122" s="16"/>
-      <c r="M122" s="24"/>
-      <c r="N122" s="24"/>
       <c r="O122" s="16"/>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.2">
@@ -5616,46 +5560,19 @@
       <c r="F123" s="18"/>
       <c r="G123" s="18"/>
       <c r="H123" s="19"/>
-      <c r="I123" s="24"/>
-      <c r="J123" s="24"/>
-      <c r="K123" s="24"/>
       <c r="L123" s="16"/>
-      <c r="M123" s="24"/>
-      <c r="N123" s="24"/>
       <c r="O123" s="16"/>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="15"/>
       <c r="B124" s="15"/>
-      <c r="C124" s="24"/>
-      <c r="D124" s="24"/>
-      <c r="E124" s="24"/>
-      <c r="F124" s="24"/>
-      <c r="G124" s="24"/>
-      <c r="H124" s="24"/>
-      <c r="I124" s="24"/>
-      <c r="J124" s="24"/>
-      <c r="K124" s="24"/>
       <c r="L124" s="16"/>
-      <c r="M124" s="24"/>
-      <c r="N124" s="24"/>
       <c r="O124" s="16"/>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="15"/>
       <c r="B125" s="15"/>
-      <c r="C125" s="24"/>
-      <c r="D125" s="24"/>
-      <c r="E125" s="24"/>
-      <c r="F125" s="24"/>
-      <c r="G125" s="24"/>
-      <c r="H125" s="24"/>
-      <c r="I125" s="24"/>
-      <c r="J125" s="24"/>
-      <c r="K125" s="24"/>
       <c r="L125" s="16"/>
-      <c r="M125" s="24"/>
-      <c r="N125" s="24"/>
       <c r="O125" s="16"/>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.2">
@@ -5673,76 +5590,34 @@
       <c r="J126" s="13"/>
       <c r="K126" s="14"/>
       <c r="L126" s="16"/>
-      <c r="M126" s="24"/>
-      <c r="N126" s="24"/>
       <c r="O126" s="16"/>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="15"/>
       <c r="B127" s="15"/>
-      <c r="C127" s="24"/>
-      <c r="D127" s="24"/>
-      <c r="E127" s="24"/>
-      <c r="F127" s="24"/>
-      <c r="G127" s="24"/>
-      <c r="H127" s="24"/>
-      <c r="I127" s="24"/>
-      <c r="J127" s="24"/>
       <c r="K127" s="16"/>
       <c r="L127" s="16"/>
-      <c r="M127" s="24"/>
-      <c r="N127" s="24"/>
       <c r="O127" s="16"/>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="15"/>
       <c r="B128" s="15"/>
-      <c r="C128" s="24"/>
-      <c r="D128" s="24"/>
-      <c r="E128" s="24"/>
-      <c r="F128" s="24"/>
-      <c r="G128" s="24"/>
-      <c r="H128" s="24"/>
-      <c r="I128" s="24"/>
-      <c r="J128" s="24"/>
       <c r="K128" s="16"/>
       <c r="L128" s="16"/>
-      <c r="M128" s="24"/>
-      <c r="N128" s="24"/>
       <c r="O128" s="16"/>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="15"/>
       <c r="B129" s="15"/>
-      <c r="C129" s="24"/>
-      <c r="D129" s="24"/>
-      <c r="E129" s="24"/>
-      <c r="F129" s="24"/>
-      <c r="G129" s="24"/>
-      <c r="H129" s="24"/>
-      <c r="I129" s="24"/>
-      <c r="J129" s="24"/>
       <c r="K129" s="16"/>
       <c r="L129" s="16"/>
-      <c r="M129" s="24"/>
-      <c r="N129" s="24"/>
       <c r="O129" s="16"/>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="15"/>
       <c r="B130" s="15"/>
-      <c r="C130" s="24"/>
-      <c r="D130" s="24"/>
-      <c r="E130" s="24"/>
-      <c r="F130" s="24"/>
-      <c r="G130" s="24"/>
-      <c r="H130" s="24"/>
-      <c r="I130" s="24"/>
-      <c r="J130" s="24"/>
       <c r="K130" s="16"/>
       <c r="L130" s="16"/>
-      <c r="M130" s="24"/>
-      <c r="N130" s="24"/>
       <c r="O130" s="16"/>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.2">
@@ -5758,8 +5633,6 @@
       <c r="J131" s="18"/>
       <c r="K131" s="19"/>
       <c r="L131" s="16"/>
-      <c r="M131" s="24"/>
-      <c r="N131" s="24"/>
       <c r="O131" s="16"/>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.2">
@@ -5775,47 +5648,19 @@
       <c r="J132" s="18"/>
       <c r="K132" s="18"/>
       <c r="L132" s="19"/>
-      <c r="M132" s="24"/>
-      <c r="N132" s="24"/>
       <c r="O132" s="16"/>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="15"/>
-      <c r="B133" s="24"/>
-      <c r="C133" s="24"/>
-      <c r="D133" s="24"/>
-      <c r="E133" s="24"/>
-      <c r="F133" s="24"/>
-      <c r="G133" s="24"/>
-      <c r="H133" s="24"/>
-      <c r="I133" s="24"/>
-      <c r="J133" s="24"/>
-      <c r="K133" s="24"/>
-      <c r="L133" s="24"/>
-      <c r="M133" s="24"/>
-      <c r="N133" s="24"/>
       <c r="O133" s="16"/>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="15"/>
-      <c r="B134" s="24"/>
-      <c r="C134" s="24"/>
-      <c r="D134" s="24"/>
-      <c r="E134" s="24"/>
-      <c r="F134" s="24"/>
-      <c r="G134" s="24"/>
-      <c r="H134" s="24"/>
-      <c r="I134" s="24"/>
-      <c r="J134" s="24"/>
-      <c r="K134" s="24"/>
-      <c r="L134" s="24"/>
-      <c r="M134" s="24"/>
-      <c r="N134" s="24"/>
       <c r="O134" s="16"/>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="15"/>
-      <c r="B135" s="26" t="s">
+      <c r="B135" s="24" t="s">
         <v>130</v>
       </c>
       <c r="C135" s="13"/>
@@ -5828,8 +5673,6 @@
       <c r="J135" s="13"/>
       <c r="K135" s="13"/>
       <c r="L135" s="14"/>
-      <c r="M135" s="24"/>
-      <c r="N135" s="24"/>
       <c r="O135" s="16"/>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.2">
@@ -5843,12 +5686,7 @@
       <c r="F136" s="13"/>
       <c r="G136" s="13"/>
       <c r="H136" s="14"/>
-      <c r="I136" s="24"/>
-      <c r="J136" s="24"/>
-      <c r="K136" s="24"/>
       <c r="L136" s="16"/>
-      <c r="M136" s="24"/>
-      <c r="N136" s="24"/>
       <c r="O136" s="16"/>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.2">
@@ -5856,18 +5694,8 @@
       <c r="B137" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="C137" s="24"/>
-      <c r="D137" s="24"/>
-      <c r="E137" s="24"/>
-      <c r="F137" s="24"/>
-      <c r="G137" s="24"/>
       <c r="H137" s="16"/>
-      <c r="I137" s="24"/>
-      <c r="J137" s="24"/>
-      <c r="K137" s="24"/>
       <c r="L137" s="16"/>
-      <c r="M137" s="24"/>
-      <c r="N137" s="24"/>
       <c r="O137" s="16"/>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.2">
@@ -5875,54 +5703,24 @@
       <c r="B138" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="C138" s="24"/>
-      <c r="D138" s="24"/>
-      <c r="E138" s="24"/>
-      <c r="F138" s="24"/>
-      <c r="G138" s="24"/>
       <c r="H138" s="16"/>
-      <c r="I138" s="24"/>
-      <c r="J138" s="24"/>
-      <c r="K138" s="24"/>
       <c r="L138" s="16"/>
-      <c r="M138" s="24"/>
-      <c r="N138" s="24"/>
       <c r="O138" s="16"/>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="15"/>
       <c r="B139" s="15"/>
-      <c r="C139" s="24"/>
-      <c r="D139" s="24"/>
-      <c r="E139" s="24"/>
-      <c r="F139" s="24"/>
-      <c r="G139" s="24"/>
       <c r="H139" s="16"/>
-      <c r="I139" s="24"/>
-      <c r="J139" s="24"/>
-      <c r="K139" s="24"/>
       <c r="L139" s="16"/>
-      <c r="M139" s="24"/>
-      <c r="N139" s="24"/>
       <c r="O139" s="16"/>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="15"/>
-      <c r="B140" s="25" t="s">
+      <c r="B140" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C140" s="24"/>
-      <c r="D140" s="24"/>
-      <c r="E140" s="24"/>
-      <c r="F140" s="24"/>
-      <c r="G140" s="24"/>
       <c r="H140" s="16"/>
-      <c r="I140" s="24"/>
-      <c r="J140" s="24"/>
-      <c r="K140" s="24"/>
       <c r="L140" s="16"/>
-      <c r="M140" s="24"/>
-      <c r="N140" s="24"/>
       <c r="O140" s="16"/>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.2">
@@ -5930,35 +5728,15 @@
       <c r="B141" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C141" s="24"/>
-      <c r="D141" s="24"/>
-      <c r="E141" s="24"/>
-      <c r="F141" s="24"/>
-      <c r="G141" s="24"/>
       <c r="H141" s="16"/>
-      <c r="I141" s="24"/>
-      <c r="J141" s="24"/>
-      <c r="K141" s="24"/>
       <c r="L141" s="16"/>
-      <c r="M141" s="24"/>
-      <c r="N141" s="24"/>
       <c r="O141" s="16"/>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="15"/>
       <c r="B142" s="15"/>
-      <c r="C142" s="24"/>
-      <c r="D142" s="24"/>
-      <c r="E142" s="24"/>
-      <c r="F142" s="24"/>
-      <c r="G142" s="24"/>
       <c r="H142" s="16"/>
-      <c r="I142" s="24"/>
-      <c r="J142" s="24"/>
-      <c r="K142" s="24"/>
       <c r="L142" s="16"/>
-      <c r="M142" s="24"/>
-      <c r="N142" s="24"/>
       <c r="O142" s="16"/>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.2">
@@ -5966,18 +5744,8 @@
       <c r="B143" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C143" s="24"/>
-      <c r="D143" s="24"/>
-      <c r="E143" s="24"/>
-      <c r="F143" s="24"/>
-      <c r="G143" s="24"/>
       <c r="H143" s="16"/>
-      <c r="I143" s="24"/>
-      <c r="J143" s="24"/>
-      <c r="K143" s="24"/>
       <c r="L143" s="16"/>
-      <c r="M143" s="24"/>
-      <c r="N143" s="24"/>
       <c r="O143" s="16"/>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.2">
@@ -5985,18 +5753,8 @@
       <c r="B144" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C144" s="24"/>
-      <c r="D144" s="24"/>
-      <c r="E144" s="24"/>
-      <c r="F144" s="24"/>
-      <c r="G144" s="24"/>
       <c r="H144" s="16"/>
-      <c r="I144" s="24"/>
-      <c r="J144" s="24"/>
-      <c r="K144" s="24"/>
       <c r="L144" s="16"/>
-      <c r="M144" s="24"/>
-      <c r="N144" s="24"/>
       <c r="O144" s="16"/>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.2">
@@ -6004,18 +5762,8 @@
       <c r="B145" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C145" s="24"/>
-      <c r="D145" s="24"/>
-      <c r="E145" s="24"/>
-      <c r="F145" s="24"/>
-      <c r="G145" s="24"/>
       <c r="H145" s="16"/>
-      <c r="I145" s="24"/>
-      <c r="J145" s="24"/>
-      <c r="K145" s="24"/>
       <c r="L145" s="16"/>
-      <c r="M145" s="24"/>
-      <c r="N145" s="24"/>
       <c r="O145" s="16"/>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.2">
@@ -6023,18 +5771,8 @@
       <c r="B146" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C146" s="24"/>
-      <c r="D146" s="24"/>
-      <c r="E146" s="24"/>
-      <c r="F146" s="24"/>
-      <c r="G146" s="24"/>
       <c r="H146" s="16"/>
-      <c r="I146" s="24"/>
-      <c r="J146" s="24"/>
-      <c r="K146" s="24"/>
       <c r="L146" s="16"/>
-      <c r="M146" s="24"/>
-      <c r="N146" s="24"/>
       <c r="O146" s="16"/>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.2">
@@ -6042,18 +5780,8 @@
       <c r="B147" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="C147" s="24"/>
-      <c r="D147" s="24"/>
-      <c r="E147" s="24"/>
-      <c r="F147" s="24"/>
-      <c r="G147" s="24"/>
       <c r="H147" s="16"/>
-      <c r="I147" s="24"/>
-      <c r="J147" s="24"/>
-      <c r="K147" s="24"/>
       <c r="L147" s="16"/>
-      <c r="M147" s="24"/>
-      <c r="N147" s="24"/>
       <c r="O147" s="16"/>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.2">
@@ -6061,18 +5789,8 @@
       <c r="B148" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="C148" s="24"/>
-      <c r="D148" s="24"/>
-      <c r="E148" s="24"/>
-      <c r="F148" s="24"/>
-      <c r="G148" s="24"/>
       <c r="H148" s="16"/>
-      <c r="I148" s="24"/>
-      <c r="J148" s="24"/>
-      <c r="K148" s="24"/>
       <c r="L148" s="16"/>
-      <c r="M148" s="24"/>
-      <c r="N148" s="24"/>
       <c r="O148" s="16"/>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.2">
@@ -6084,46 +5802,19 @@
       <c r="F149" s="18"/>
       <c r="G149" s="18"/>
       <c r="H149" s="19"/>
-      <c r="I149" s="24"/>
-      <c r="J149" s="24"/>
-      <c r="K149" s="24"/>
       <c r="L149" s="16"/>
-      <c r="M149" s="24"/>
-      <c r="N149" s="24"/>
       <c r="O149" s="16"/>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="15"/>
       <c r="B150" s="15"/>
-      <c r="C150" s="24"/>
-      <c r="D150" s="24"/>
-      <c r="E150" s="24"/>
-      <c r="F150" s="24"/>
-      <c r="G150" s="24"/>
-      <c r="H150" s="24"/>
-      <c r="I150" s="24"/>
-      <c r="J150" s="24"/>
-      <c r="K150" s="24"/>
       <c r="L150" s="16"/>
-      <c r="M150" s="24"/>
-      <c r="N150" s="24"/>
       <c r="O150" s="16"/>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="15"/>
       <c r="B151" s="15"/>
-      <c r="C151" s="24"/>
-      <c r="D151" s="24"/>
-      <c r="E151" s="24"/>
-      <c r="F151" s="24"/>
-      <c r="G151" s="24"/>
-      <c r="H151" s="24"/>
-      <c r="I151" s="24"/>
-      <c r="J151" s="24"/>
-      <c r="K151" s="24"/>
       <c r="L151" s="16"/>
-      <c r="M151" s="24"/>
-      <c r="N151" s="24"/>
       <c r="O151" s="16"/>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.2">
@@ -6141,76 +5832,34 @@
       <c r="J152" s="13"/>
       <c r="K152" s="14"/>
       <c r="L152" s="16"/>
-      <c r="M152" s="24"/>
-      <c r="N152" s="24"/>
       <c r="O152" s="16"/>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="15"/>
       <c r="B153" s="15"/>
-      <c r="C153" s="24"/>
-      <c r="D153" s="24"/>
-      <c r="E153" s="24"/>
-      <c r="F153" s="24"/>
-      <c r="G153" s="24"/>
-      <c r="H153" s="24"/>
-      <c r="I153" s="24"/>
-      <c r="J153" s="24"/>
       <c r="K153" s="16"/>
       <c r="L153" s="16"/>
-      <c r="M153" s="24"/>
-      <c r="N153" s="24"/>
       <c r="O153" s="16"/>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="15"/>
       <c r="B154" s="15"/>
-      <c r="C154" s="24"/>
-      <c r="D154" s="24"/>
-      <c r="E154" s="24"/>
-      <c r="F154" s="24"/>
-      <c r="G154" s="24"/>
-      <c r="H154" s="24"/>
-      <c r="I154" s="24"/>
-      <c r="J154" s="24"/>
       <c r="K154" s="16"/>
       <c r="L154" s="16"/>
-      <c r="M154" s="24"/>
-      <c r="N154" s="24"/>
       <c r="O154" s="16"/>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="15"/>
       <c r="B155" s="15"/>
-      <c r="C155" s="24"/>
-      <c r="D155" s="24"/>
-      <c r="E155" s="24"/>
-      <c r="F155" s="24"/>
-      <c r="G155" s="24"/>
-      <c r="H155" s="24"/>
-      <c r="I155" s="24"/>
-      <c r="J155" s="24"/>
       <c r="K155" s="16"/>
       <c r="L155" s="16"/>
-      <c r="M155" s="24"/>
-      <c r="N155" s="24"/>
       <c r="O155" s="16"/>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="15"/>
       <c r="B156" s="15"/>
-      <c r="C156" s="24"/>
-      <c r="D156" s="24"/>
-      <c r="E156" s="24"/>
-      <c r="F156" s="24"/>
-      <c r="G156" s="24"/>
-      <c r="H156" s="24"/>
-      <c r="I156" s="24"/>
-      <c r="J156" s="24"/>
       <c r="K156" s="16"/>
       <c r="L156" s="16"/>
-      <c r="M156" s="24"/>
-      <c r="N156" s="24"/>
       <c r="O156" s="16"/>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.2">
@@ -6226,8 +5875,6 @@
       <c r="J157" s="18"/>
       <c r="K157" s="19"/>
       <c r="L157" s="16"/>
-      <c r="M157" s="24"/>
-      <c r="N157" s="24"/>
       <c r="O157" s="16"/>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.2">
@@ -6243,8 +5890,6 @@
       <c r="J158" s="18"/>
       <c r="K158" s="18"/>
       <c r="L158" s="19"/>
-      <c r="M158" s="24"/>
-      <c r="N158" s="24"/>
       <c r="O158" s="16"/>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.2">
@@ -6290,30 +5935,12 @@
       <c r="C163" s="13"/>
       <c r="D163" s="13"/>
       <c r="E163" s="14"/>
-      <c r="F163" s="24"/>
-      <c r="G163" s="24"/>
-      <c r="H163" s="24"/>
-      <c r="I163" s="24"/>
-      <c r="J163" s="24"/>
-      <c r="K163" s="24"/>
-      <c r="L163" s="24"/>
-      <c r="M163" s="24"/>
       <c r="N163" s="16"/>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" s="15"/>
       <c r="B164" s="15"/>
-      <c r="C164" s="24"/>
-      <c r="D164" s="24"/>
       <c r="E164" s="16"/>
-      <c r="F164" s="24"/>
-      <c r="G164" s="24"/>
-      <c r="H164" s="24"/>
-      <c r="I164" s="24"/>
-      <c r="J164" s="24"/>
-      <c r="K164" s="24"/>
-      <c r="L164" s="24"/>
-      <c r="M164" s="24"/>
       <c r="N164" s="16"/>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.2">
@@ -6321,21 +5948,13 @@
       <c r="B165" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C165" s="24"/>
-      <c r="D165" s="24"/>
       <c r="E165" s="16"/>
-      <c r="F165" s="24" t="s">
+      <c r="F165" t="s">
         <v>71</v>
       </c>
-      <c r="G165" s="24" t="s">
+      <c r="G165" t="s">
         <v>137</v>
       </c>
-      <c r="H165" s="24"/>
-      <c r="I165" s="24"/>
-      <c r="J165" s="24"/>
-      <c r="K165" s="24"/>
-      <c r="L165" s="24"/>
-      <c r="M165" s="24"/>
       <c r="N165" s="16"/>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.2">
@@ -6343,33 +5962,13 @@
       <c r="B166" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="C166" s="24"/>
-      <c r="D166" s="24"/>
       <c r="E166" s="16"/>
-      <c r="F166" s="24"/>
-      <c r="G166" s="24"/>
-      <c r="H166" s="24"/>
-      <c r="I166" s="24"/>
-      <c r="J166" s="24"/>
-      <c r="K166" s="24"/>
-      <c r="L166" s="24"/>
-      <c r="M166" s="24"/>
       <c r="N166" s="16"/>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" s="15"/>
       <c r="B167" s="15"/>
-      <c r="C167" s="24"/>
-      <c r="D167" s="24"/>
       <c r="E167" s="16"/>
-      <c r="F167" s="24"/>
-      <c r="G167" s="24"/>
-      <c r="H167" s="24"/>
-      <c r="I167" s="24"/>
-      <c r="J167" s="24"/>
-      <c r="K167" s="24"/>
-      <c r="L167" s="24"/>
-      <c r="M167" s="24"/>
       <c r="N167" s="16"/>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.2">
@@ -6377,17 +5976,7 @@
       <c r="B168" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C168" s="24"/>
-      <c r="D168" s="24"/>
       <c r="E168" s="16"/>
-      <c r="F168" s="24"/>
-      <c r="G168" s="24"/>
-      <c r="H168" s="24"/>
-      <c r="I168" s="24"/>
-      <c r="J168" s="24"/>
-      <c r="K168" s="24"/>
-      <c r="L168" s="24"/>
-      <c r="M168" s="24"/>
       <c r="N168" s="16"/>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.2">
@@ -6395,17 +5984,7 @@
       <c r="B169" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C169" s="24"/>
-      <c r="D169" s="24"/>
       <c r="E169" s="16"/>
-      <c r="F169" s="24"/>
-      <c r="G169" s="24"/>
-      <c r="H169" s="24"/>
-      <c r="I169" s="24"/>
-      <c r="J169" s="24"/>
-      <c r="K169" s="24"/>
-      <c r="L169" s="24"/>
-      <c r="M169" s="24"/>
       <c r="N169" s="16"/>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.2">
@@ -6413,17 +5992,7 @@
       <c r="B170" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C170" s="24"/>
-      <c r="D170" s="24"/>
       <c r="E170" s="16"/>
-      <c r="F170" s="24"/>
-      <c r="G170" s="24"/>
-      <c r="H170" s="24"/>
-      <c r="I170" s="24"/>
-      <c r="J170" s="24"/>
-      <c r="K170" s="24"/>
-      <c r="L170" s="24"/>
-      <c r="M170" s="24"/>
       <c r="N170" s="16"/>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.2">
@@ -6431,17 +6000,7 @@
       <c r="B171" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="C171" s="24"/>
-      <c r="D171" s="24"/>
       <c r="E171" s="16"/>
-      <c r="F171" s="24"/>
-      <c r="G171" s="24"/>
-      <c r="H171" s="24"/>
-      <c r="I171" s="24"/>
-      <c r="J171" s="24"/>
-      <c r="K171" s="24"/>
-      <c r="L171" s="24"/>
-      <c r="M171" s="24"/>
       <c r="N171" s="16"/>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.2">
@@ -6449,17 +6008,7 @@
       <c r="B172" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C172" s="24"/>
-      <c r="D172" s="24"/>
       <c r="E172" s="16"/>
-      <c r="F172" s="24"/>
-      <c r="G172" s="24"/>
-      <c r="H172" s="24"/>
-      <c r="I172" s="24"/>
-      <c r="J172" s="24"/>
-      <c r="K172" s="24"/>
-      <c r="L172" s="24"/>
-      <c r="M172" s="24"/>
       <c r="N172" s="16"/>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.2">
@@ -6468,46 +6017,14 @@
       <c r="C173" s="18"/>
       <c r="D173" s="18"/>
       <c r="E173" s="19"/>
-      <c r="F173" s="24"/>
-      <c r="G173" s="24"/>
-      <c r="H173" s="24"/>
-      <c r="I173" s="24"/>
-      <c r="J173" s="24"/>
-      <c r="K173" s="24"/>
-      <c r="L173" s="24"/>
-      <c r="M173" s="24"/>
       <c r="N173" s="16"/>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" s="15"/>
-      <c r="B174" s="24"/>
-      <c r="C174" s="24"/>
-      <c r="D174" s="24"/>
-      <c r="E174" s="24"/>
-      <c r="F174" s="24"/>
-      <c r="G174" s="24"/>
-      <c r="H174" s="24"/>
-      <c r="I174" s="24"/>
-      <c r="J174" s="24"/>
-      <c r="K174" s="24"/>
-      <c r="L174" s="24"/>
-      <c r="M174" s="24"/>
       <c r="N174" s="16"/>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" s="15"/>
-      <c r="B175" s="24"/>
-      <c r="C175" s="24"/>
-      <c r="D175" s="24"/>
-      <c r="E175" s="24"/>
-      <c r="F175" s="24"/>
-      <c r="G175" s="24"/>
-      <c r="H175" s="24"/>
-      <c r="I175" s="24"/>
-      <c r="J175" s="24"/>
-      <c r="K175" s="24"/>
-      <c r="L175" s="24"/>
-      <c r="M175" s="24"/>
       <c r="N175" s="16"/>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.2">
@@ -6531,64 +6048,24 @@
     <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" s="15"/>
       <c r="B177" s="15"/>
-      <c r="C177" s="24"/>
-      <c r="D177" s="24"/>
-      <c r="E177" s="24"/>
-      <c r="F177" s="24"/>
-      <c r="G177" s="24"/>
-      <c r="H177" s="24"/>
-      <c r="I177" s="24"/>
-      <c r="J177" s="24"/>
-      <c r="K177" s="24"/>
-      <c r="L177" s="24"/>
       <c r="M177" s="16"/>
       <c r="N177" s="16"/>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" s="15"/>
       <c r="B178" s="15"/>
-      <c r="C178" s="24"/>
-      <c r="D178" s="24"/>
-      <c r="E178" s="24"/>
-      <c r="F178" s="24"/>
-      <c r="G178" s="24"/>
-      <c r="H178" s="24"/>
-      <c r="I178" s="24"/>
-      <c r="J178" s="24"/>
-      <c r="K178" s="24"/>
-      <c r="L178" s="24"/>
       <c r="M178" s="16"/>
       <c r="N178" s="16"/>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" s="15"/>
       <c r="B179" s="15"/>
-      <c r="C179" s="24"/>
-      <c r="D179" s="24"/>
-      <c r="E179" s="24"/>
-      <c r="F179" s="24"/>
-      <c r="G179" s="24"/>
-      <c r="H179" s="24"/>
-      <c r="I179" s="24"/>
-      <c r="J179" s="24"/>
-      <c r="K179" s="24"/>
-      <c r="L179" s="24"/>
       <c r="M179" s="16"/>
       <c r="N179" s="16"/>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" s="15"/>
       <c r="B180" s="15"/>
-      <c r="C180" s="24"/>
-      <c r="D180" s="24"/>
-      <c r="E180" s="24"/>
-      <c r="F180" s="24"/>
-      <c r="G180" s="24"/>
-      <c r="H180" s="24"/>
-      <c r="I180" s="24"/>
-      <c r="J180" s="24"/>
-      <c r="K180" s="24"/>
-      <c r="L180" s="24"/>
       <c r="M180" s="16"/>
       <c r="N180" s="16"/>
     </row>
@@ -6628,4 +6105,2026 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE7EA81-C65D-AE43-BEF4-A04FBFABC41A}">
+  <dimension ref="A3:P180"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A158" zoomScale="150" workbookViewId="0">
+      <selection activeCell="L65" sqref="L65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="1"/>
+      <c r="D34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="1"/>
+      <c r="D35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="1"/>
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="5"/>
+      <c r="C38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="5"/>
+      <c r="D39" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5"/>
+      <c r="D40" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5"/>
+      <c r="D41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="1"/>
+      <c r="D43" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="1"/>
+      <c r="D44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="1"/>
+      <c r="D45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="1"/>
+      <c r="D46" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="1"/>
+      <c r="D47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="1"/>
+      <c r="D48" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="1"/>
+      <c r="D49" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="1"/>
+      <c r="D50" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="1"/>
+      <c r="D52" t="s">
+        <v>74</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="1"/>
+      <c r="D53" t="s">
+        <v>93</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="1"/>
+      <c r="D54" t="s">
+        <v>111</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="1"/>
+      <c r="D55" t="s">
+        <v>131</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="1"/>
+      <c r="D59" t="s">
+        <v>75</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
+      <c r="B60" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="1"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="1"/>
+      <c r="D62" t="s">
+        <v>50</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="1"/>
+      <c r="D63" t="s">
+        <v>51</v>
+      </c>
+      <c r="E63" s="1"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="1"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="1"/>
+      <c r="D64" t="s">
+        <v>52</v>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="6"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="1"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="1"/>
+      <c r="D65" t="s">
+        <v>53</v>
+      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="1"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="1"/>
+      <c r="D66" t="s">
+        <v>54</v>
+      </c>
+      <c r="E66" s="1"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="1"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="1"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="1"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="1"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="1"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="1"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="1"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="1"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="1"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="1"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="1"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="1"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="1"/>
+      <c r="B80" s="5"/>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="6"/>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A81" s="1"/>
+      <c r="B81" s="5"/>
+      <c r="C81" t="s">
+        <v>69</v>
+      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A82" s="1"/>
+      <c r="B82" s="5"/>
+      <c r="C82" t="s">
+        <v>70</v>
+      </c>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="6"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A83" s="1"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A86" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="13"/>
+      <c r="I86" s="13"/>
+      <c r="J86" s="13"/>
+      <c r="K86" s="13"/>
+      <c r="L86" s="13"/>
+      <c r="M86" s="13"/>
+      <c r="N86" s="13"/>
+      <c r="O86" s="13"/>
+      <c r="P86" s="14"/>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A87" s="15"/>
+      <c r="B87" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="13"/>
+      <c r="I87" s="13"/>
+      <c r="J87" s="13"/>
+      <c r="K87" s="13"/>
+      <c r="L87" s="13"/>
+      <c r="M87" s="13"/>
+      <c r="N87" s="14"/>
+      <c r="P87" s="16"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A88" s="15"/>
+      <c r="B88" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="14"/>
+      <c r="N88" s="16"/>
+      <c r="P88" s="16"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A89" s="15"/>
+      <c r="B89" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="H89" s="16"/>
+      <c r="N89" s="16"/>
+      <c r="P89" s="16"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A90" s="15"/>
+      <c r="B90" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H90" s="16"/>
+      <c r="N90" s="16"/>
+      <c r="P90" s="16"/>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A91" s="15"/>
+      <c r="B91" s="15"/>
+      <c r="H91" s="16"/>
+      <c r="N91" s="16"/>
+      <c r="P91" s="16"/>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A92" s="15"/>
+      <c r="B92" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="H92" s="16"/>
+      <c r="N92" s="16"/>
+      <c r="P92" s="16"/>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A93" s="15"/>
+      <c r="B93" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="H93" s="16"/>
+      <c r="N93" s="16"/>
+      <c r="P93" s="16"/>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A94" s="15"/>
+      <c r="B94" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="H94" s="16"/>
+      <c r="N94" s="16"/>
+      <c r="P94" s="16"/>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A95" s="15"/>
+      <c r="B95" s="15"/>
+      <c r="H95" s="16"/>
+      <c r="N95" s="16"/>
+      <c r="P95" s="16"/>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A96" s="15"/>
+      <c r="B96" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="H96" s="16"/>
+      <c r="N96" s="16"/>
+      <c r="P96" s="16"/>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A97" s="15"/>
+      <c r="B97" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="H97" s="16"/>
+      <c r="I97" t="s">
+        <v>71</v>
+      </c>
+      <c r="J97" t="s">
+        <v>144</v>
+      </c>
+      <c r="N97" s="16"/>
+      <c r="P97" s="16"/>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A98" s="15"/>
+      <c r="B98" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="H98" s="16"/>
+      <c r="N98" s="16"/>
+      <c r="P98" s="16"/>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A99" s="15"/>
+      <c r="B99" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="H99" s="16"/>
+      <c r="N99" s="16"/>
+      <c r="P99" s="16"/>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A100" s="15"/>
+      <c r="B100" s="17"/>
+      <c r="C100" s="18"/>
+      <c r="D100" s="18"/>
+      <c r="E100" s="18"/>
+      <c r="F100" s="18"/>
+      <c r="G100" s="18"/>
+      <c r="H100" s="19"/>
+      <c r="N100" s="16"/>
+      <c r="P100" s="16"/>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A101" s="15"/>
+      <c r="B101" s="15"/>
+      <c r="N101" s="16"/>
+      <c r="P101" s="16"/>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A102" s="15"/>
+      <c r="B102" s="15"/>
+      <c r="N102" s="16"/>
+      <c r="P102" s="16"/>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A103" s="15"/>
+      <c r="B103" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C103" s="13"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="13"/>
+      <c r="F103" s="13"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="13"/>
+      <c r="I103" s="13"/>
+      <c r="J103" s="13"/>
+      <c r="K103" s="13"/>
+      <c r="L103" s="13"/>
+      <c r="M103" s="14"/>
+      <c r="N103" s="16"/>
+      <c r="P103" s="16"/>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A104" s="15"/>
+      <c r="B104" s="15"/>
+      <c r="M104" s="16"/>
+      <c r="N104" s="16"/>
+      <c r="P104" s="16"/>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A105" s="15"/>
+      <c r="B105" s="15"/>
+      <c r="M105" s="16"/>
+      <c r="N105" s="16"/>
+      <c r="P105" s="16"/>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A106" s="15"/>
+      <c r="B106" s="15"/>
+      <c r="M106" s="16"/>
+      <c r="N106" s="16"/>
+      <c r="P106" s="16"/>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A107" s="15"/>
+      <c r="B107" s="15"/>
+      <c r="M107" s="16"/>
+      <c r="N107" s="16"/>
+      <c r="P107" s="16"/>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A108" s="15"/>
+      <c r="B108" s="17"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="18"/>
+      <c r="E108" s="18"/>
+      <c r="F108" s="18"/>
+      <c r="G108" s="18"/>
+      <c r="H108" s="18"/>
+      <c r="I108" s="18"/>
+      <c r="J108" s="18"/>
+      <c r="K108" s="18"/>
+      <c r="L108" s="18"/>
+      <c r="M108" s="19"/>
+      <c r="N108" s="16"/>
+      <c r="P108" s="16"/>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A109" s="15"/>
+      <c r="B109" s="17"/>
+      <c r="C109" s="18"/>
+      <c r="D109" s="18"/>
+      <c r="E109" s="18"/>
+      <c r="F109" s="18"/>
+      <c r="G109" s="18"/>
+      <c r="H109" s="18"/>
+      <c r="I109" s="18"/>
+      <c r="J109" s="18"/>
+      <c r="K109" s="18"/>
+      <c r="L109" s="18"/>
+      <c r="M109" s="18"/>
+      <c r="N109" s="19"/>
+      <c r="P109" s="16"/>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A110" s="15"/>
+      <c r="P110" s="16"/>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A111" s="15"/>
+      <c r="P111" s="16"/>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A112" s="15"/>
+      <c r="B112" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C112" s="13"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="13"/>
+      <c r="F112" s="13"/>
+      <c r="G112" s="13"/>
+      <c r="H112" s="13"/>
+      <c r="I112" s="13"/>
+      <c r="J112" s="13"/>
+      <c r="K112" s="13"/>
+      <c r="L112" s="13"/>
+      <c r="M112" s="13"/>
+      <c r="N112" s="13"/>
+      <c r="O112" s="14"/>
+      <c r="P112" s="16"/>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A113" s="15"/>
+      <c r="B113" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C113" s="13"/>
+      <c r="D113" s="13"/>
+      <c r="E113" s="13"/>
+      <c r="F113" s="13"/>
+      <c r="G113" s="13"/>
+      <c r="H113" s="14"/>
+      <c r="O113" s="16"/>
+      <c r="P113" s="16"/>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A114" s="15"/>
+      <c r="B114" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="H114" s="16"/>
+      <c r="O114" s="16"/>
+      <c r="P114" s="16"/>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A115" s="15"/>
+      <c r="B115" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H115" s="16"/>
+      <c r="O115" s="16"/>
+      <c r="P115" s="16"/>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A116" s="15"/>
+      <c r="B116" s="15"/>
+      <c r="H116" s="16"/>
+      <c r="O116" s="16"/>
+      <c r="P116" s="16"/>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A117" s="15"/>
+      <c r="B117" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="H117" s="16"/>
+      <c r="O117" s="16"/>
+      <c r="P117" s="16"/>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A118" s="15"/>
+      <c r="B118" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="H118" s="16"/>
+      <c r="O118" s="16"/>
+      <c r="P118" s="16"/>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A119" s="15"/>
+      <c r="B119" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="H119" s="16"/>
+      <c r="O119" s="16"/>
+      <c r="P119" s="16"/>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A120" s="15"/>
+      <c r="B120" s="15"/>
+      <c r="H120" s="16"/>
+      <c r="O120" s="16"/>
+      <c r="P120" s="16"/>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A121" s="15"/>
+      <c r="B121" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="H121" s="16"/>
+      <c r="O121" s="16"/>
+      <c r="P121" s="16"/>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A122" s="15"/>
+      <c r="B122" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="H122" s="16"/>
+      <c r="O122" s="16"/>
+      <c r="P122" s="16"/>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A123" s="15"/>
+      <c r="B123" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="H123" s="16"/>
+      <c r="O123" s="16"/>
+      <c r="P123" s="16"/>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A124" s="15"/>
+      <c r="B124" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="H124" s="16"/>
+      <c r="O124" s="16"/>
+      <c r="P124" s="16"/>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A125" s="15"/>
+      <c r="B125" s="17"/>
+      <c r="C125" s="18"/>
+      <c r="D125" s="18"/>
+      <c r="E125" s="18"/>
+      <c r="F125" s="18"/>
+      <c r="G125" s="18"/>
+      <c r="H125" s="19"/>
+      <c r="O125" s="16"/>
+      <c r="P125" s="16"/>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A126" s="15"/>
+      <c r="B126" s="15"/>
+      <c r="O126" s="16"/>
+      <c r="P126" s="16"/>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A127" s="15"/>
+      <c r="B127" s="15"/>
+      <c r="O127" s="16"/>
+      <c r="P127" s="16"/>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A128" s="15"/>
+      <c r="B128" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C128" s="13"/>
+      <c r="D128" s="13"/>
+      <c r="E128" s="13"/>
+      <c r="F128" s="13"/>
+      <c r="G128" s="13"/>
+      <c r="H128" s="13"/>
+      <c r="I128" s="13"/>
+      <c r="J128" s="13"/>
+      <c r="K128" s="13"/>
+      <c r="L128" s="13"/>
+      <c r="M128" s="13"/>
+      <c r="N128" s="14"/>
+      <c r="O128" s="16"/>
+      <c r="P128" s="16"/>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A129" s="15"/>
+      <c r="B129" s="15"/>
+      <c r="N129" s="16"/>
+      <c r="O129" s="16"/>
+      <c r="P129" s="16"/>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A130" s="15"/>
+      <c r="B130" s="15"/>
+      <c r="N130" s="16"/>
+      <c r="O130" s="16"/>
+      <c r="P130" s="16"/>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A131" s="15"/>
+      <c r="B131" s="15"/>
+      <c r="N131" s="16"/>
+      <c r="O131" s="16"/>
+      <c r="P131" s="16"/>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A132" s="15"/>
+      <c r="B132" s="15"/>
+      <c r="N132" s="16"/>
+      <c r="O132" s="16"/>
+      <c r="P132" s="16"/>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A133" s="15"/>
+      <c r="B133" s="15"/>
+      <c r="N133" s="16"/>
+      <c r="O133" s="16"/>
+      <c r="P133" s="16"/>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A134" s="15"/>
+      <c r="B134" s="17"/>
+      <c r="C134" s="18"/>
+      <c r="D134" s="18"/>
+      <c r="E134" s="18"/>
+      <c r="F134" s="18"/>
+      <c r="G134" s="18"/>
+      <c r="H134" s="18"/>
+      <c r="I134" s="18"/>
+      <c r="J134" s="18"/>
+      <c r="K134" s="18"/>
+      <c r="L134" s="18"/>
+      <c r="M134" s="18"/>
+      <c r="N134" s="19"/>
+      <c r="O134" s="16"/>
+      <c r="P134" s="16"/>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A135" s="15"/>
+      <c r="B135" s="17"/>
+      <c r="C135" s="18"/>
+      <c r="D135" s="18"/>
+      <c r="E135" s="18"/>
+      <c r="F135" s="18"/>
+      <c r="G135" s="18"/>
+      <c r="H135" s="18"/>
+      <c r="I135" s="18"/>
+      <c r="J135" s="18"/>
+      <c r="K135" s="18"/>
+      <c r="L135" s="18"/>
+      <c r="M135" s="18"/>
+      <c r="N135" s="18"/>
+      <c r="O135" s="19"/>
+      <c r="P135" s="16"/>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A136" s="17"/>
+      <c r="B136" s="18"/>
+      <c r="C136" s="18"/>
+      <c r="D136" s="18"/>
+      <c r="E136" s="18"/>
+      <c r="F136" s="18"/>
+      <c r="G136" s="18"/>
+      <c r="H136" s="18"/>
+      <c r="I136" s="18"/>
+      <c r="J136" s="18"/>
+      <c r="K136" s="18"/>
+      <c r="L136" s="18"/>
+      <c r="M136" s="18"/>
+      <c r="N136" s="18"/>
+      <c r="O136" s="18"/>
+      <c r="P136" s="19"/>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A139" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="B139" s="13"/>
+      <c r="C139" s="13"/>
+      <c r="D139" s="13"/>
+      <c r="E139" s="13"/>
+      <c r="F139" s="13"/>
+      <c r="G139" s="13"/>
+      <c r="H139" s="13"/>
+      <c r="I139" s="13"/>
+      <c r="J139" s="13"/>
+      <c r="K139" s="13"/>
+      <c r="L139" s="13"/>
+      <c r="M139" s="13"/>
+      <c r="N139" s="14"/>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A140" s="15"/>
+      <c r="B140" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C140" s="13"/>
+      <c r="D140" s="13"/>
+      <c r="E140" s="13"/>
+      <c r="F140" s="14"/>
+      <c r="N140" s="16"/>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A141" s="15"/>
+      <c r="B141" s="15"/>
+      <c r="F141" s="16"/>
+      <c r="N141" s="16"/>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A142" s="15"/>
+      <c r="B142" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="F142" s="16"/>
+      <c r="N142" s="16"/>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A143" s="15"/>
+      <c r="B143" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="F143" s="16"/>
+      <c r="N143" s="16"/>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A144" s="15"/>
+      <c r="B144" s="15"/>
+      <c r="F144" s="16"/>
+      <c r="N144" s="16"/>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A145" s="15"/>
+      <c r="B145" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="F145" s="16"/>
+      <c r="G145" t="s">
+        <v>71</v>
+      </c>
+      <c r="H145" t="s">
+        <v>150</v>
+      </c>
+      <c r="N145" s="16"/>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A146" s="15"/>
+      <c r="B146" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F146" s="16"/>
+      <c r="N146" s="16"/>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A147" s="15"/>
+      <c r="B147" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F147" s="16"/>
+      <c r="N147" s="16"/>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A148" s="15"/>
+      <c r="B148" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F148" s="16"/>
+      <c r="N148" s="16"/>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A149" s="15"/>
+      <c r="B149" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="F149" s="16"/>
+      <c r="N149" s="16"/>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A150" s="15"/>
+      <c r="B150" s="17"/>
+      <c r="C150" s="18"/>
+      <c r="D150" s="18"/>
+      <c r="E150" s="18"/>
+      <c r="F150" s="19"/>
+      <c r="N150" s="16"/>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A151" s="15"/>
+      <c r="N151" s="16"/>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A152" s="15"/>
+      <c r="N152" s="16"/>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A153" s="15"/>
+      <c r="B153" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C153" s="13"/>
+      <c r="D153" s="13"/>
+      <c r="E153" s="13"/>
+      <c r="F153" s="13"/>
+      <c r="G153" s="13"/>
+      <c r="H153" s="13"/>
+      <c r="I153" s="13"/>
+      <c r="J153" s="13"/>
+      <c r="K153" s="13"/>
+      <c r="L153" s="13"/>
+      <c r="M153" s="14"/>
+      <c r="N153" s="16"/>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A154" s="15"/>
+      <c r="B154" s="15"/>
+      <c r="M154" s="16"/>
+      <c r="N154" s="16"/>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A155" s="15"/>
+      <c r="B155" s="15"/>
+      <c r="M155" s="16"/>
+      <c r="N155" s="16"/>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A156" s="15"/>
+      <c r="B156" s="15"/>
+      <c r="M156" s="16"/>
+      <c r="N156" s="16"/>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A157" s="15"/>
+      <c r="B157" s="15"/>
+      <c r="M157" s="16"/>
+      <c r="N157" s="16"/>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A158" s="15"/>
+      <c r="B158" s="17"/>
+      <c r="C158" s="18"/>
+      <c r="D158" s="18"/>
+      <c r="E158" s="18"/>
+      <c r="F158" s="18"/>
+      <c r="G158" s="18"/>
+      <c r="H158" s="18"/>
+      <c r="I158" s="18"/>
+      <c r="J158" s="18"/>
+      <c r="K158" s="18"/>
+      <c r="L158" s="18"/>
+      <c r="M158" s="19"/>
+      <c r="N158" s="16"/>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A159" s="17"/>
+      <c r="B159" s="18"/>
+      <c r="C159" s="18"/>
+      <c r="D159" s="18"/>
+      <c r="E159" s="18"/>
+      <c r="F159" s="18"/>
+      <c r="G159" s="18"/>
+      <c r="H159" s="18"/>
+      <c r="I159" s="18"/>
+      <c r="J159" s="18"/>
+      <c r="K159" s="18"/>
+      <c r="L159" s="18"/>
+      <c r="M159" s="18"/>
+      <c r="N159" s="19"/>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A162" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="B162" s="13"/>
+      <c r="C162" s="13"/>
+      <c r="D162" s="13"/>
+      <c r="E162" s="13"/>
+      <c r="F162" s="13"/>
+      <c r="G162" s="13"/>
+      <c r="H162" s="13"/>
+      <c r="I162" s="13"/>
+      <c r="J162" s="13"/>
+      <c r="K162" s="13"/>
+      <c r="L162" s="13"/>
+      <c r="M162" s="13"/>
+      <c r="N162" s="13"/>
+      <c r="O162" s="14"/>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A163" s="15"/>
+      <c r="B163" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C163" s="13"/>
+      <c r="D163" s="13"/>
+      <c r="E163" s="14"/>
+      <c r="F163" s="26"/>
+      <c r="G163" s="26"/>
+      <c r="H163" s="26"/>
+      <c r="I163" s="26"/>
+      <c r="J163" s="26"/>
+      <c r="K163" s="26"/>
+      <c r="L163" s="26"/>
+      <c r="M163" s="26"/>
+      <c r="N163" s="26"/>
+      <c r="O163" s="16"/>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A164" s="15"/>
+      <c r="B164" s="15"/>
+      <c r="C164" s="26"/>
+      <c r="D164" s="26"/>
+      <c r="E164" s="16"/>
+      <c r="F164" s="26"/>
+      <c r="G164" s="26"/>
+      <c r="H164" s="26"/>
+      <c r="I164" s="26"/>
+      <c r="J164" s="26"/>
+      <c r="K164" s="26"/>
+      <c r="L164" s="26"/>
+      <c r="M164" s="26"/>
+      <c r="N164" s="26"/>
+      <c r="O164" s="16"/>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A165" s="15"/>
+      <c r="B165" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C165" s="26"/>
+      <c r="D165" s="26"/>
+      <c r="E165" s="16"/>
+      <c r="F165" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="G165" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="H165" s="26"/>
+      <c r="I165" s="26"/>
+      <c r="J165" s="26"/>
+      <c r="K165" s="26"/>
+      <c r="L165" s="26"/>
+      <c r="M165" s="26"/>
+      <c r="N165" s="26"/>
+      <c r="O165" s="16"/>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A166" s="15"/>
+      <c r="B166" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C166" s="26"/>
+      <c r="D166" s="26"/>
+      <c r="E166" s="16"/>
+      <c r="F166" s="26"/>
+      <c r="G166" s="26"/>
+      <c r="H166" s="26"/>
+      <c r="I166" s="26"/>
+      <c r="J166" s="26"/>
+      <c r="K166" s="26"/>
+      <c r="L166" s="26"/>
+      <c r="M166" s="26"/>
+      <c r="N166" s="26"/>
+      <c r="O166" s="16"/>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A167" s="15"/>
+      <c r="B167" s="15"/>
+      <c r="C167" s="26"/>
+      <c r="D167" s="26"/>
+      <c r="E167" s="16"/>
+      <c r="F167" s="26"/>
+      <c r="G167" s="26"/>
+      <c r="H167" s="26"/>
+      <c r="I167" s="26"/>
+      <c r="J167" s="26"/>
+      <c r="K167" s="26"/>
+      <c r="L167" s="26"/>
+      <c r="M167" s="26"/>
+      <c r="N167" s="26"/>
+      <c r="O167" s="16"/>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A168" s="15"/>
+      <c r="B168" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C168" s="26"/>
+      <c r="D168" s="26"/>
+      <c r="E168" s="16"/>
+      <c r="F168" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="G168" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="H168" s="26"/>
+      <c r="I168" s="26"/>
+      <c r="J168" s="26"/>
+      <c r="K168" s="26"/>
+      <c r="L168" s="26"/>
+      <c r="M168" s="26"/>
+      <c r="N168" s="26"/>
+      <c r="O168" s="16"/>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A169" s="15"/>
+      <c r="B169" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C169" s="26"/>
+      <c r="D169" s="26"/>
+      <c r="E169" s="16"/>
+      <c r="F169" s="26"/>
+      <c r="G169" s="26"/>
+      <c r="H169" s="26"/>
+      <c r="I169" s="26"/>
+      <c r="J169" s="26"/>
+      <c r="K169" s="26"/>
+      <c r="L169" s="26"/>
+      <c r="M169" s="26"/>
+      <c r="N169" s="26"/>
+      <c r="O169" s="16"/>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A170" s="15"/>
+      <c r="B170" s="17"/>
+      <c r="C170" s="18"/>
+      <c r="D170" s="18"/>
+      <c r="E170" s="19"/>
+      <c r="F170" s="26"/>
+      <c r="G170" s="26"/>
+      <c r="H170" s="26"/>
+      <c r="I170" s="26"/>
+      <c r="J170" s="26"/>
+      <c r="K170" s="26"/>
+      <c r="L170" s="26"/>
+      <c r="M170" s="26"/>
+      <c r="N170" s="26"/>
+      <c r="O170" s="16"/>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A171" s="15"/>
+      <c r="B171" s="26"/>
+      <c r="C171" s="26"/>
+      <c r="D171" s="26"/>
+      <c r="E171" s="26"/>
+      <c r="F171" s="26"/>
+      <c r="G171" s="26"/>
+      <c r="H171" s="26"/>
+      <c r="I171" s="26"/>
+      <c r="J171" s="26"/>
+      <c r="K171" s="26"/>
+      <c r="L171" s="26"/>
+      <c r="M171" s="26"/>
+      <c r="N171" s="26"/>
+      <c r="O171" s="16"/>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A172" s="15"/>
+      <c r="B172" s="26"/>
+      <c r="C172" s="26"/>
+      <c r="D172" s="26"/>
+      <c r="E172" s="26"/>
+      <c r="F172" s="26"/>
+      <c r="G172" s="26"/>
+      <c r="H172" s="26"/>
+      <c r="I172" s="26"/>
+      <c r="J172" s="26"/>
+      <c r="K172" s="26"/>
+      <c r="L172" s="26"/>
+      <c r="M172" s="26"/>
+      <c r="N172" s="26"/>
+      <c r="O172" s="16"/>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A173" s="15"/>
+      <c r="B173" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C173" s="13"/>
+      <c r="D173" s="13"/>
+      <c r="E173" s="13"/>
+      <c r="F173" s="13"/>
+      <c r="G173" s="13"/>
+      <c r="H173" s="13"/>
+      <c r="I173" s="13"/>
+      <c r="J173" s="13"/>
+      <c r="K173" s="13"/>
+      <c r="L173" s="13"/>
+      <c r="M173" s="13"/>
+      <c r="N173" s="14"/>
+      <c r="O173" s="16"/>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A174" s="15"/>
+      <c r="B174" s="15"/>
+      <c r="C174" s="26"/>
+      <c r="D174" s="26"/>
+      <c r="E174" s="26"/>
+      <c r="F174" s="26"/>
+      <c r="G174" s="26"/>
+      <c r="H174" s="26"/>
+      <c r="I174" s="26"/>
+      <c r="J174" s="26"/>
+      <c r="K174" s="26"/>
+      <c r="L174" s="26"/>
+      <c r="M174" s="26"/>
+      <c r="N174" s="16"/>
+      <c r="O174" s="16"/>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A175" s="15"/>
+      <c r="B175" s="15"/>
+      <c r="C175" s="26"/>
+      <c r="D175" s="26"/>
+      <c r="E175" s="26"/>
+      <c r="F175" s="26"/>
+      <c r="G175" s="26"/>
+      <c r="H175" s="26"/>
+      <c r="I175" s="26"/>
+      <c r="J175" s="26"/>
+      <c r="K175" s="26"/>
+      <c r="L175" s="26"/>
+      <c r="M175" s="26"/>
+      <c r="N175" s="16"/>
+      <c r="O175" s="16"/>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A176" s="15"/>
+      <c r="B176" s="15"/>
+      <c r="C176" s="26"/>
+      <c r="D176" s="26"/>
+      <c r="E176" s="26"/>
+      <c r="F176" s="26"/>
+      <c r="G176" s="26"/>
+      <c r="H176" s="26"/>
+      <c r="I176" s="26"/>
+      <c r="J176" s="26"/>
+      <c r="K176" s="26"/>
+      <c r="L176" s="26"/>
+      <c r="M176" s="26"/>
+      <c r="N176" s="16"/>
+      <c r="O176" s="16"/>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A177" s="15"/>
+      <c r="B177" s="15"/>
+      <c r="C177" s="26"/>
+      <c r="D177" s="26"/>
+      <c r="E177" s="26"/>
+      <c r="F177" s="26"/>
+      <c r="G177" s="26"/>
+      <c r="H177" s="26"/>
+      <c r="I177" s="26"/>
+      <c r="J177" s="26"/>
+      <c r="K177" s="26"/>
+      <c r="L177" s="26"/>
+      <c r="M177" s="26"/>
+      <c r="N177" s="16"/>
+      <c r="O177" s="16"/>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A178" s="15"/>
+      <c r="B178" s="15"/>
+      <c r="C178" s="26"/>
+      <c r="D178" s="26"/>
+      <c r="E178" s="26"/>
+      <c r="F178" s="26"/>
+      <c r="G178" s="26"/>
+      <c r="H178" s="26"/>
+      <c r="I178" s="26"/>
+      <c r="J178" s="26"/>
+      <c r="K178" s="26"/>
+      <c r="L178" s="26"/>
+      <c r="M178" s="26"/>
+      <c r="N178" s="16"/>
+      <c r="O178" s="16"/>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A179" s="15"/>
+      <c r="B179" s="17"/>
+      <c r="C179" s="18"/>
+      <c r="D179" s="18"/>
+      <c r="E179" s="18"/>
+      <c r="F179" s="18"/>
+      <c r="G179" s="18"/>
+      <c r="H179" s="18"/>
+      <c r="I179" s="18"/>
+      <c r="J179" s="18"/>
+      <c r="K179" s="18"/>
+      <c r="L179" s="18"/>
+      <c r="M179" s="18"/>
+      <c r="N179" s="19"/>
+      <c r="O179" s="16"/>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A180" s="17"/>
+      <c r="B180" s="18"/>
+      <c r="C180" s="18"/>
+      <c r="D180" s="18"/>
+      <c r="E180" s="18"/>
+      <c r="F180" s="18"/>
+      <c r="G180" s="18"/>
+      <c r="H180" s="18"/>
+      <c r="I180" s="18"/>
+      <c r="J180" s="18"/>
+      <c r="K180" s="18"/>
+      <c r="L180" s="18"/>
+      <c r="M180" s="18"/>
+      <c r="N180" s="18"/>
+      <c r="O180" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/1.Lap-trinh-python/9.Cac-van-de-mo-rong.xlsx
+++ b/me/1.Lap-trinh-python/9.Cac-van-de-mo-rong.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vudinhquang/Documents/quang/python/me/1.Lap-trinh-python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708F54A1-E51D-C44E-9645-83F6F7328DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1DAD6C-00CD-A54B-B2DF-D62A561C63D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="920" windowWidth="33800" windowHeight="18400" activeTab="3" xr2:uid="{472041F3-94B6-BA44-8755-3BBFF041A0A3}"/>
+    <workbookView xWindow="960" yWindow="880" windowWidth="33800" windowHeight="18400" activeTab="4" xr2:uid="{472041F3-94B6-BA44-8755-3BBFF041A0A3}"/>
   </bookViews>
   <sheets>
     <sheet name="name" sheetId="1" r:id="rId1"/>
     <sheet name="Local - global" sheetId="2" r:id="rId2"/>
     <sheet name="Re 01" sheetId="3" r:id="rId3"/>
     <sheet name="Re 02" sheetId="4" r:id="rId4"/>
+    <sheet name="Exe 16 - axb" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="181">
   <si>
     <t>構成</t>
   </si>
@@ -412,9 +413,6 @@
     <t>python3 03_re_01.py</t>
   </si>
   <si>
-    <t>Kiểm tra xem pattern có ở đầu chuỗi text hay không</t>
-  </si>
-  <si>
     <t>text    = "123 abc xabc 456"</t>
   </si>
   <si>
@@ -521,13 +519,116 @@
   </si>
   <si>
     <t>03_re_05.py</t>
+  </si>
+  <si>
+    <t>python/exe/exe_16_axb.py</t>
+  </si>
+  <si>
+    <t>exe_16_axb.py</t>
+  </si>
+  <si>
+    <t># Input     : Kiểm tra mẫu chuỗi bất kỳ có thỏa mãn: Bắt đầu bằng a và kết thúc bằng b</t>
+  </si>
+  <si>
+    <t># Output    : Match hoặc Not match</t>
+  </si>
+  <si>
+    <t># python regular expression match vs search</t>
+  </si>
+  <si>
+    <t>import re</t>
+  </si>
+  <si>
+    <t>def checkAxB(text):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    patterns = '^a.*b$'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if re.match(patterns,  text):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return 'Match!'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    else:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return('Not match!')</t>
+  </si>
+  <si>
+    <t>print(checkAxB("ab"))</t>
+  </si>
+  <si>
+    <t>print(checkAxB("1ab"))</t>
+  </si>
+  <si>
+    <t>print(checkAxB("ab1"))</t>
+  </si>
+  <si>
+    <t>print(checkAxB("1ab1"))</t>
+  </si>
+  <si>
+    <t>print(checkAxB("adsdsdasda1231321b"))</t>
+  </si>
+  <si>
+    <t>python3 exe_16_axb.py</t>
+  </si>
+  <si>
+    <t>Bắt đầu là a và kết thúc là b</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">search() kiểm tra chuỗi text có </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>chứa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pattern hay không</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra xem pattern có ở </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>đầu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> chuỗi text hay không. So sánh từ ngay vị trí bắt đầu</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -556,6 +657,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="3">
@@ -688,7 +794,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -717,6 +823,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1716,6 +1823,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>79790</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>46544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>641133</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>39896</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C04ADB3-01FA-5476-98A2-6E9E8F9BA050}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="904293" y="22308115"/>
+          <a:ext cx="8806369" cy="1436231"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4268,8 +4424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF812D9-6BE9-D24E-A2E0-24511D7FDF00}">
   <dimension ref="A3:O182"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView topLeftCell="A82" zoomScale="125" workbookViewId="0">
+      <selection activeCell="M98" sqref="M98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4872,7 +5028,7 @@
       <c r="B55" s="5"/>
       <c r="C55" s="1"/>
       <c r="D55" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="6"/>
@@ -5263,7 +5419,7 @@
     <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="15"/>
       <c r="B90" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H90" s="16"/>
       <c r="N90" s="16"/>
@@ -5286,7 +5442,7 @@
         <v>71</v>
       </c>
       <c r="J92" t="s">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="N92" s="16"/>
       <c r="O92" s="16"/>
@@ -5312,7 +5468,7 @@
     <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="15"/>
       <c r="B95" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H95" s="16"/>
       <c r="N95" s="16"/>
@@ -5419,7 +5575,7 @@
     <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="15"/>
       <c r="B109" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C109" s="13"/>
       <c r="D109" s="13"/>
@@ -5475,7 +5631,7 @@
     <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="15"/>
       <c r="B114" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H114" s="16"/>
       <c r="L114" s="16"/>
@@ -5484,7 +5640,7 @@
     <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="15"/>
       <c r="B115" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H115" s="16"/>
       <c r="L115" s="16"/>
@@ -5527,7 +5683,7 @@
     <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="15"/>
       <c r="B120" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H120" s="16"/>
       <c r="L120" s="16"/>
@@ -5661,7 +5817,7 @@
     <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="15"/>
       <c r="B135" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C135" s="13"/>
       <c r="D135" s="13"/>
@@ -5717,7 +5873,7 @@
     <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="15"/>
       <c r="B140" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H140" s="16"/>
       <c r="L140" s="16"/>
@@ -5726,7 +5882,7 @@
     <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="15"/>
       <c r="B141" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H141" s="16"/>
       <c r="L141" s="16"/>
@@ -5769,7 +5925,7 @@
     <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="15"/>
       <c r="B146" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H146" s="16"/>
       <c r="L146" s="16"/>
@@ -5911,7 +6067,7 @@
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B162" s="13"/>
       <c r="C162" s="13"/>
@@ -5946,21 +6102,21 @@
     <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" s="15"/>
       <c r="B165" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E165" s="16"/>
       <c r="F165" t="s">
         <v>71</v>
       </c>
       <c r="G165" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N165" s="16"/>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" s="15"/>
       <c r="B166" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E166" s="16"/>
       <c r="N166" s="16"/>
@@ -6006,7 +6162,7 @@
     <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" s="15"/>
       <c r="B172" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E172" s="16"/>
       <c r="N172" s="16"/>
@@ -6030,7 +6186,7 @@
     <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" s="15"/>
       <c r="B176" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C176" s="13"/>
       <c r="D176" s="13"/>
@@ -6111,8 +6267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE7EA81-C65D-AE43-BEF4-A04FBFABC41A}">
   <dimension ref="A3:P180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" zoomScale="150" workbookViewId="0">
-      <selection activeCell="L65" sqref="L65"/>
+    <sheetView topLeftCell="A81" zoomScale="150" workbookViewId="0">
+      <selection activeCell="K89" sqref="K89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6711,7 +6867,7 @@
       <c r="B55" s="5"/>
       <c r="C55" s="1"/>
       <c r="D55" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="6"/>
@@ -6721,7 +6877,7 @@
       <c r="B56" s="5"/>
       <c r="C56" s="1"/>
       <c r="D56" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="6"/>
@@ -6737,7 +6893,7 @@
       <c r="B57" s="5"/>
       <c r="C57" s="1"/>
       <c r="D57" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="6"/>
@@ -6753,7 +6909,7 @@
       <c r="B58" s="5"/>
       <c r="C58" s="1"/>
       <c r="D58" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="6"/>
@@ -7057,7 +7213,7 @@
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
@@ -7145,7 +7301,7 @@
     <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" s="15"/>
       <c r="B93" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H93" s="16"/>
       <c r="N93" s="16"/>
@@ -7154,7 +7310,7 @@
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" s="15"/>
       <c r="B94" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H94" s="16"/>
       <c r="N94" s="16"/>
@@ -7170,23 +7326,29 @@
     <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" s="15"/>
       <c r="B96" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H96" s="16"/>
+      <c r="I96" t="s">
+        <v>71</v>
+      </c>
+      <c r="J96" t="s">
+        <v>179</v>
+      </c>
       <c r="N96" s="16"/>
       <c r="P96" s="16"/>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" s="15"/>
       <c r="B97" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H97" s="16"/>
       <c r="I97" t="s">
         <v>71</v>
       </c>
       <c r="J97" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N97" s="16"/>
       <c r="P97" s="16"/>
@@ -7203,7 +7365,7 @@
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" s="15"/>
       <c r="B99" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H99" s="16"/>
       <c r="N99" s="16"/>
@@ -7236,7 +7398,7 @@
     <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" s="15"/>
       <c r="B103" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C103" s="13"/>
       <c r="D103" s="13"/>
@@ -7325,7 +7487,7 @@
     <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" s="15"/>
       <c r="B112" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C112" s="13"/>
       <c r="D112" s="13"/>
@@ -7384,7 +7546,7 @@
     <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" s="15"/>
       <c r="B117" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H117" s="16"/>
       <c r="O117" s="16"/>
@@ -7393,7 +7555,7 @@
     <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" s="15"/>
       <c r="B118" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H118" s="16"/>
       <c r="O118" s="16"/>
@@ -7402,7 +7564,7 @@
     <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" s="15"/>
       <c r="B119" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H119" s="16"/>
       <c r="O119" s="16"/>
@@ -7418,7 +7580,7 @@
     <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" s="15"/>
       <c r="B121" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H121" s="16"/>
       <c r="O121" s="16"/>
@@ -7427,7 +7589,7 @@
     <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" s="15"/>
       <c r="B122" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H122" s="16"/>
       <c r="O122" s="16"/>
@@ -7445,7 +7607,7 @@
     <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" s="15"/>
       <c r="B124" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H124" s="16"/>
       <c r="O124" s="16"/>
@@ -7478,7 +7640,7 @@
     <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" s="15"/>
       <c r="B128" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C128" s="13"/>
       <c r="D128" s="13"/>
@@ -7586,7 +7748,7 @@
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B139" s="13"/>
       <c r="C139" s="13"/>
@@ -7622,7 +7784,7 @@
     <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" s="15"/>
       <c r="B142" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F142" s="16"/>
       <c r="N142" s="16"/>
@@ -7630,7 +7792,7 @@
     <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" s="15"/>
       <c r="B143" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F143" s="16"/>
       <c r="N143" s="16"/>
@@ -7644,14 +7806,14 @@
     <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" s="15"/>
       <c r="B145" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F145" s="16"/>
       <c r="G145" t="s">
         <v>71</v>
       </c>
       <c r="H145" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N145" s="16"/>
     </row>
@@ -7682,7 +7844,7 @@
     <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" s="15"/>
       <c r="B149" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F149" s="16"/>
       <c r="N149" s="16"/>
@@ -7707,7 +7869,7 @@
     <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" s="15"/>
       <c r="B153" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C153" s="13"/>
       <c r="D153" s="13"/>
@@ -7780,7 +7942,7 @@
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B162" s="13"/>
       <c r="C162" s="13"/>
@@ -7805,133 +7967,62 @@
       <c r="C163" s="13"/>
       <c r="D163" s="13"/>
       <c r="E163" s="14"/>
-      <c r="F163" s="26"/>
-      <c r="G163" s="26"/>
-      <c r="H163" s="26"/>
-      <c r="I163" s="26"/>
-      <c r="J163" s="26"/>
-      <c r="K163" s="26"/>
-      <c r="L163" s="26"/>
-      <c r="M163" s="26"/>
-      <c r="N163" s="26"/>
       <c r="O163" s="16"/>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="15"/>
       <c r="B164" s="15"/>
-      <c r="C164" s="26"/>
-      <c r="D164" s="26"/>
       <c r="E164" s="16"/>
-      <c r="F164" s="26"/>
-      <c r="G164" s="26"/>
-      <c r="H164" s="26"/>
-      <c r="I164" s="26"/>
-      <c r="J164" s="26"/>
-      <c r="K164" s="26"/>
-      <c r="L164" s="26"/>
-      <c r="M164" s="26"/>
-      <c r="N164" s="26"/>
       <c r="O164" s="16"/>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="15"/>
       <c r="B165" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="C165" s="26"/>
-      <c r="D165" s="26"/>
+        <v>152</v>
+      </c>
       <c r="E165" s="16"/>
-      <c r="F165" s="26" t="s">
+      <c r="F165" t="s">
         <v>71</v>
       </c>
-      <c r="G165" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="H165" s="26"/>
-      <c r="I165" s="26"/>
-      <c r="J165" s="26"/>
-      <c r="K165" s="26"/>
-      <c r="L165" s="26"/>
-      <c r="M165" s="26"/>
-      <c r="N165" s="26"/>
+      <c r="G165" t="s">
+        <v>158</v>
+      </c>
       <c r="O165" s="16"/>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="15"/>
       <c r="B166" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="C166" s="26"/>
-      <c r="D166" s="26"/>
+        <v>153</v>
+      </c>
       <c r="E166" s="16"/>
-      <c r="F166" s="26"/>
-      <c r="G166" s="26"/>
-      <c r="H166" s="26"/>
-      <c r="I166" s="26"/>
-      <c r="J166" s="26"/>
-      <c r="K166" s="26"/>
-      <c r="L166" s="26"/>
-      <c r="M166" s="26"/>
-      <c r="N166" s="26"/>
       <c r="O166" s="16"/>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="15"/>
       <c r="B167" s="15"/>
-      <c r="C167" s="26"/>
-      <c r="D167" s="26"/>
       <c r="E167" s="16"/>
-      <c r="F167" s="26"/>
-      <c r="G167" s="26"/>
-      <c r="H167" s="26"/>
-      <c r="I167" s="26"/>
-      <c r="J167" s="26"/>
-      <c r="K167" s="26"/>
-      <c r="L167" s="26"/>
-      <c r="M167" s="26"/>
-      <c r="N167" s="26"/>
       <c r="O167" s="16"/>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="15"/>
       <c r="B168" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="C168" s="26"/>
-      <c r="D168" s="26"/>
+        <v>154</v>
+      </c>
       <c r="E168" s="16"/>
-      <c r="F168" s="26" t="s">
+      <c r="F168" t="s">
         <v>71</v>
       </c>
-      <c r="G168" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="H168" s="26"/>
-      <c r="I168" s="26"/>
-      <c r="J168" s="26"/>
-      <c r="K168" s="26"/>
-      <c r="L168" s="26"/>
-      <c r="M168" s="26"/>
-      <c r="N168" s="26"/>
+      <c r="G168" t="s">
+        <v>157</v>
+      </c>
       <c r="O168" s="16"/>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" s="15"/>
       <c r="B169" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="C169" s="26"/>
-      <c r="D169" s="26"/>
+        <v>155</v>
+      </c>
       <c r="E169" s="16"/>
-      <c r="F169" s="26"/>
-      <c r="G169" s="26"/>
-      <c r="H169" s="26"/>
-      <c r="I169" s="26"/>
-      <c r="J169" s="26"/>
-      <c r="K169" s="26"/>
-      <c r="L169" s="26"/>
-      <c r="M169" s="26"/>
-      <c r="N169" s="26"/>
       <c r="O169" s="16"/>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.2">
@@ -7940,55 +8031,20 @@
       <c r="C170" s="18"/>
       <c r="D170" s="18"/>
       <c r="E170" s="19"/>
-      <c r="F170" s="26"/>
-      <c r="G170" s="26"/>
-      <c r="H170" s="26"/>
-      <c r="I170" s="26"/>
-      <c r="J170" s="26"/>
-      <c r="K170" s="26"/>
-      <c r="L170" s="26"/>
-      <c r="M170" s="26"/>
-      <c r="N170" s="26"/>
       <c r="O170" s="16"/>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="15"/>
-      <c r="B171" s="26"/>
-      <c r="C171" s="26"/>
-      <c r="D171" s="26"/>
-      <c r="E171" s="26"/>
-      <c r="F171" s="26"/>
-      <c r="G171" s="26"/>
-      <c r="H171" s="26"/>
-      <c r="I171" s="26"/>
-      <c r="J171" s="26"/>
-      <c r="K171" s="26"/>
-      <c r="L171" s="26"/>
-      <c r="M171" s="26"/>
-      <c r="N171" s="26"/>
       <c r="O171" s="16"/>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="15"/>
-      <c r="B172" s="26"/>
-      <c r="C172" s="26"/>
-      <c r="D172" s="26"/>
-      <c r="E172" s="26"/>
-      <c r="F172" s="26"/>
-      <c r="G172" s="26"/>
-      <c r="H172" s="26"/>
-      <c r="I172" s="26"/>
-      <c r="J172" s="26"/>
-      <c r="K172" s="26"/>
-      <c r="L172" s="26"/>
-      <c r="M172" s="26"/>
-      <c r="N172" s="26"/>
       <c r="O172" s="16"/>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="15"/>
       <c r="B173" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C173" s="13"/>
       <c r="D173" s="13"/>
@@ -8007,85 +8063,30 @@
     <row r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="15"/>
       <c r="B174" s="15"/>
-      <c r="C174" s="26"/>
-      <c r="D174" s="26"/>
-      <c r="E174" s="26"/>
-      <c r="F174" s="26"/>
-      <c r="G174" s="26"/>
-      <c r="H174" s="26"/>
-      <c r="I174" s="26"/>
-      <c r="J174" s="26"/>
-      <c r="K174" s="26"/>
-      <c r="L174" s="26"/>
-      <c r="M174" s="26"/>
       <c r="N174" s="16"/>
       <c r="O174" s="16"/>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="15"/>
       <c r="B175" s="15"/>
-      <c r="C175" s="26"/>
-      <c r="D175" s="26"/>
-      <c r="E175" s="26"/>
-      <c r="F175" s="26"/>
-      <c r="G175" s="26"/>
-      <c r="H175" s="26"/>
-      <c r="I175" s="26"/>
-      <c r="J175" s="26"/>
-      <c r="K175" s="26"/>
-      <c r="L175" s="26"/>
-      <c r="M175" s="26"/>
       <c r="N175" s="16"/>
       <c r="O175" s="16"/>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="15"/>
       <c r="B176" s="15"/>
-      <c r="C176" s="26"/>
-      <c r="D176" s="26"/>
-      <c r="E176" s="26"/>
-      <c r="F176" s="26"/>
-      <c r="G176" s="26"/>
-      <c r="H176" s="26"/>
-      <c r="I176" s="26"/>
-      <c r="J176" s="26"/>
-      <c r="K176" s="26"/>
-      <c r="L176" s="26"/>
-      <c r="M176" s="26"/>
       <c r="N176" s="16"/>
       <c r="O176" s="16"/>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" s="15"/>
       <c r="B177" s="15"/>
-      <c r="C177" s="26"/>
-      <c r="D177" s="26"/>
-      <c r="E177" s="26"/>
-      <c r="F177" s="26"/>
-      <c r="G177" s="26"/>
-      <c r="H177" s="26"/>
-      <c r="I177" s="26"/>
-      <c r="J177" s="26"/>
-      <c r="K177" s="26"/>
-      <c r="L177" s="26"/>
-      <c r="M177" s="26"/>
       <c r="N177" s="16"/>
       <c r="O177" s="16"/>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" s="15"/>
       <c r="B178" s="15"/>
-      <c r="C178" s="26"/>
-      <c r="D178" s="26"/>
-      <c r="E178" s="26"/>
-      <c r="F178" s="26"/>
-      <c r="G178" s="26"/>
-      <c r="H178" s="26"/>
-      <c r="I178" s="26"/>
-      <c r="J178" s="26"/>
-      <c r="K178" s="26"/>
-      <c r="L178" s="26"/>
-      <c r="M178" s="26"/>
       <c r="N178" s="16"/>
       <c r="O178" s="16"/>
     </row>
@@ -8127,4 +8128,1402 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44DAD38-D54D-9F45-8003-4333ED54CE92}">
+  <dimension ref="A3:M117"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="191" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="1"/>
+      <c r="D34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="1"/>
+      <c r="D35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="1"/>
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="5"/>
+      <c r="C38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="5"/>
+      <c r="D39" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5"/>
+      <c r="D40" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5"/>
+      <c r="D41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="1"/>
+      <c r="D43" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="1"/>
+      <c r="D44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="1"/>
+      <c r="D45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="1"/>
+      <c r="D46" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="1"/>
+      <c r="D47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="1"/>
+      <c r="D48" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="1"/>
+      <c r="D49" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="1"/>
+      <c r="D50" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="1"/>
+      <c r="D52" t="s">
+        <v>74</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="1"/>
+      <c r="D53" t="s">
+        <v>93</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="1"/>
+      <c r="D54" t="s">
+        <v>111</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="1"/>
+      <c r="D55" t="s">
+        <v>130</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="6"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="1"/>
+      <c r="D59" t="s">
+        <v>75</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
+      <c r="B60" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="1"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="1"/>
+      <c r="D62" t="s">
+        <v>50</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="1"/>
+      <c r="D63" t="s">
+        <v>51</v>
+      </c>
+      <c r="E63" s="1"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="1"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="1"/>
+      <c r="D64" t="s">
+        <v>52</v>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="6"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="1"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="1"/>
+      <c r="D65" t="s">
+        <v>53</v>
+      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="1"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="1"/>
+      <c r="D66" t="s">
+        <v>54</v>
+      </c>
+      <c r="E66" s="1"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="1"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="1"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="1"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="1"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="1"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="1"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="1"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="1"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="1"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="1"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="1"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="1"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="1"/>
+      <c r="B80" s="5"/>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="6"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A81" s="1"/>
+      <c r="B81" s="5"/>
+      <c r="C81" t="s">
+        <v>69</v>
+      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A82" s="1"/>
+      <c r="B82" s="5"/>
+      <c r="C82" t="s">
+        <v>70</v>
+      </c>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="6"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A83" s="1"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H83" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A84" s="1"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="1"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A87" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="13"/>
+      <c r="I87" s="13"/>
+      <c r="J87" s="13"/>
+      <c r="K87" s="13"/>
+      <c r="L87" s="13"/>
+      <c r="M87" s="14"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A88" s="15"/>
+      <c r="B88" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="27"/>
+      <c r="J88" s="27"/>
+      <c r="K88" s="27"/>
+      <c r="L88" s="27"/>
+      <c r="M88" s="16"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A89" s="15"/>
+      <c r="B89" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C89" s="27"/>
+      <c r="D89" s="27"/>
+      <c r="E89" s="27"/>
+      <c r="F89" s="27"/>
+      <c r="G89" s="27"/>
+      <c r="H89" s="16"/>
+      <c r="I89" s="27"/>
+      <c r="J89" s="27"/>
+      <c r="K89" s="27"/>
+      <c r="L89" s="27"/>
+      <c r="M89" s="16"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A90" s="15"/>
+      <c r="B90" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C90" s="27"/>
+      <c r="D90" s="27"/>
+      <c r="E90" s="27"/>
+      <c r="F90" s="27"/>
+      <c r="G90" s="27"/>
+      <c r="H90" s="16"/>
+      <c r="I90" s="27"/>
+      <c r="J90" s="27"/>
+      <c r="K90" s="27"/>
+      <c r="L90" s="27"/>
+      <c r="M90" s="16"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A91" s="15"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="27"/>
+      <c r="E91" s="27"/>
+      <c r="F91" s="27"/>
+      <c r="G91" s="27"/>
+      <c r="H91" s="16"/>
+      <c r="I91" s="27"/>
+      <c r="J91" s="27"/>
+      <c r="K91" s="27"/>
+      <c r="L91" s="27"/>
+      <c r="M91" s="16"/>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A92" s="15"/>
+      <c r="B92" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C92" s="27"/>
+      <c r="D92" s="27"/>
+      <c r="E92" s="27"/>
+      <c r="F92" s="27"/>
+      <c r="G92" s="27"/>
+      <c r="H92" s="16"/>
+      <c r="I92" s="27"/>
+      <c r="J92" s="27"/>
+      <c r="K92" s="27"/>
+      <c r="L92" s="27"/>
+      <c r="M92" s="16"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A93" s="15"/>
+      <c r="B93" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C93" s="27"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="27"/>
+      <c r="F93" s="27"/>
+      <c r="G93" s="27"/>
+      <c r="H93" s="16"/>
+      <c r="I93" s="27"/>
+      <c r="J93" s="27"/>
+      <c r="K93" s="27"/>
+      <c r="L93" s="27"/>
+      <c r="M93" s="16"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A94" s="15"/>
+      <c r="B94" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C94" s="27"/>
+      <c r="D94" s="27"/>
+      <c r="E94" s="27"/>
+      <c r="F94" s="27"/>
+      <c r="G94" s="27"/>
+      <c r="H94" s="16"/>
+      <c r="I94" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="J94" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="K94" s="27"/>
+      <c r="L94" s="27"/>
+      <c r="M94" s="16"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A95" s="15"/>
+      <c r="B95" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C95" s="27"/>
+      <c r="D95" s="27"/>
+      <c r="E95" s="27"/>
+      <c r="F95" s="27"/>
+      <c r="G95" s="27"/>
+      <c r="H95" s="16"/>
+      <c r="I95" s="27"/>
+      <c r="J95" s="27"/>
+      <c r="K95" s="27"/>
+      <c r="L95" s="27"/>
+      <c r="M95" s="16"/>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A96" s="15"/>
+      <c r="B96" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C96" s="27"/>
+      <c r="D96" s="27"/>
+      <c r="E96" s="27"/>
+      <c r="F96" s="27"/>
+      <c r="G96" s="27"/>
+      <c r="H96" s="16"/>
+      <c r="I96" s="27"/>
+      <c r="J96" s="27"/>
+      <c r="K96" s="27"/>
+      <c r="L96" s="27"/>
+      <c r="M96" s="16"/>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A97" s="15"/>
+      <c r="B97" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C97" s="27"/>
+      <c r="D97" s="27"/>
+      <c r="E97" s="27"/>
+      <c r="F97" s="27"/>
+      <c r="G97" s="27"/>
+      <c r="H97" s="16"/>
+      <c r="I97" s="27"/>
+      <c r="J97" s="27"/>
+      <c r="K97" s="27"/>
+      <c r="L97" s="27"/>
+      <c r="M97" s="16"/>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A98" s="15"/>
+      <c r="B98" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C98" s="27"/>
+      <c r="D98" s="27"/>
+      <c r="E98" s="27"/>
+      <c r="F98" s="27"/>
+      <c r="G98" s="27"/>
+      <c r="H98" s="16"/>
+      <c r="I98" s="27"/>
+      <c r="J98" s="27"/>
+      <c r="K98" s="27"/>
+      <c r="L98" s="27"/>
+      <c r="M98" s="16"/>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A99" s="15"/>
+      <c r="B99" s="15"/>
+      <c r="C99" s="27"/>
+      <c r="D99" s="27"/>
+      <c r="E99" s="27"/>
+      <c r="F99" s="27"/>
+      <c r="G99" s="27"/>
+      <c r="H99" s="16"/>
+      <c r="I99" s="27"/>
+      <c r="J99" s="27"/>
+      <c r="K99" s="27"/>
+      <c r="L99" s="27"/>
+      <c r="M99" s="16"/>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A100" s="15"/>
+      <c r="B100" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C100" s="27"/>
+      <c r="D100" s="27"/>
+      <c r="E100" s="27"/>
+      <c r="F100" s="27"/>
+      <c r="G100" s="27"/>
+      <c r="H100" s="16"/>
+      <c r="I100" s="27"/>
+      <c r="J100" s="27"/>
+      <c r="K100" s="27"/>
+      <c r="L100" s="27"/>
+      <c r="M100" s="16"/>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A101" s="15"/>
+      <c r="B101" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C101" s="27"/>
+      <c r="D101" s="27"/>
+      <c r="E101" s="27"/>
+      <c r="F101" s="27"/>
+      <c r="G101" s="27"/>
+      <c r="H101" s="16"/>
+      <c r="I101" s="27"/>
+      <c r="J101" s="27"/>
+      <c r="K101" s="27"/>
+      <c r="L101" s="27"/>
+      <c r="M101" s="16"/>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A102" s="15"/>
+      <c r="B102" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C102" s="27"/>
+      <c r="D102" s="27"/>
+      <c r="E102" s="27"/>
+      <c r="F102" s="27"/>
+      <c r="G102" s="27"/>
+      <c r="H102" s="16"/>
+      <c r="I102" s="27"/>
+      <c r="J102" s="27"/>
+      <c r="K102" s="27"/>
+      <c r="L102" s="27"/>
+      <c r="M102" s="16"/>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A103" s="15"/>
+      <c r="B103" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C103" s="27"/>
+      <c r="D103" s="27"/>
+      <c r="E103" s="27"/>
+      <c r="F103" s="27"/>
+      <c r="G103" s="27"/>
+      <c r="H103" s="16"/>
+      <c r="I103" s="27"/>
+      <c r="J103" s="27"/>
+      <c r="K103" s="27"/>
+      <c r="L103" s="27"/>
+      <c r="M103" s="16"/>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A104" s="15"/>
+      <c r="B104" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C104" s="27"/>
+      <c r="D104" s="27"/>
+      <c r="E104" s="27"/>
+      <c r="F104" s="27"/>
+      <c r="G104" s="27"/>
+      <c r="H104" s="16"/>
+      <c r="I104" s="27"/>
+      <c r="J104" s="27"/>
+      <c r="K104" s="27"/>
+      <c r="L104" s="27"/>
+      <c r="M104" s="16"/>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A105" s="15"/>
+      <c r="B105" s="17"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="18"/>
+      <c r="E105" s="18"/>
+      <c r="F105" s="18"/>
+      <c r="G105" s="18"/>
+      <c r="H105" s="19"/>
+      <c r="I105" s="27"/>
+      <c r="J105" s="27"/>
+      <c r="K105" s="27"/>
+      <c r="L105" s="27"/>
+      <c r="M105" s="16"/>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A106" s="15"/>
+      <c r="B106" s="27"/>
+      <c r="C106" s="27"/>
+      <c r="D106" s="27"/>
+      <c r="E106" s="27"/>
+      <c r="F106" s="27"/>
+      <c r="G106" s="27"/>
+      <c r="H106" s="27"/>
+      <c r="I106" s="27"/>
+      <c r="J106" s="27"/>
+      <c r="K106" s="27"/>
+      <c r="L106" s="27"/>
+      <c r="M106" s="16"/>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A107" s="15"/>
+      <c r="B107" s="27"/>
+      <c r="C107" s="27"/>
+      <c r="D107" s="27"/>
+      <c r="E107" s="27"/>
+      <c r="F107" s="27"/>
+      <c r="G107" s="27"/>
+      <c r="H107" s="27"/>
+      <c r="I107" s="27"/>
+      <c r="J107" s="27"/>
+      <c r="K107" s="27"/>
+      <c r="L107" s="27"/>
+      <c r="M107" s="16"/>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A108" s="15"/>
+      <c r="B108" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C108" s="13"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="13"/>
+      <c r="F108" s="13"/>
+      <c r="G108" s="13"/>
+      <c r="H108" s="13"/>
+      <c r="I108" s="13"/>
+      <c r="J108" s="13"/>
+      <c r="K108" s="13"/>
+      <c r="L108" s="14"/>
+      <c r="M108" s="16"/>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A109" s="15"/>
+      <c r="B109" s="15"/>
+      <c r="C109" s="27"/>
+      <c r="D109" s="27"/>
+      <c r="E109" s="27"/>
+      <c r="F109" s="27"/>
+      <c r="G109" s="27"/>
+      <c r="H109" s="27"/>
+      <c r="I109" s="27"/>
+      <c r="J109" s="27"/>
+      <c r="K109" s="27"/>
+      <c r="L109" s="16"/>
+      <c r="M109" s="16"/>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A110" s="15"/>
+      <c r="B110" s="15"/>
+      <c r="C110" s="27"/>
+      <c r="D110" s="27"/>
+      <c r="E110" s="27"/>
+      <c r="F110" s="27"/>
+      <c r="G110" s="27"/>
+      <c r="H110" s="27"/>
+      <c r="I110" s="27"/>
+      <c r="J110" s="27"/>
+      <c r="K110" s="27"/>
+      <c r="L110" s="16"/>
+      <c r="M110" s="16"/>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A111" s="15"/>
+      <c r="B111" s="15"/>
+      <c r="C111" s="27"/>
+      <c r="D111" s="27"/>
+      <c r="E111" s="27"/>
+      <c r="F111" s="27"/>
+      <c r="G111" s="27"/>
+      <c r="H111" s="27"/>
+      <c r="I111" s="27"/>
+      <c r="J111" s="27"/>
+      <c r="K111" s="27"/>
+      <c r="L111" s="16"/>
+      <c r="M111" s="16"/>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A112" s="15"/>
+      <c r="B112" s="15"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="27"/>
+      <c r="E112" s="27"/>
+      <c r="F112" s="27"/>
+      <c r="G112" s="27"/>
+      <c r="H112" s="27"/>
+      <c r="I112" s="27"/>
+      <c r="J112" s="27"/>
+      <c r="K112" s="27"/>
+      <c r="L112" s="16"/>
+      <c r="M112" s="16"/>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A113" s="15"/>
+      <c r="B113" s="15"/>
+      <c r="C113" s="27"/>
+      <c r="D113" s="27"/>
+      <c r="E113" s="27"/>
+      <c r="F113" s="27"/>
+      <c r="G113" s="27"/>
+      <c r="H113" s="27"/>
+      <c r="I113" s="27"/>
+      <c r="J113" s="27"/>
+      <c r="K113" s="27"/>
+      <c r="L113" s="16"/>
+      <c r="M113" s="16"/>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A114" s="15"/>
+      <c r="B114" s="15"/>
+      <c r="C114" s="27"/>
+      <c r="D114" s="27"/>
+      <c r="E114" s="27"/>
+      <c r="F114" s="27"/>
+      <c r="G114" s="27"/>
+      <c r="H114" s="27"/>
+      <c r="I114" s="27"/>
+      <c r="J114" s="27"/>
+      <c r="K114" s="27"/>
+      <c r="L114" s="16"/>
+      <c r="M114" s="16"/>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A115" s="15"/>
+      <c r="B115" s="15"/>
+      <c r="C115" s="27"/>
+      <c r="D115" s="27"/>
+      <c r="E115" s="27"/>
+      <c r="F115" s="27"/>
+      <c r="G115" s="27"/>
+      <c r="H115" s="27"/>
+      <c r="I115" s="27"/>
+      <c r="J115" s="27"/>
+      <c r="K115" s="27"/>
+      <c r="L115" s="16"/>
+      <c r="M115" s="16"/>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A116" s="15"/>
+      <c r="B116" s="17"/>
+      <c r="C116" s="18"/>
+      <c r="D116" s="18"/>
+      <c r="E116" s="18"/>
+      <c r="F116" s="18"/>
+      <c r="G116" s="18"/>
+      <c r="H116" s="18"/>
+      <c r="I116" s="18"/>
+      <c r="J116" s="18"/>
+      <c r="K116" s="18"/>
+      <c r="L116" s="19"/>
+      <c r="M116" s="16"/>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A117" s="17"/>
+      <c r="B117" s="18"/>
+      <c r="C117" s="18"/>
+      <c r="D117" s="18"/>
+      <c r="E117" s="18"/>
+      <c r="F117" s="18"/>
+      <c r="G117" s="18"/>
+      <c r="H117" s="18"/>
+      <c r="I117" s="18"/>
+      <c r="J117" s="18"/>
+      <c r="K117" s="18"/>
+      <c r="L117" s="18"/>
+      <c r="M117" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/1.Lap-trinh-python/9.Cac-van-de-mo-rong.xlsx
+++ b/me/1.Lap-trinh-python/9.Cac-van-de-mo-rong.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vudinhquang/Documents/quang/python/me/1.Lap-trinh-python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1DAD6C-00CD-A54B-B2DF-D62A561C63D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFA057D-FD60-6649-8DCD-962AD7254D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="880" windowWidth="33800" windowHeight="18400" activeTab="4" xr2:uid="{472041F3-94B6-BA44-8755-3BBFF041A0A3}"/>
+    <workbookView xWindow="960" yWindow="820" windowWidth="33800" windowHeight="18400" activeTab="5" xr2:uid="{472041F3-94B6-BA44-8755-3BBFF041A0A3}"/>
   </bookViews>
   <sheets>
     <sheet name="name" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Re 01" sheetId="3" r:id="rId3"/>
     <sheet name="Re 02" sheetId="4" r:id="rId4"/>
     <sheet name="Exe 16 - axb" sheetId="5" r:id="rId5"/>
+    <sheet name="Exe 17 - Find number" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="194">
   <si>
     <t>構成</t>
   </si>
@@ -623,12 +624,93 @@
       <t xml:space="preserve"> chuỗi text hay không. So sánh từ ngay vị trí bắt đầu</t>
     </r>
   </si>
+  <si>
+    <t>exe_17_find_number.py</t>
+  </si>
+  <si>
+    <t>python/exe/exe_17_find_number.py</t>
+  </si>
+  <si>
+    <t># Input     : Lấy các giá trị số trong một chuỗi và đưa vào 1 list</t>
+  </si>
+  <si>
+    <t># Output    : [1,2,10]</t>
+  </si>
+  <si>
+    <t># Ví dụ     : Exercises number 1, 12, 13, and 345 are important</t>
+  </si>
+  <si>
+    <t># Ví dụ     : [1, 12, 13, 345]</t>
+  </si>
+  <si>
+    <t>text    = "Exercises number 19, 12, 13, and 345 are important"</t>
+  </si>
+  <si>
+    <t>listResult = []</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    listResult.append(int(n.group()) )</t>
+  </si>
+  <si>
+    <t>print(listResult)</t>
+  </si>
+  <si>
+    <t>python3 exe_17_find_number.py</t>
+  </si>
+  <si>
+    <t>for n in re.finditer("[0-9]{1,}", text)::</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">span là chỉ số xuất hiện của của </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>123 abc xabc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">. Để lấy được giá trị </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">123 abc xabc </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">thì mình cần dùng phương thức </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>group()</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -661,6 +743,11 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
@@ -1872,6 +1959,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>67733</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>257210</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>33867</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5529D0B-DB5B-2A37-0C94-F9FEE7AA69DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="905932" y="21403733"/>
+          <a:ext cx="10137811" cy="982134"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4424,8 +4560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF812D9-6BE9-D24E-A2E0-24511D7FDF00}">
   <dimension ref="A3:O182"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" zoomScale="125" workbookViewId="0">
-      <selection activeCell="M98" sqref="M98"/>
+    <sheetView topLeftCell="C110" zoomScale="125" workbookViewId="0">
+      <selection activeCell="R136" sqref="R136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5767,6 +5903,12 @@
       <c r="B129" s="15"/>
       <c r="K129" s="16"/>
       <c r="L129" s="16"/>
+      <c r="M129" t="s">
+        <v>71</v>
+      </c>
+      <c r="N129" t="s">
+        <v>193</v>
+      </c>
       <c r="O129" s="16"/>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.2">
@@ -8134,8 +8276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44DAD38-D54D-9F45-8003-4333ED54CE92}">
   <dimension ref="A3:M117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="191" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91"/>
+    <sheetView zoomScale="191" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8706,7 +8848,7 @@
       <c r="A56" s="1"/>
       <c r="B56" s="5"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="26" t="s">
+      <c r="D56" t="s">
         <v>137</v>
       </c>
       <c r="E56" s="1"/>
@@ -8717,7 +8859,7 @@
       <c r="A57" s="1"/>
       <c r="B57" s="5"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="26" t="s">
+      <c r="D57" t="s">
         <v>144</v>
       </c>
       <c r="E57" s="1"/>
@@ -8728,7 +8870,7 @@
       <c r="A58" s="1"/>
       <c r="B58" s="5"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="26" t="s">
+      <c r="D58" t="s">
         <v>159</v>
       </c>
       <c r="E58" s="1"/>
@@ -9047,10 +9189,6 @@
       <c r="F88" s="13"/>
       <c r="G88" s="13"/>
       <c r="H88" s="14"/>
-      <c r="I88" s="27"/>
-      <c r="J88" s="27"/>
-      <c r="K88" s="27"/>
-      <c r="L88" s="27"/>
       <c r="M88" s="16"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
@@ -9058,16 +9196,7 @@
       <c r="B89" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="C89" s="27"/>
-      <c r="D89" s="27"/>
-      <c r="E89" s="27"/>
-      <c r="F89" s="27"/>
-      <c r="G89" s="27"/>
       <c r="H89" s="16"/>
-      <c r="I89" s="27"/>
-      <c r="J89" s="27"/>
-      <c r="K89" s="27"/>
-      <c r="L89" s="27"/>
       <c r="M89" s="16"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
@@ -9075,31 +9204,13 @@
       <c r="B90" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="C90" s="27"/>
-      <c r="D90" s="27"/>
-      <c r="E90" s="27"/>
-      <c r="F90" s="27"/>
-      <c r="G90" s="27"/>
       <c r="H90" s="16"/>
-      <c r="I90" s="27"/>
-      <c r="J90" s="27"/>
-      <c r="K90" s="27"/>
-      <c r="L90" s="27"/>
       <c r="M90" s="16"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" s="15"/>
       <c r="B91" s="15"/>
-      <c r="C91" s="27"/>
-      <c r="D91" s="27"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="27"/>
-      <c r="G91" s="27"/>
       <c r="H91" s="16"/>
-      <c r="I91" s="27"/>
-      <c r="J91" s="27"/>
-      <c r="K91" s="27"/>
-      <c r="L91" s="27"/>
       <c r="M91" s="16"/>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
@@ -9107,16 +9218,7 @@
       <c r="B92" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C92" s="27"/>
-      <c r="D92" s="27"/>
-      <c r="E92" s="27"/>
-      <c r="F92" s="27"/>
-      <c r="G92" s="27"/>
       <c r="H92" s="16"/>
-      <c r="I92" s="27"/>
-      <c r="J92" s="27"/>
-      <c r="K92" s="27"/>
-      <c r="L92" s="27"/>
       <c r="M92" s="16"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
@@ -9124,16 +9226,7 @@
       <c r="B93" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="C93" s="27"/>
-      <c r="D93" s="27"/>
-      <c r="E93" s="27"/>
-      <c r="F93" s="27"/>
-      <c r="G93" s="27"/>
       <c r="H93" s="16"/>
-      <c r="I93" s="27"/>
-      <c r="J93" s="27"/>
-      <c r="K93" s="27"/>
-      <c r="L93" s="27"/>
       <c r="M93" s="16"/>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
@@ -9141,20 +9234,13 @@
       <c r="B94" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="C94" s="27"/>
-      <c r="D94" s="27"/>
-      <c r="E94" s="27"/>
-      <c r="F94" s="27"/>
-      <c r="G94" s="27"/>
       <c r="H94" s="16"/>
-      <c r="I94" s="27" t="s">
+      <c r="I94" t="s">
         <v>71</v>
       </c>
-      <c r="J94" s="27" t="s">
+      <c r="J94" t="s">
         <v>178</v>
       </c>
-      <c r="K94" s="27"/>
-      <c r="L94" s="27"/>
       <c r="M94" s="16"/>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
@@ -9162,16 +9248,7 @@
       <c r="B95" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="C95" s="27"/>
-      <c r="D95" s="27"/>
-      <c r="E95" s="27"/>
-      <c r="F95" s="27"/>
-      <c r="G95" s="27"/>
       <c r="H95" s="16"/>
-      <c r="I95" s="27"/>
-      <c r="J95" s="27"/>
-      <c r="K95" s="27"/>
-      <c r="L95" s="27"/>
       <c r="M95" s="16"/>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
@@ -9179,16 +9256,7 @@
       <c r="B96" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="C96" s="27"/>
-      <c r="D96" s="27"/>
-      <c r="E96" s="27"/>
-      <c r="F96" s="27"/>
-      <c r="G96" s="27"/>
       <c r="H96" s="16"/>
-      <c r="I96" s="27"/>
-      <c r="J96" s="27"/>
-      <c r="K96" s="27"/>
-      <c r="L96" s="27"/>
       <c r="M96" s="16"/>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
@@ -9196,16 +9264,7 @@
       <c r="B97" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C97" s="27"/>
-      <c r="D97" s="27"/>
-      <c r="E97" s="27"/>
-      <c r="F97" s="27"/>
-      <c r="G97" s="27"/>
       <c r="H97" s="16"/>
-      <c r="I97" s="27"/>
-      <c r="J97" s="27"/>
-      <c r="K97" s="27"/>
-      <c r="L97" s="27"/>
       <c r="M97" s="16"/>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
@@ -9213,31 +9272,13 @@
       <c r="B98" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="C98" s="27"/>
-      <c r="D98" s="27"/>
-      <c r="E98" s="27"/>
-      <c r="F98" s="27"/>
-      <c r="G98" s="27"/>
       <c r="H98" s="16"/>
-      <c r="I98" s="27"/>
-      <c r="J98" s="27"/>
-      <c r="K98" s="27"/>
-      <c r="L98" s="27"/>
       <c r="M98" s="16"/>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" s="15"/>
       <c r="B99" s="15"/>
-      <c r="C99" s="27"/>
-      <c r="D99" s="27"/>
-      <c r="E99" s="27"/>
-      <c r="F99" s="27"/>
-      <c r="G99" s="27"/>
       <c r="H99" s="16"/>
-      <c r="I99" s="27"/>
-      <c r="J99" s="27"/>
-      <c r="K99" s="27"/>
-      <c r="L99" s="27"/>
       <c r="M99" s="16"/>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
@@ -9245,16 +9286,7 @@
       <c r="B100" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="C100" s="27"/>
-      <c r="D100" s="27"/>
-      <c r="E100" s="27"/>
-      <c r="F100" s="27"/>
-      <c r="G100" s="27"/>
       <c r="H100" s="16"/>
-      <c r="I100" s="27"/>
-      <c r="J100" s="27"/>
-      <c r="K100" s="27"/>
-      <c r="L100" s="27"/>
       <c r="M100" s="16"/>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
@@ -9262,16 +9294,7 @@
       <c r="B101" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C101" s="27"/>
-      <c r="D101" s="27"/>
-      <c r="E101" s="27"/>
-      <c r="F101" s="27"/>
-      <c r="G101" s="27"/>
       <c r="H101" s="16"/>
-      <c r="I101" s="27"/>
-      <c r="J101" s="27"/>
-      <c r="K101" s="27"/>
-      <c r="L101" s="27"/>
       <c r="M101" s="16"/>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.2">
@@ -9279,16 +9302,7 @@
       <c r="B102" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="C102" s="27"/>
-      <c r="D102" s="27"/>
-      <c r="E102" s="27"/>
-      <c r="F102" s="27"/>
-      <c r="G102" s="27"/>
       <c r="H102" s="16"/>
-      <c r="I102" s="27"/>
-      <c r="J102" s="27"/>
-      <c r="K102" s="27"/>
-      <c r="L102" s="27"/>
       <c r="M102" s="16"/>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
@@ -9296,16 +9310,7 @@
       <c r="B103" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="C103" s="27"/>
-      <c r="D103" s="27"/>
-      <c r="E103" s="27"/>
-      <c r="F103" s="27"/>
-      <c r="G103" s="27"/>
       <c r="H103" s="16"/>
-      <c r="I103" s="27"/>
-      <c r="J103" s="27"/>
-      <c r="K103" s="27"/>
-      <c r="L103" s="27"/>
       <c r="M103" s="16"/>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
@@ -9313,16 +9318,7 @@
       <c r="B104" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="C104" s="27"/>
-      <c r="D104" s="27"/>
-      <c r="E104" s="27"/>
-      <c r="F104" s="27"/>
-      <c r="G104" s="27"/>
       <c r="H104" s="16"/>
-      <c r="I104" s="27"/>
-      <c r="J104" s="27"/>
-      <c r="K104" s="27"/>
-      <c r="L104" s="27"/>
       <c r="M104" s="16"/>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
@@ -9334,40 +9330,14 @@
       <c r="F105" s="18"/>
       <c r="G105" s="18"/>
       <c r="H105" s="19"/>
-      <c r="I105" s="27"/>
-      <c r="J105" s="27"/>
-      <c r="K105" s="27"/>
-      <c r="L105" s="27"/>
       <c r="M105" s="16"/>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="15"/>
-      <c r="B106" s="27"/>
-      <c r="C106" s="27"/>
-      <c r="D106" s="27"/>
-      <c r="E106" s="27"/>
-      <c r="F106" s="27"/>
-      <c r="G106" s="27"/>
-      <c r="H106" s="27"/>
-      <c r="I106" s="27"/>
-      <c r="J106" s="27"/>
-      <c r="K106" s="27"/>
-      <c r="L106" s="27"/>
       <c r="M106" s="16"/>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" s="15"/>
-      <c r="B107" s="27"/>
-      <c r="C107" s="27"/>
-      <c r="D107" s="27"/>
-      <c r="E107" s="27"/>
-      <c r="F107" s="27"/>
-      <c r="G107" s="27"/>
-      <c r="H107" s="27"/>
-      <c r="I107" s="27"/>
-      <c r="J107" s="27"/>
-      <c r="K107" s="27"/>
-      <c r="L107" s="27"/>
       <c r="M107" s="16"/>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
@@ -9390,105 +9360,42 @@
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" s="15"/>
       <c r="B109" s="15"/>
-      <c r="C109" s="27"/>
-      <c r="D109" s="27"/>
-      <c r="E109" s="27"/>
-      <c r="F109" s="27"/>
-      <c r="G109" s="27"/>
-      <c r="H109" s="27"/>
-      <c r="I109" s="27"/>
-      <c r="J109" s="27"/>
-      <c r="K109" s="27"/>
       <c r="L109" s="16"/>
       <c r="M109" s="16"/>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" s="15"/>
       <c r="B110" s="15"/>
-      <c r="C110" s="27"/>
-      <c r="D110" s="27"/>
-      <c r="E110" s="27"/>
-      <c r="F110" s="27"/>
-      <c r="G110" s="27"/>
-      <c r="H110" s="27"/>
-      <c r="I110" s="27"/>
-      <c r="J110" s="27"/>
-      <c r="K110" s="27"/>
       <c r="L110" s="16"/>
       <c r="M110" s="16"/>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" s="15"/>
       <c r="B111" s="15"/>
-      <c r="C111" s="27"/>
-      <c r="D111" s="27"/>
-      <c r="E111" s="27"/>
-      <c r="F111" s="27"/>
-      <c r="G111" s="27"/>
-      <c r="H111" s="27"/>
-      <c r="I111" s="27"/>
-      <c r="J111" s="27"/>
-      <c r="K111" s="27"/>
       <c r="L111" s="16"/>
       <c r="M111" s="16"/>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" s="15"/>
       <c r="B112" s="15"/>
-      <c r="C112" s="27"/>
-      <c r="D112" s="27"/>
-      <c r="E112" s="27"/>
-      <c r="F112" s="27"/>
-      <c r="G112" s="27"/>
-      <c r="H112" s="27"/>
-      <c r="I112" s="27"/>
-      <c r="J112" s="27"/>
-      <c r="K112" s="27"/>
       <c r="L112" s="16"/>
       <c r="M112" s="16"/>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" s="15"/>
       <c r="B113" s="15"/>
-      <c r="C113" s="27"/>
-      <c r="D113" s="27"/>
-      <c r="E113" s="27"/>
-      <c r="F113" s="27"/>
-      <c r="G113" s="27"/>
-      <c r="H113" s="27"/>
-      <c r="I113" s="27"/>
-      <c r="J113" s="27"/>
-      <c r="K113" s="27"/>
       <c r="L113" s="16"/>
       <c r="M113" s="16"/>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" s="15"/>
       <c r="B114" s="15"/>
-      <c r="C114" s="27"/>
-      <c r="D114" s="27"/>
-      <c r="E114" s="27"/>
-      <c r="F114" s="27"/>
-      <c r="G114" s="27"/>
-      <c r="H114" s="27"/>
-      <c r="I114" s="27"/>
-      <c r="J114" s="27"/>
-      <c r="K114" s="27"/>
       <c r="L114" s="16"/>
       <c r="M114" s="16"/>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" s="15"/>
       <c r="B115" s="15"/>
-      <c r="C115" s="27"/>
-      <c r="D115" s="27"/>
-      <c r="E115" s="27"/>
-      <c r="F115" s="27"/>
-      <c r="G115" s="27"/>
-      <c r="H115" s="27"/>
-      <c r="I115" s="27"/>
-      <c r="J115" s="27"/>
-      <c r="K115" s="27"/>
       <c r="L115" s="16"/>
       <c r="M115" s="16"/>
     </row>
@@ -9526,4 +9433,1358 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F8EFF0-244C-3247-9FA3-E2853E03B0E8}">
+  <dimension ref="A3:O112"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H92" sqref="H92"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="1"/>
+      <c r="D34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="1"/>
+      <c r="D35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="1"/>
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="5"/>
+      <c r="C38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="5"/>
+      <c r="D39" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5"/>
+      <c r="D40" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5"/>
+      <c r="D41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="1"/>
+      <c r="D43" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="1"/>
+      <c r="D44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="1"/>
+      <c r="D45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="1"/>
+      <c r="D46" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="1"/>
+      <c r="D47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="1"/>
+      <c r="D48" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="1"/>
+      <c r="D49" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="1"/>
+      <c r="D50" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="1"/>
+      <c r="D52" t="s">
+        <v>74</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="1"/>
+      <c r="D53" t="s">
+        <v>93</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="1"/>
+      <c r="D54" t="s">
+        <v>111</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="1"/>
+      <c r="D55" t="s">
+        <v>130</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="1"/>
+      <c r="D56" t="s">
+        <v>137</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="1"/>
+      <c r="D57" t="s">
+        <v>144</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="1"/>
+      <c r="D58" t="s">
+        <v>159</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="6"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="1"/>
+      <c r="D59" t="s">
+        <v>75</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
+      <c r="B60" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="1"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="1"/>
+      <c r="D62" t="s">
+        <v>50</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="1"/>
+      <c r="D63" t="s">
+        <v>51</v>
+      </c>
+      <c r="E63" s="1"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="1"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="1"/>
+      <c r="D64" t="s">
+        <v>52</v>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="6"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="1"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="1"/>
+      <c r="D65" t="s">
+        <v>53</v>
+      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="1"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="1"/>
+      <c r="D66" t="s">
+        <v>54</v>
+      </c>
+      <c r="E66" s="1"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="1"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="1"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="1"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="1"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="1"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="1"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="1"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="1"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="1"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="1"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="1"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="1"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="1"/>
+      <c r="B80" s="5"/>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="6"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A81" s="1"/>
+      <c r="B81" s="5"/>
+      <c r="C81" t="s">
+        <v>69</v>
+      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A82" s="1"/>
+      <c r="B82" s="5"/>
+      <c r="C82" t="s">
+        <v>70</v>
+      </c>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="6"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A83" s="1"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="6"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A84" s="1"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H84" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A85" s="1"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="1"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A88" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B88" s="13"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="13"/>
+      <c r="I88" s="13"/>
+      <c r="J88" s="13"/>
+      <c r="K88" s="13"/>
+      <c r="L88" s="13"/>
+      <c r="M88" s="13"/>
+      <c r="N88" s="13"/>
+      <c r="O88" s="14"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A89" s="15"/>
+      <c r="B89" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="27"/>
+      <c r="H89" s="27"/>
+      <c r="I89" s="27"/>
+      <c r="J89" s="27"/>
+      <c r="K89" s="27"/>
+      <c r="L89" s="27"/>
+      <c r="M89" s="27"/>
+      <c r="N89" s="27"/>
+      <c r="O89" s="16"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A90" s="15"/>
+      <c r="B90" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="C90" s="27"/>
+      <c r="D90" s="27"/>
+      <c r="E90" s="27"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="27"/>
+      <c r="H90" s="27"/>
+      <c r="I90" s="27"/>
+      <c r="J90" s="27"/>
+      <c r="K90" s="27"/>
+      <c r="L90" s="27"/>
+      <c r="M90" s="27"/>
+      <c r="N90" s="27"/>
+      <c r="O90" s="16"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A91" s="15"/>
+      <c r="B91" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C91" s="27"/>
+      <c r="D91" s="27"/>
+      <c r="E91" s="27"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="27"/>
+      <c r="H91" s="27"/>
+      <c r="I91" s="27"/>
+      <c r="J91" s="27"/>
+      <c r="K91" s="27"/>
+      <c r="L91" s="27"/>
+      <c r="M91" s="27"/>
+      <c r="N91" s="27"/>
+      <c r="O91" s="16"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A92" s="15"/>
+      <c r="B92" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="C92" s="27"/>
+      <c r="D92" s="27"/>
+      <c r="E92" s="27"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="27"/>
+      <c r="H92" s="27"/>
+      <c r="I92" s="27"/>
+      <c r="J92" s="27"/>
+      <c r="K92" s="27"/>
+      <c r="L92" s="27"/>
+      <c r="M92" s="27"/>
+      <c r="N92" s="27"/>
+      <c r="O92" s="16"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A93" s="15"/>
+      <c r="B93" s="15"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="27"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="27"/>
+      <c r="H93" s="27"/>
+      <c r="I93" s="27"/>
+      <c r="J93" s="27"/>
+      <c r="K93" s="27"/>
+      <c r="L93" s="27"/>
+      <c r="M93" s="27"/>
+      <c r="N93" s="27"/>
+      <c r="O93" s="16"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A94" s="15"/>
+      <c r="B94" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C94" s="27"/>
+      <c r="D94" s="27"/>
+      <c r="E94" s="27"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="27"/>
+      <c r="H94" s="27"/>
+      <c r="I94" s="27"/>
+      <c r="J94" s="27"/>
+      <c r="K94" s="27"/>
+      <c r="L94" s="27"/>
+      <c r="M94" s="27"/>
+      <c r="N94" s="27"/>
+      <c r="O94" s="16"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A95" s="15"/>
+      <c r="B95" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="C95" s="27"/>
+      <c r="D95" s="27"/>
+      <c r="E95" s="27"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="27"/>
+      <c r="H95" s="27"/>
+      <c r="I95" s="27"/>
+      <c r="J95" s="27"/>
+      <c r="K95" s="27"/>
+      <c r="L95" s="27"/>
+      <c r="M95" s="27"/>
+      <c r="N95" s="27"/>
+      <c r="O95" s="16"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A96" s="15"/>
+      <c r="B96" s="15"/>
+      <c r="C96" s="27"/>
+      <c r="D96" s="27"/>
+      <c r="E96" s="27"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="27"/>
+      <c r="H96" s="27"/>
+      <c r="I96" s="27"/>
+      <c r="J96" s="27"/>
+      <c r="K96" s="27"/>
+      <c r="L96" s="27"/>
+      <c r="M96" s="27"/>
+      <c r="N96" s="27"/>
+      <c r="O96" s="16"/>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A97" s="15"/>
+      <c r="B97" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C97" s="27"/>
+      <c r="D97" s="27"/>
+      <c r="E97" s="27"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="27"/>
+      <c r="H97" s="27"/>
+      <c r="I97" s="27"/>
+      <c r="J97" s="27"/>
+      <c r="K97" s="27"/>
+      <c r="L97" s="27"/>
+      <c r="M97" s="27"/>
+      <c r="N97" s="27"/>
+      <c r="O97" s="16"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A98" s="15"/>
+      <c r="B98" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C98" s="27"/>
+      <c r="D98" s="27"/>
+      <c r="E98" s="27"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="27"/>
+      <c r="H98" s="27"/>
+      <c r="I98" s="27"/>
+      <c r="J98" s="27"/>
+      <c r="K98" s="27"/>
+      <c r="L98" s="27"/>
+      <c r="M98" s="27"/>
+      <c r="N98" s="27"/>
+      <c r="O98" s="16"/>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A99" s="15"/>
+      <c r="B99" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="C99" s="27"/>
+      <c r="D99" s="27"/>
+      <c r="E99" s="27"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="27"/>
+      <c r="H99" s="27"/>
+      <c r="I99" s="27"/>
+      <c r="J99" s="27"/>
+      <c r="K99" s="27"/>
+      <c r="L99" s="27"/>
+      <c r="M99" s="27"/>
+      <c r="N99" s="27"/>
+      <c r="O99" s="16"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A100" s="15"/>
+      <c r="B100" s="15"/>
+      <c r="C100" s="27"/>
+      <c r="D100" s="27"/>
+      <c r="E100" s="27"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="27"/>
+      <c r="H100" s="27"/>
+      <c r="I100" s="27"/>
+      <c r="J100" s="27"/>
+      <c r="K100" s="27"/>
+      <c r="L100" s="27"/>
+      <c r="M100" s="27"/>
+      <c r="N100" s="27"/>
+      <c r="O100" s="16"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A101" s="15"/>
+      <c r="B101" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C101" s="27"/>
+      <c r="D101" s="27"/>
+      <c r="E101" s="27"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="27"/>
+      <c r="H101" s="27"/>
+      <c r="I101" s="27"/>
+      <c r="J101" s="27"/>
+      <c r="K101" s="27"/>
+      <c r="L101" s="27"/>
+      <c r="M101" s="27"/>
+      <c r="N101" s="27"/>
+      <c r="O101" s="16"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A102" s="15"/>
+      <c r="B102" s="17"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="18"/>
+      <c r="F102" s="19"/>
+      <c r="G102" s="27"/>
+      <c r="H102" s="27"/>
+      <c r="I102" s="27"/>
+      <c r="J102" s="27"/>
+      <c r="K102" s="27"/>
+      <c r="L102" s="27"/>
+      <c r="M102" s="27"/>
+      <c r="N102" s="27"/>
+      <c r="O102" s="16"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A103" s="15"/>
+      <c r="B103" s="27"/>
+      <c r="C103" s="27"/>
+      <c r="D103" s="27"/>
+      <c r="E103" s="27"/>
+      <c r="F103" s="27"/>
+      <c r="G103" s="27"/>
+      <c r="H103" s="27"/>
+      <c r="I103" s="27"/>
+      <c r="J103" s="27"/>
+      <c r="K103" s="27"/>
+      <c r="L103" s="27"/>
+      <c r="M103" s="27"/>
+      <c r="N103" s="27"/>
+      <c r="O103" s="16"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A104" s="15"/>
+      <c r="B104" s="27"/>
+      <c r="C104" s="27"/>
+      <c r="D104" s="27"/>
+      <c r="E104" s="27"/>
+      <c r="F104" s="27"/>
+      <c r="G104" s="27"/>
+      <c r="H104" s="27"/>
+      <c r="I104" s="27"/>
+      <c r="J104" s="27"/>
+      <c r="K104" s="27"/>
+      <c r="L104" s="27"/>
+      <c r="M104" s="27"/>
+      <c r="N104" s="27"/>
+      <c r="O104" s="16"/>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A105" s="15"/>
+      <c r="B105" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C105" s="13"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="13"/>
+      <c r="F105" s="13"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="13"/>
+      <c r="I105" s="13"/>
+      <c r="J105" s="13"/>
+      <c r="K105" s="13"/>
+      <c r="L105" s="13"/>
+      <c r="M105" s="13"/>
+      <c r="N105" s="14"/>
+      <c r="O105" s="16"/>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A106" s="15"/>
+      <c r="B106" s="15"/>
+      <c r="C106" s="27"/>
+      <c r="D106" s="27"/>
+      <c r="E106" s="27"/>
+      <c r="F106" s="27"/>
+      <c r="G106" s="27"/>
+      <c r="H106" s="27"/>
+      <c r="I106" s="27"/>
+      <c r="J106" s="27"/>
+      <c r="K106" s="27"/>
+      <c r="L106" s="27"/>
+      <c r="M106" s="27"/>
+      <c r="N106" s="16"/>
+      <c r="O106" s="16"/>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A107" s="15"/>
+      <c r="B107" s="15"/>
+      <c r="C107" s="27"/>
+      <c r="D107" s="27"/>
+      <c r="E107" s="27"/>
+      <c r="F107" s="27"/>
+      <c r="G107" s="27"/>
+      <c r="H107" s="27"/>
+      <c r="I107" s="27"/>
+      <c r="J107" s="27"/>
+      <c r="K107" s="27"/>
+      <c r="L107" s="27"/>
+      <c r="M107" s="27"/>
+      <c r="N107" s="16"/>
+      <c r="O107" s="16"/>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A108" s="15"/>
+      <c r="B108" s="15"/>
+      <c r="C108" s="27"/>
+      <c r="D108" s="27"/>
+      <c r="E108" s="27"/>
+      <c r="F108" s="27"/>
+      <c r="G108" s="27"/>
+      <c r="H108" s="27"/>
+      <c r="I108" s="27"/>
+      <c r="J108" s="27"/>
+      <c r="K108" s="27"/>
+      <c r="L108" s="27"/>
+      <c r="M108" s="27"/>
+      <c r="N108" s="16"/>
+      <c r="O108" s="16"/>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A109" s="15"/>
+      <c r="B109" s="15"/>
+      <c r="C109" s="27"/>
+      <c r="D109" s="27"/>
+      <c r="E109" s="27"/>
+      <c r="F109" s="27"/>
+      <c r="G109" s="27"/>
+      <c r="H109" s="27"/>
+      <c r="I109" s="27"/>
+      <c r="J109" s="27"/>
+      <c r="K109" s="27"/>
+      <c r="L109" s="27"/>
+      <c r="M109" s="27"/>
+      <c r="N109" s="16"/>
+      <c r="O109" s="16"/>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A110" s="15"/>
+      <c r="B110" s="15"/>
+      <c r="C110" s="27"/>
+      <c r="D110" s="27"/>
+      <c r="E110" s="27"/>
+      <c r="F110" s="27"/>
+      <c r="G110" s="27"/>
+      <c r="H110" s="27"/>
+      <c r="I110" s="27"/>
+      <c r="J110" s="27"/>
+      <c r="K110" s="27"/>
+      <c r="L110" s="27"/>
+      <c r="M110" s="27"/>
+      <c r="N110" s="16"/>
+      <c r="O110" s="16"/>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A111" s="15"/>
+      <c r="B111" s="17"/>
+      <c r="C111" s="18"/>
+      <c r="D111" s="18"/>
+      <c r="E111" s="18"/>
+      <c r="F111" s="18"/>
+      <c r="G111" s="18"/>
+      <c r="H111" s="18"/>
+      <c r="I111" s="18"/>
+      <c r="J111" s="18"/>
+      <c r="K111" s="18"/>
+      <c r="L111" s="18"/>
+      <c r="M111" s="18"/>
+      <c r="N111" s="19"/>
+      <c r="O111" s="16"/>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A112" s="17"/>
+      <c r="B112" s="18"/>
+      <c r="C112" s="18"/>
+      <c r="D112" s="18"/>
+      <c r="E112" s="18"/>
+      <c r="F112" s="18"/>
+      <c r="G112" s="18"/>
+      <c r="H112" s="18"/>
+      <c r="I112" s="18"/>
+      <c r="J112" s="18"/>
+      <c r="K112" s="18"/>
+      <c r="L112" s="18"/>
+      <c r="M112" s="18"/>
+      <c r="N112" s="18"/>
+      <c r="O112" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/1.Lap-trinh-python/9.Cac-van-de-mo-rong.xlsx
+++ b/me/1.Lap-trinh-python/9.Cac-van-de-mo-rong.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vudinhquang/Documents/quang/python/me/1.Lap-trinh-python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFA057D-FD60-6649-8DCD-962AD7254D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E4CAF1-F33D-4D46-9B6C-A7422F5187C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="820" windowWidth="33800" windowHeight="18400" activeTab="5" xr2:uid="{472041F3-94B6-BA44-8755-3BBFF041A0A3}"/>
+    <workbookView xWindow="1120" yWindow="1400" windowWidth="33800" windowHeight="18000" activeTab="6" xr2:uid="{472041F3-94B6-BA44-8755-3BBFF041A0A3}"/>
   </bookViews>
   <sheets>
     <sheet name="name" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Re 02" sheetId="4" r:id="rId4"/>
     <sheet name="Exe 16 - axb" sheetId="5" r:id="rId5"/>
     <sheet name="Exe 17 - Find number" sheetId="6" r:id="rId6"/>
+    <sheet name="Exe 18 - street" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="210">
   <si>
     <t>構成</t>
   </si>
@@ -704,6 +705,104 @@
       </rPr>
       <t>group()</t>
     </r>
+  </si>
+  <si>
+    <t>exe_18_street.py</t>
+  </si>
+  <si>
+    <t>python/exe/exe_18_street.py</t>
+  </si>
+  <si>
+    <t># Input     : Chuỗi địa chỉ kết thúc với từ street</t>
+  </si>
+  <si>
+    <t># Output    : thay từ street thành st.</t>
+  </si>
+  <si>
+    <t># Ví dụ     : 21 To Hien Thanh street</t>
+  </si>
+  <si>
+    <t># Ví dụ     : 21 To Hien Thanh sTREet</t>
+  </si>
+  <si>
+    <t># Ví dụ     : 21 To Hien Thanh st.</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>python3 exe_18_street.py</t>
+  </si>
+  <si>
+    <t>Trường hợp có chữ in hoa thì vẫn tự động thay thế được</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">inputText = '21 To Hien Thanh </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>street</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">inputText = '21 To Hien Thanh </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>strEet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">21 To Hien Thanh </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>st.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">flags= re.I </t>
+  </si>
+  <si>
+    <t>Không phân biệt hoa và thường</t>
+  </si>
+  <si>
+    <t>result  = re.sub('street$', 'st.', inputText, flags= re.I) # flags=re.I</t>
   </si>
 </sst>
 </file>
@@ -2008,6 +2107,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>92235</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>78044</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>149207</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>35475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C22F5841-164A-8A7B-046D-61FE699A4887}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="915252" y="22299497"/>
+          <a:ext cx="9110156" cy="986201"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -9439,8 +9587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F8EFF0-244C-3247-9FA3-E2853E03B0E8}">
   <dimension ref="A3:O112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H92" sqref="H92"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10302,7 +10450,7 @@
     <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="5"/>
-      <c r="C83" s="26" t="s">
+      <c r="C83" t="s">
         <v>161</v>
       </c>
       <c r="D83" s="1"/>
@@ -10362,14 +10510,6 @@
       <c r="D89" s="13"/>
       <c r="E89" s="13"/>
       <c r="F89" s="14"/>
-      <c r="G89" s="27"/>
-      <c r="H89" s="27"/>
-      <c r="I89" s="27"/>
-      <c r="J89" s="27"/>
-      <c r="K89" s="27"/>
-      <c r="L89" s="27"/>
-      <c r="M89" s="27"/>
-      <c r="N89" s="27"/>
       <c r="O89" s="16"/>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.2">
@@ -10377,18 +10517,7 @@
       <c r="B90" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="C90" s="27"/>
-      <c r="D90" s="27"/>
-      <c r="E90" s="27"/>
       <c r="F90" s="16"/>
-      <c r="G90" s="27"/>
-      <c r="H90" s="27"/>
-      <c r="I90" s="27"/>
-      <c r="J90" s="27"/>
-      <c r="K90" s="27"/>
-      <c r="L90" s="27"/>
-      <c r="M90" s="27"/>
-      <c r="N90" s="27"/>
       <c r="O90" s="16"/>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.2">
@@ -10396,18 +10525,7 @@
       <c r="B91" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="C91" s="27"/>
-      <c r="D91" s="27"/>
-      <c r="E91" s="27"/>
       <c r="F91" s="16"/>
-      <c r="G91" s="27"/>
-      <c r="H91" s="27"/>
-      <c r="I91" s="27"/>
-      <c r="J91" s="27"/>
-      <c r="K91" s="27"/>
-      <c r="L91" s="27"/>
-      <c r="M91" s="27"/>
-      <c r="N91" s="27"/>
       <c r="O91" s="16"/>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.2">
@@ -10415,35 +10533,13 @@
       <c r="B92" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="C92" s="27"/>
-      <c r="D92" s="27"/>
-      <c r="E92" s="27"/>
       <c r="F92" s="16"/>
-      <c r="G92" s="27"/>
-      <c r="H92" s="27"/>
-      <c r="I92" s="27"/>
-      <c r="J92" s="27"/>
-      <c r="K92" s="27"/>
-      <c r="L92" s="27"/>
-      <c r="M92" s="27"/>
-      <c r="N92" s="27"/>
       <c r="O92" s="16"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="15"/>
       <c r="B93" s="15"/>
-      <c r="C93" s="27"/>
-      <c r="D93" s="27"/>
-      <c r="E93" s="27"/>
       <c r="F93" s="16"/>
-      <c r="G93" s="27"/>
-      <c r="H93" s="27"/>
-      <c r="I93" s="27"/>
-      <c r="J93" s="27"/>
-      <c r="K93" s="27"/>
-      <c r="L93" s="27"/>
-      <c r="M93" s="27"/>
-      <c r="N93" s="27"/>
       <c r="O93" s="16"/>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.2">
@@ -10451,18 +10547,7 @@
       <c r="B94" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C94" s="27"/>
-      <c r="D94" s="27"/>
-      <c r="E94" s="27"/>
       <c r="F94" s="16"/>
-      <c r="G94" s="27"/>
-      <c r="H94" s="27"/>
-      <c r="I94" s="27"/>
-      <c r="J94" s="27"/>
-      <c r="K94" s="27"/>
-      <c r="L94" s="27"/>
-      <c r="M94" s="27"/>
-      <c r="N94" s="27"/>
       <c r="O94" s="16"/>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.2">
@@ -10470,35 +10555,13 @@
       <c r="B95" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="C95" s="27"/>
-      <c r="D95" s="27"/>
-      <c r="E95" s="27"/>
       <c r="F95" s="16"/>
-      <c r="G95" s="27"/>
-      <c r="H95" s="27"/>
-      <c r="I95" s="27"/>
-      <c r="J95" s="27"/>
-      <c r="K95" s="27"/>
-      <c r="L95" s="27"/>
-      <c r="M95" s="27"/>
-      <c r="N95" s="27"/>
       <c r="O95" s="16"/>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="15"/>
       <c r="B96" s="15"/>
-      <c r="C96" s="27"/>
-      <c r="D96" s="27"/>
-      <c r="E96" s="27"/>
       <c r="F96" s="16"/>
-      <c r="G96" s="27"/>
-      <c r="H96" s="27"/>
-      <c r="I96" s="27"/>
-      <c r="J96" s="27"/>
-      <c r="K96" s="27"/>
-      <c r="L96" s="27"/>
-      <c r="M96" s="27"/>
-      <c r="N96" s="27"/>
       <c r="O96" s="16"/>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.2">
@@ -10506,18 +10569,7 @@
       <c r="B97" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="C97" s="27"/>
-      <c r="D97" s="27"/>
-      <c r="E97" s="27"/>
       <c r="F97" s="16"/>
-      <c r="G97" s="27"/>
-      <c r="H97" s="27"/>
-      <c r="I97" s="27"/>
-      <c r="J97" s="27"/>
-      <c r="K97" s="27"/>
-      <c r="L97" s="27"/>
-      <c r="M97" s="27"/>
-      <c r="N97" s="27"/>
       <c r="O97" s="16"/>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.2">
@@ -10525,18 +10577,7 @@
       <c r="B98" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="C98" s="27"/>
-      <c r="D98" s="27"/>
-      <c r="E98" s="27"/>
       <c r="F98" s="16"/>
-      <c r="G98" s="27"/>
-      <c r="H98" s="27"/>
-      <c r="I98" s="27"/>
-      <c r="J98" s="27"/>
-      <c r="K98" s="27"/>
-      <c r="L98" s="27"/>
-      <c r="M98" s="27"/>
-      <c r="N98" s="27"/>
       <c r="O98" s="16"/>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.2">
@@ -10544,35 +10585,13 @@
       <c r="B99" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="C99" s="27"/>
-      <c r="D99" s="27"/>
-      <c r="E99" s="27"/>
       <c r="F99" s="16"/>
-      <c r="G99" s="27"/>
-      <c r="H99" s="27"/>
-      <c r="I99" s="27"/>
-      <c r="J99" s="27"/>
-      <c r="K99" s="27"/>
-      <c r="L99" s="27"/>
-      <c r="M99" s="27"/>
-      <c r="N99" s="27"/>
       <c r="O99" s="16"/>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="15"/>
       <c r="B100" s="15"/>
-      <c r="C100" s="27"/>
-      <c r="D100" s="27"/>
-      <c r="E100" s="27"/>
       <c r="F100" s="16"/>
-      <c r="G100" s="27"/>
-      <c r="H100" s="27"/>
-      <c r="I100" s="27"/>
-      <c r="J100" s="27"/>
-      <c r="K100" s="27"/>
-      <c r="L100" s="27"/>
-      <c r="M100" s="27"/>
-      <c r="N100" s="27"/>
       <c r="O100" s="16"/>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.2">
@@ -10580,18 +10599,7 @@
       <c r="B101" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="C101" s="27"/>
-      <c r="D101" s="27"/>
-      <c r="E101" s="27"/>
       <c r="F101" s="16"/>
-      <c r="G101" s="27"/>
-      <c r="H101" s="27"/>
-      <c r="I101" s="27"/>
-      <c r="J101" s="27"/>
-      <c r="K101" s="27"/>
-      <c r="L101" s="27"/>
-      <c r="M101" s="27"/>
-      <c r="N101" s="27"/>
       <c r="O101" s="16"/>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.2">
@@ -10601,48 +10609,14 @@
       <c r="D102" s="18"/>
       <c r="E102" s="18"/>
       <c r="F102" s="19"/>
-      <c r="G102" s="27"/>
-      <c r="H102" s="27"/>
-      <c r="I102" s="27"/>
-      <c r="J102" s="27"/>
-      <c r="K102" s="27"/>
-      <c r="L102" s="27"/>
-      <c r="M102" s="27"/>
-      <c r="N102" s="27"/>
       <c r="O102" s="16"/>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="15"/>
-      <c r="B103" s="27"/>
-      <c r="C103" s="27"/>
-      <c r="D103" s="27"/>
-      <c r="E103" s="27"/>
-      <c r="F103" s="27"/>
-      <c r="G103" s="27"/>
-      <c r="H103" s="27"/>
-      <c r="I103" s="27"/>
-      <c r="J103" s="27"/>
-      <c r="K103" s="27"/>
-      <c r="L103" s="27"/>
-      <c r="M103" s="27"/>
-      <c r="N103" s="27"/>
       <c r="O103" s="16"/>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="15"/>
-      <c r="B104" s="27"/>
-      <c r="C104" s="27"/>
-      <c r="D104" s="27"/>
-      <c r="E104" s="27"/>
-      <c r="F104" s="27"/>
-      <c r="G104" s="27"/>
-      <c r="H104" s="27"/>
-      <c r="I104" s="27"/>
-      <c r="J104" s="27"/>
-      <c r="K104" s="27"/>
-      <c r="L104" s="27"/>
-      <c r="M104" s="27"/>
-      <c r="N104" s="27"/>
       <c r="O104" s="16"/>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.2">
@@ -10667,85 +10641,30 @@
     <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="15"/>
       <c r="B106" s="15"/>
-      <c r="C106" s="27"/>
-      <c r="D106" s="27"/>
-      <c r="E106" s="27"/>
-      <c r="F106" s="27"/>
-      <c r="G106" s="27"/>
-      <c r="H106" s="27"/>
-      <c r="I106" s="27"/>
-      <c r="J106" s="27"/>
-      <c r="K106" s="27"/>
-      <c r="L106" s="27"/>
-      <c r="M106" s="27"/>
       <c r="N106" s="16"/>
       <c r="O106" s="16"/>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="15"/>
       <c r="B107" s="15"/>
-      <c r="C107" s="27"/>
-      <c r="D107" s="27"/>
-      <c r="E107" s="27"/>
-      <c r="F107" s="27"/>
-      <c r="G107" s="27"/>
-      <c r="H107" s="27"/>
-      <c r="I107" s="27"/>
-      <c r="J107" s="27"/>
-      <c r="K107" s="27"/>
-      <c r="L107" s="27"/>
-      <c r="M107" s="27"/>
       <c r="N107" s="16"/>
       <c r="O107" s="16"/>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="15"/>
       <c r="B108" s="15"/>
-      <c r="C108" s="27"/>
-      <c r="D108" s="27"/>
-      <c r="E108" s="27"/>
-      <c r="F108" s="27"/>
-      <c r="G108" s="27"/>
-      <c r="H108" s="27"/>
-      <c r="I108" s="27"/>
-      <c r="J108" s="27"/>
-      <c r="K108" s="27"/>
-      <c r="L108" s="27"/>
-      <c r="M108" s="27"/>
       <c r="N108" s="16"/>
       <c r="O108" s="16"/>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="15"/>
       <c r="B109" s="15"/>
-      <c r="C109" s="27"/>
-      <c r="D109" s="27"/>
-      <c r="E109" s="27"/>
-      <c r="F109" s="27"/>
-      <c r="G109" s="27"/>
-      <c r="H109" s="27"/>
-      <c r="I109" s="27"/>
-      <c r="J109" s="27"/>
-      <c r="K109" s="27"/>
-      <c r="L109" s="27"/>
-      <c r="M109" s="27"/>
       <c r="N109" s="16"/>
       <c r="O109" s="16"/>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="15"/>
       <c r="B110" s="15"/>
-      <c r="C110" s="27"/>
-      <c r="D110" s="27"/>
-      <c r="E110" s="27"/>
-      <c r="F110" s="27"/>
-      <c r="G110" s="27"/>
-      <c r="H110" s="27"/>
-      <c r="I110" s="27"/>
-      <c r="J110" s="27"/>
-      <c r="K110" s="27"/>
-      <c r="L110" s="27"/>
-      <c r="M110" s="27"/>
       <c r="N110" s="16"/>
       <c r="O110" s="16"/>
     </row>
@@ -10787,4 +10706,1214 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD6E85A-E224-734D-B6F6-CCF22A1D3A86}">
+  <dimension ref="A3:M114"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="179" workbookViewId="0">
+      <selection activeCell="H104" sqref="H104"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="1"/>
+      <c r="D34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="1"/>
+      <c r="D35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="1"/>
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="5"/>
+      <c r="C38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="5"/>
+      <c r="D39" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5"/>
+      <c r="D40" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5"/>
+      <c r="D41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="1"/>
+      <c r="D43" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="1"/>
+      <c r="D44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="1"/>
+      <c r="D45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="1"/>
+      <c r="D46" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="1"/>
+      <c r="D47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="1"/>
+      <c r="D48" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="1"/>
+      <c r="D49" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="1"/>
+      <c r="D50" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="1"/>
+      <c r="D52" t="s">
+        <v>74</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="1"/>
+      <c r="D53" t="s">
+        <v>93</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="1"/>
+      <c r="D54" t="s">
+        <v>111</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="1"/>
+      <c r="D55" t="s">
+        <v>130</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="1"/>
+      <c r="D56" t="s">
+        <v>137</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="1"/>
+      <c r="D57" t="s">
+        <v>144</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="1"/>
+      <c r="D58" t="s">
+        <v>159</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="6"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="1"/>
+      <c r="D59" t="s">
+        <v>75</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
+      <c r="B60" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="1"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="1"/>
+      <c r="D62" t="s">
+        <v>50</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="1"/>
+      <c r="D63" t="s">
+        <v>51</v>
+      </c>
+      <c r="E63" s="1"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="1"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="1"/>
+      <c r="D64" t="s">
+        <v>52</v>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="6"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="1"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="1"/>
+      <c r="D65" t="s">
+        <v>53</v>
+      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="1"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="1"/>
+      <c r="D66" t="s">
+        <v>54</v>
+      </c>
+      <c r="E66" s="1"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="1"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="1"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="1"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="1"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="1"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="1"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="1"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="1"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="1"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="1"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="1"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="1"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="1"/>
+      <c r="B80" s="5"/>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="6"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="1"/>
+      <c r="B81" s="5"/>
+      <c r="C81" t="s">
+        <v>69</v>
+      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="1"/>
+      <c r="B82" s="5"/>
+      <c r="C82" t="s">
+        <v>70</v>
+      </c>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="6"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="1"/>
+      <c r="B83" s="5"/>
+      <c r="C83" t="s">
+        <v>161</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="6"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="1"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="6"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="1"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H85" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="1"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="1"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B90" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="14"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B91" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C91" s="27"/>
+      <c r="D91" s="27"/>
+      <c r="E91" s="27"/>
+      <c r="F91" s="27"/>
+      <c r="G91" s="16"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B92" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C92" s="27"/>
+      <c r="D92" s="27"/>
+      <c r="E92" s="27"/>
+      <c r="F92" s="27"/>
+      <c r="G92" s="16"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B93" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C93" s="27"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="27"/>
+      <c r="F93" s="27"/>
+      <c r="G93" s="16"/>
+      <c r="H93" t="s">
+        <v>71</v>
+      </c>
+      <c r="I93" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B94" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="C94" s="27"/>
+      <c r="D94" s="27"/>
+      <c r="E94" s="27"/>
+      <c r="F94" s="27"/>
+      <c r="G94" s="16"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B95" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C95" s="27"/>
+      <c r="D95" s="27"/>
+      <c r="E95" s="27"/>
+      <c r="F95" s="27"/>
+      <c r="G95" s="16"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B96" s="15"/>
+      <c r="C96" s="27"/>
+      <c r="D96" s="27"/>
+      <c r="E96" s="27"/>
+      <c r="F96" s="27"/>
+      <c r="G96" s="16"/>
+    </row>
+    <row r="97" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B97" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C97" s="27"/>
+      <c r="D97" s="27"/>
+      <c r="E97" s="27"/>
+      <c r="F97" s="27"/>
+      <c r="G97" s="16"/>
+    </row>
+    <row r="98" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B98" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C98" s="27"/>
+      <c r="D98" s="27"/>
+      <c r="E98" s="27"/>
+      <c r="F98" s="27"/>
+      <c r="G98" s="16"/>
+    </row>
+    <row r="99" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B99" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="C99" s="27"/>
+      <c r="D99" s="27"/>
+      <c r="E99" s="27"/>
+      <c r="F99" s="27"/>
+      <c r="G99" s="16"/>
+      <c r="H99" t="s">
+        <v>71</v>
+      </c>
+      <c r="I99" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="100" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B100" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C100" s="27"/>
+      <c r="D100" s="27"/>
+      <c r="E100" s="27"/>
+      <c r="F100" s="27"/>
+      <c r="G100" s="16"/>
+      <c r="I100" t="s">
+        <v>207</v>
+      </c>
+      <c r="J100" t="s">
+        <v>71</v>
+      </c>
+      <c r="K100" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="101" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B101" s="15"/>
+      <c r="C101" s="27"/>
+      <c r="D101" s="27"/>
+      <c r="E101" s="27"/>
+      <c r="F101" s="27"/>
+      <c r="G101" s="16"/>
+    </row>
+    <row r="102" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B102" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="C102" s="27"/>
+      <c r="D102" s="27"/>
+      <c r="E102" s="27"/>
+      <c r="F102" s="27"/>
+      <c r="G102" s="16"/>
+    </row>
+    <row r="103" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B103" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="C103" s="27"/>
+      <c r="D103" s="27"/>
+      <c r="E103" s="27"/>
+      <c r="F103" s="27"/>
+      <c r="G103" s="16"/>
+      <c r="H103" t="s">
+        <v>71</v>
+      </c>
+      <c r="I103" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="104" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B104" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C104" s="27"/>
+      <c r="D104" s="27"/>
+      <c r="E104" s="27"/>
+      <c r="F104" s="27"/>
+      <c r="G104" s="16"/>
+      <c r="I104" t="s">
+        <v>207</v>
+      </c>
+      <c r="J104" t="s">
+        <v>71</v>
+      </c>
+      <c r="K104" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="105" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B105" s="17"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="18"/>
+      <c r="E105" s="18"/>
+      <c r="F105" s="18"/>
+      <c r="G105" s="19"/>
+    </row>
+    <row r="108" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B108" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C108" s="13"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="13"/>
+      <c r="F108" s="13"/>
+      <c r="G108" s="13"/>
+      <c r="H108" s="13"/>
+      <c r="I108" s="13"/>
+      <c r="J108" s="13"/>
+      <c r="K108" s="13"/>
+      <c r="L108" s="13"/>
+      <c r="M108" s="14"/>
+    </row>
+    <row r="109" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B109" s="15"/>
+      <c r="C109" s="27"/>
+      <c r="D109" s="27"/>
+      <c r="E109" s="27"/>
+      <c r="F109" s="27"/>
+      <c r="G109" s="27"/>
+      <c r="H109" s="27"/>
+      <c r="I109" s="27"/>
+      <c r="J109" s="27"/>
+      <c r="K109" s="27"/>
+      <c r="L109" s="27"/>
+      <c r="M109" s="16"/>
+    </row>
+    <row r="110" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B110" s="15"/>
+      <c r="C110" s="27"/>
+      <c r="D110" s="27"/>
+      <c r="E110" s="27"/>
+      <c r="F110" s="27"/>
+      <c r="G110" s="27"/>
+      <c r="H110" s="27"/>
+      <c r="I110" s="27"/>
+      <c r="J110" s="27"/>
+      <c r="K110" s="27"/>
+      <c r="L110" s="27"/>
+      <c r="M110" s="16"/>
+    </row>
+    <row r="111" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B111" s="15"/>
+      <c r="C111" s="27"/>
+      <c r="D111" s="27"/>
+      <c r="E111" s="27"/>
+      <c r="F111" s="27"/>
+      <c r="G111" s="27"/>
+      <c r="H111" s="27"/>
+      <c r="I111" s="27"/>
+      <c r="J111" s="27"/>
+      <c r="K111" s="27"/>
+      <c r="L111" s="27"/>
+      <c r="M111" s="16"/>
+    </row>
+    <row r="112" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B112" s="15"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="27"/>
+      <c r="E112" s="27"/>
+      <c r="F112" s="27"/>
+      <c r="G112" s="27"/>
+      <c r="H112" s="27"/>
+      <c r="I112" s="27"/>
+      <c r="J112" s="27"/>
+      <c r="K112" s="27"/>
+      <c r="L112" s="27"/>
+      <c r="M112" s="16"/>
+    </row>
+    <row r="113" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B113" s="15"/>
+      <c r="C113" s="27"/>
+      <c r="D113" s="27"/>
+      <c r="E113" s="27"/>
+      <c r="F113" s="27"/>
+      <c r="G113" s="27"/>
+      <c r="H113" s="27"/>
+      <c r="I113" s="27"/>
+      <c r="J113" s="27"/>
+      <c r="K113" s="27"/>
+      <c r="L113" s="27"/>
+      <c r="M113" s="16"/>
+    </row>
+    <row r="114" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B114" s="17"/>
+      <c r="C114" s="18"/>
+      <c r="D114" s="18"/>
+      <c r="E114" s="18"/>
+      <c r="F114" s="18"/>
+      <c r="G114" s="18"/>
+      <c r="H114" s="18"/>
+      <c r="I114" s="18"/>
+      <c r="J114" s="18"/>
+      <c r="K114" s="18"/>
+      <c r="L114" s="18"/>
+      <c r="M114" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>